--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdimeo\Documents\great-war-1916\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkavanek/Dropbox/Danny-John Games/GreatWar New Map/TEXT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="0" windowWidth="26820" windowHeight="14820"/>
+    <workbookView xWindow="11180" yWindow="8660" windowWidth="37660" windowHeight="13160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
     <sheet name="Territories" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="550">
   <si>
     <t>unit</t>
   </si>
@@ -1651,6 +1657,30 @@
   </si>
   <si>
     <t>Develop-Railgun</t>
+  </si>
+  <si>
+    <t>createsUnitsList</t>
+  </si>
+  <si>
+    <t>isLandTransportable</t>
+  </si>
+  <si>
+    <t>isSuicide</t>
+  </si>
+  <si>
+    <t>isKamikaze</t>
+  </si>
+  <si>
+    <t>givesMovement</t>
+  </si>
+  <si>
+    <t>1:Munitions</t>
+  </si>
+  <si>
+    <t>2:Munitions</t>
+  </si>
+  <si>
+    <t>1:Infantry</t>
   </si>
 </sst>
 </file>
@@ -1980,14 +2010,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,94 +2046,109 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2154,8 +2199,13 @@
       <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2179,7 +2229,9 @@
       <c r="I3" t="n">
         <v>2.0</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="n">
+        <v>1.0</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -2208,8 +2260,13 @@
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2233,14 +2290,16 @@
       <c r="I4" t="n">
         <v>3.0</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="M4" t="s">
+        <v>547</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -2266,8 +2325,13 @@
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2291,17 +2355,19 @@
       <c r="I5" t="n">
         <v>4.0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5"/>
-      <c r="N5"/>
+      <c r="M5" t="s">
+        <v>548</v>
+      </c>
+      <c r="N5" t="s">
+        <v>39</v>
+      </c>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -2326,8 +2392,13 @@
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2352,17 +2423,17 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3.0</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
@@ -2384,8 +2455,13 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2410,18 +2486,18 @@
         <v>1.0</v>
       </c>
       <c r="J7"/>
-      <c r="K7" t="s">
+      <c r="K7"/>
+      <c r="L7" t="s">
         <v>43</v>
       </c>
-      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q7"/>
-      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -2442,8 +2518,13 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2474,14 +2555,14 @@
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" t="s">
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8" t="s">
         <v>42</v>
       </c>
-      <c r="R8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S8"/>
-      <c r="T8"/>
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -2500,8 +2581,13 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2526,21 +2612,21 @@
         <v>2.0</v>
       </c>
       <c r="J9"/>
-      <c r="K9" t="s">
+      <c r="K9"/>
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9" t="s">
-        <v>39</v>
-      </c>
+      <c r="S9"/>
       <c r="T9"/>
-      <c r="U9"/>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9"/>
@@ -2558,8 +2644,13 @@
       <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2591,14 +2682,14 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-      <c r="T10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10"/>
-      <c r="W10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
       <c r="X10"/>
       <c r="Y10"/>
       <c r="Z10"/>
@@ -2614,8 +2705,13 @@
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2647,14 +2743,14 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11"/>
-      <c r="W11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
       <c r="X11"/>
       <c r="Y11"/>
       <c r="Z11"/>
@@ -2670,8 +2766,13 @@
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2703,14 +2804,14 @@
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
-      <c r="T12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12"/>
-      <c r="W12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
       <c r="X12"/>
       <c r="Y12"/>
       <c r="Z12"/>
@@ -2726,8 +2827,13 @@
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2759,14 +2865,14 @@
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13"/>
-      <c r="W13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
@@ -2782,8 +2888,13 @@
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>541</v>
       </c>
@@ -2817,8 +2928,12 @@
       <c r="S14"/>
       <c r="T14"/>
       <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
+      <c r="V14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>39</v>
+      </c>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
@@ -2834,8 +2949,13 @@
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2867,14 +2987,14 @@
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-      <c r="T15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15"/>
-      <c r="W15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
@@ -2890,8 +3010,13 @@
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2921,26 +3046,26 @@
       <c r="S16"/>
       <c r="T16"/>
       <c r="U16"/>
-      <c r="V16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" t="s">
         <v>55</v>
       </c>
-      <c r="X16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA16" t="n">
         <v>2.0</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>6.0</v>
       </c>
-      <c r="AA16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB16"/>
-      <c r="AC16"/>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
       <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16"/>
@@ -2950,8 +3075,13 @@
       <c r="AJ16"/>
       <c r="AK16"/>
       <c r="AL16"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -2993,11 +3123,11 @@
       <c r="Y17"/>
       <c r="Z17"/>
       <c r="AA17"/>
-      <c r="AB17" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB17"/>
       <c r="AC17"/>
-      <c r="AD17"/>
+      <c r="AD17" t="s">
+        <v>39</v>
+      </c>
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
@@ -3006,8 +3136,13 @@
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -3032,15 +3167,15 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18" t="s">
-        <v>39</v>
-      </c>
+      <c r="M18"/>
       <c r="N18"/>
-      <c r="O18" t="n">
-        <v>1.0</v>
+      <c r="O18" t="s">
+        <v>39</v>
       </c>
       <c r="P18"/>
-      <c r="Q18"/>
+      <c r="Q18" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
@@ -3062,8 +3197,13 @@
       <c r="AJ18"/>
       <c r="AK18"/>
       <c r="AL18"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3087,11 +3227,13 @@
       <c r="I19" t="n">
         <v>1.0</v>
       </c>
-      <c r="J19"/>
-      <c r="K19" t="s">
+      <c r="J19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
@@ -3108,9 +3250,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19"/>
-      <c r="AC19" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19"/>
@@ -3120,8 +3260,13 @@
       <c r="AJ19"/>
       <c r="AK19"/>
       <c r="AL19"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3146,10 +3291,10 @@
         <v>1.0</v>
       </c>
       <c r="J20"/>
-      <c r="K20" t="s">
+      <c r="K20"/>
+      <c r="L20" t="s">
         <v>60</v>
       </c>
-      <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
@@ -3167,25 +3312,32 @@
       <c r="AA20"/>
       <c r="AB20"/>
       <c r="AC20"/>
-      <c r="AD20" t="s">
-        <v>39</v>
-      </c>
+      <c r="AD20"/>
       <c r="AE20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s">
         <v>59</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AH20" t="n">
         <v>2.0</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>10.0</v>
       </c>
-      <c r="AH20"/>
-      <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
       <c r="AL20"/>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3227,11 +3379,11 @@
       <c r="Y21"/>
       <c r="Z21"/>
       <c r="AA21"/>
-      <c r="AB21" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB21"/>
       <c r="AC21"/>
-      <c r="AD21"/>
+      <c r="AD21" t="s">
+        <v>39</v>
+      </c>
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21"/>
@@ -3240,8 +3392,13 @@
       <c r="AJ21"/>
       <c r="AK21"/>
       <c r="AL21"/>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3273,18 +3430,18 @@
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
-      <c r="R22" t="s">
-        <v>39</v>
-      </c>
+      <c r="R22"/>
       <c r="S22"/>
-      <c r="T22"/>
+      <c r="T22" t="s">
+        <v>39</v>
+      </c>
       <c r="U22"/>
       <c r="V22"/>
-      <c r="W22" t="s">
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22" t="s">
         <v>63</v>
       </c>
-      <c r="X22"/>
-      <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
@@ -3293,15 +3450,22 @@
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22"/>
-      <c r="AH22" t="s">
-        <v>39</v>
-      </c>
+      <c r="AH22"/>
       <c r="AI22"/>
-      <c r="AJ22"/>
-      <c r="AK22"/>
+      <c r="AJ22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>39</v>
+      </c>
       <c r="AL22"/>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -3324,16 +3488,18 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23"/>
+      <c r="M23" t="s">
+        <v>549</v>
+      </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23" t="s">
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23" t="s">
         <v>42</v>
       </c>
-      <c r="S23"/>
-      <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -3341,27 +3507,34 @@
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
-      <c r="AB23" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB23"/>
       <c r="AC23"/>
-      <c r="AD23"/>
+      <c r="AD23" t="s">
+        <v>39</v>
+      </c>
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23"/>
-      <c r="AH23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI23" t="n">
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL23" t="n">
         <v>10.0</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK23"/>
-      <c r="AL23"/>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -3392,14 +3565,14 @@
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
-      <c r="Q24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+      <c r="T24" t="s">
         <v>42</v>
       </c>
-      <c r="S24"/>
-      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -3416,12 +3589,17 @@
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
-      <c r="AK24" t="s">
-        <v>39</v>
-      </c>
+      <c r="AK24"/>
       <c r="AL24"/>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24"/>
+      <c r="AN24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>539</v>
       </c>
@@ -3446,11 +3624,11 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25" t="s">
-        <v>39</v>
-      </c>
+      <c r="M25"/>
       <c r="N25"/>
-      <c r="O25"/>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
@@ -3474,8 +3652,17 @@
       <c r="AJ25"/>
       <c r="AK25"/>
       <c r="AL25"/>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ25"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>540</v>
       </c>
@@ -3500,7 +3687,9 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26"/>
+      <c r="M26" t="s">
+        <v>547</v>
+      </c>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
@@ -3526,8 +3715,15 @@
       <c r="AJ26"/>
       <c r="AK26"/>
       <c r="AL26"/>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3552,15 +3748,15 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" t="s">
-        <v>39</v>
-      </c>
+      <c r="M27"/>
       <c r="N27"/>
-      <c r="O27" t="n">
-        <v>1.0</v>
+      <c r="O27" t="s">
+        <v>39</v>
       </c>
       <c r="P27"/>
-      <c r="Q27"/>
+      <c r="Q27" t="n">
+        <v>1.0</v>
+      </c>
       <c r="R27"/>
       <c r="S27"/>
       <c r="T27"/>
@@ -3582,8 +3778,13 @@
       <c r="AJ27"/>
       <c r="AK27"/>
       <c r="AL27"/>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3612,46 +3813,51 @@
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
-      <c r="U28" t="s">
-        <v>39</v>
-      </c>
+      <c r="U28"/>
       <c r="V28"/>
       <c r="W28" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28"/>
+      <c r="Y28" t="s">
         <v>44</v>
       </c>
-      <c r="X28" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA28" t="n">
         <v>12.0</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AB28" t="n">
         <v>6.0</v>
       </c>
-      <c r="AA28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AC28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s">
         <v>60</v>
       </c>
-      <c r="AF28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AH28"/>
-      <c r="AI28"/>
+      <c r="AH28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -3676,10 +3882,10 @@
         <v>1.0</v>
       </c>
       <c r="J29"/>
-      <c r="K29" t="s">
+      <c r="K29"/>
+      <c r="L29" t="s">
         <v>43</v>
       </c>
-      <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
@@ -3698,18 +3904,23 @@
       <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29"/>
-      <c r="AE29"/>
+      <c r="AE29" t="s">
+        <v>39</v>
+      </c>
       <c r="AF29"/>
       <c r="AG29"/>
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
       <c r="AK29"/>
-      <c r="AL29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3735,11 +3946,11 @@
       </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" t="s">
-        <v>39</v>
-      </c>
+      <c r="L30"/>
       <c r="M30"/>
-      <c r="N30"/>
+      <c r="N30" t="s">
+        <v>39</v>
+      </c>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
@@ -3764,8 +3975,13 @@
       <c r="AJ30"/>
       <c r="AK30"/>
       <c r="AL30"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -3789,7 +4005,9 @@
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
-      <c r="J31"/>
+      <c r="J31" t="n">
+        <v>5.0</v>
+      </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -3808,9 +4026,7 @@
       <c r="Z31"/>
       <c r="AA31"/>
       <c r="AB31"/>
-      <c r="AC31" t="n">
-        <v>5.0</v>
-      </c>
+      <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
       <c r="AF31"/>
@@ -3820,8 +4036,13 @@
       <c r="AJ31"/>
       <c r="AK31"/>
       <c r="AL31"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3845,11 +4066,11 @@
       </c>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32" t="s">
-        <v>39</v>
-      </c>
+      <c r="L32"/>
       <c r="M32"/>
-      <c r="N32"/>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
@@ -3865,25 +4086,30 @@
       <c r="AA32"/>
       <c r="AB32"/>
       <c r="AC32"/>
-      <c r="AD32" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG32" t="s">
         <v>63</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AH32" t="n">
         <v>2.0</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>10.0</v>
       </c>
-      <c r="AH32"/>
-      <c r="AI32"/>
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -3907,11 +4133,13 @@
       <c r="I33" t="n">
         <v>0.0</v>
       </c>
-      <c r="J33"/>
-      <c r="K33" t="s">
+      <c r="J33" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33" t="s">
         <v>43</v>
       </c>
-      <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
@@ -3928,9 +4156,7 @@
       <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33"/>
-      <c r="AC33" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33"/>
       <c r="AF33"/>
@@ -3940,8 +4166,13 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -3966,17 +4197,17 @@
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" t="n">
         <v>3.0</v>
       </c>
-      <c r="P34"/>
-      <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -3998,6 +4229,11 @@
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4008,18 +4244,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI300" sqref="AI300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.5703125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.83203125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.5" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -4132,7 +4368,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -4179,7 +4415,7 @@
       <c r="AJ2"/>
       <c r="AK2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -4228,7 +4464,7 @@
       <c r="AJ3"/>
       <c r="AK3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -4277,7 +4513,7 @@
       <c r="AJ4"/>
       <c r="AK4"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -4326,7 +4562,7 @@
       <c r="AJ5"/>
       <c r="AK5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4375,7 +4611,7 @@
       <c r="AJ6"/>
       <c r="AK6"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -4389,7 +4625,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
@@ -4430,7 +4666,7 @@
       <c r="AJ7"/>
       <c r="AK7"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4481,7 +4717,7 @@
       <c r="AJ8"/>
       <c r="AK8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4532,7 +4768,7 @@
       <c r="AJ9"/>
       <c r="AK9"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4581,7 +4817,7 @@
       <c r="AJ10"/>
       <c r="AK10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -4595,12 +4831,14 @@
         <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
+      <c r="I11" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -4630,7 +4868,7 @@
       <c r="AJ11"/>
       <c r="AK11"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4687,7 +4925,7 @@
       <c r="AJ12"/>
       <c r="AK12"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -4744,7 +4982,7 @@
       <c r="AJ13"/>
       <c r="AK13"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -4793,7 +5031,7 @@
       <c r="AJ14"/>
       <c r="AK14"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -4852,7 +5090,7 @@
       <c r="AJ15"/>
       <c r="AK15"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -4901,7 +5139,7 @@
       <c r="AJ16"/>
       <c r="AK16"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -4950,7 +5188,7 @@
       <c r="AJ17"/>
       <c r="AK17"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -5005,7 +5243,7 @@
       <c r="AJ18"/>
       <c r="AK18"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -5054,7 +5292,7 @@
       <c r="AJ19"/>
       <c r="AK19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -5111,7 +5349,7 @@
       <c r="AJ20"/>
       <c r="AK20"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -5170,7 +5408,7 @@
       <c r="AJ21"/>
       <c r="AK21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -5227,7 +5465,7 @@
       <c r="AJ22"/>
       <c r="AK22"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -5280,7 +5518,7 @@
       <c r="AJ23"/>
       <c r="AK23"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -5337,7 +5575,7 @@
       <c r="AJ24"/>
       <c r="AK24"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -5351,7 +5589,7 @@
         <v>16.0</v>
       </c>
       <c r="E25" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
@@ -5398,7 +5636,7 @@
       <c r="AJ25"/>
       <c r="AK25"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -5412,12 +5650,16 @@
         <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F26"/>
-      <c r="G26"/>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H26"/>
-      <c r="I26"/>
+      <c r="I26" t="n">
+        <v>3.0</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -5447,7 +5689,7 @@
       <c r="AJ26"/>
       <c r="AK26"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -5496,7 +5738,7 @@
       <c r="AJ27"/>
       <c r="AK27"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5543,7 +5785,7 @@
       <c r="AJ28"/>
       <c r="AK28"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -5557,11 +5799,11 @@
         <v>3.0</v>
       </c>
       <c r="E29" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="n">
@@ -5596,7 +5838,7 @@
       <c r="AJ29"/>
       <c r="AK29"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -5643,7 +5885,7 @@
       <c r="AJ30"/>
       <c r="AK30"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -5657,7 +5899,7 @@
         <v>3.0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
@@ -5696,7 +5938,7 @@
       <c r="AJ31"/>
       <c r="AK31"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -5710,7 +5952,7 @@
         <v>3.0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
@@ -5749,7 +5991,7 @@
       <c r="AJ32"/>
       <c r="AK32"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5763,7 +6005,7 @@
         <v>3.0</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
@@ -5802,7 +6044,7 @@
       <c r="AJ33"/>
       <c r="AK33"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -5853,7 +6095,7 @@
       <c r="AJ34"/>
       <c r="AK34"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -5908,7 +6150,7 @@
       <c r="AJ35"/>
       <c r="AK35"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -5961,7 +6203,7 @@
       <c r="AJ36"/>
       <c r="AK36"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -6010,7 +6252,7 @@
       <c r="AJ37"/>
       <c r="AK37"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -6067,7 +6309,7 @@
       <c r="AJ38"/>
       <c r="AK38"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -6120,7 +6362,7 @@
       <c r="AJ39"/>
       <c r="AK39"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -6169,7 +6411,7 @@
       <c r="AJ40"/>
       <c r="AK40"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -6232,7 +6474,7 @@
       <c r="AJ41"/>
       <c r="AK41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -6246,7 +6488,7 @@
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
@@ -6287,7 +6529,7 @@
       <c r="AJ42"/>
       <c r="AK42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -6346,7 +6588,7 @@
       <c r="AJ43"/>
       <c r="AK43"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -6397,7 +6639,7 @@
       <c r="AJ44"/>
       <c r="AK44"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -6446,7 +6688,7 @@
       <c r="AJ45"/>
       <c r="AK45"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -6495,7 +6737,7 @@
       <c r="AJ46"/>
       <c r="AK46"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -6552,7 +6794,7 @@
       <c r="AJ47"/>
       <c r="AK47"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -6566,12 +6808,14 @@
         <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -6601,7 +6845,7 @@
       <c r="AJ48"/>
       <c r="AK48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -6652,7 +6896,7 @@
       <c r="AJ49"/>
       <c r="AK49"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -6701,7 +6945,7 @@
       <c r="AJ50"/>
       <c r="AK50"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -6752,7 +6996,7 @@
       <c r="AJ51"/>
       <c r="AK51"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -6801,7 +7045,7 @@
       <c r="AJ52"/>
       <c r="AK52"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -6850,7 +7094,7 @@
       <c r="AJ53"/>
       <c r="AK53"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -6897,7 +7141,7 @@
       <c r="AJ54"/>
       <c r="AK54"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -6944,7 +7188,7 @@
       <c r="AJ55"/>
       <c r="AK55"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -6993,7 +7237,7 @@
       <c r="AJ56"/>
       <c r="AK56"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -7044,7 +7288,7 @@
       <c r="AJ57"/>
       <c r="AK57"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -7089,7 +7333,7 @@
       <c r="AJ58"/>
       <c r="AK58"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -7111,7 +7355,7 @@
       </c>
       <c r="H59"/>
       <c r="I59" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -7148,7 +7392,7 @@
       <c r="AJ59"/>
       <c r="AK59"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -7197,7 +7441,7 @@
       <c r="AJ60"/>
       <c r="AK60"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>147</v>
       </c>
@@ -7246,7 +7490,7 @@
       <c r="AJ61"/>
       <c r="AK61"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -7303,7 +7547,7 @@
       <c r="AJ62"/>
       <c r="AK62"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -7352,7 +7596,7 @@
       <c r="AJ63"/>
       <c r="AK63"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -7405,7 +7649,7 @@
       <c r="AJ64"/>
       <c r="AK64"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>151</v>
       </c>
@@ -7460,7 +7704,7 @@
       <c r="AJ65"/>
       <c r="AK65"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -7509,7 +7753,7 @@
       <c r="AJ66"/>
       <c r="AK66"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -7558,7 +7802,7 @@
       <c r="AJ67"/>
       <c r="AK67"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>154</v>
       </c>
@@ -7607,7 +7851,7 @@
       <c r="AJ68"/>
       <c r="AK68"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -7656,7 +7900,7 @@
       <c r="AJ69"/>
       <c r="AK69"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -7670,7 +7914,7 @@
         <v>4.0</v>
       </c>
       <c r="E70" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
@@ -7715,7 +7959,7 @@
       <c r="AJ70"/>
       <c r="AK70"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>157</v>
       </c>
@@ -7770,7 +8014,7 @@
       <c r="AJ71"/>
       <c r="AK71"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -7784,7 +8028,7 @@
         <v>5.0</v>
       </c>
       <c r="E72" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
@@ -7833,7 +8077,7 @@
       <c r="AJ72"/>
       <c r="AK72"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -7847,7 +8091,7 @@
         <v>1.0</v>
       </c>
       <c r="E73" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F73"/>
       <c r="G73"/>
@@ -7882,7 +8126,7 @@
       <c r="AJ73"/>
       <c r="AK73"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -7931,7 +8175,7 @@
       <c r="AJ74"/>
       <c r="AK74"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -7980,7 +8224,7 @@
       <c r="AJ75"/>
       <c r="AK75"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>162</v>
       </c>
@@ -8037,7 +8281,7 @@
       <c r="AJ76"/>
       <c r="AK76"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -8092,7 +8336,7 @@
       <c r="AJ77"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -8143,7 +8387,7 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -8192,7 +8436,7 @@
       <c r="AJ79"/>
       <c r="AK79"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -8237,7 +8481,7 @@
       <c r="AJ80"/>
       <c r="AK80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -8251,7 +8495,7 @@
         <v>6.0</v>
       </c>
       <c r="E81" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
@@ -8259,7 +8503,7 @@
       </c>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -8290,7 +8534,7 @@
       <c r="AJ81"/>
       <c r="AK81"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -8339,7 +8583,7 @@
       <c r="AJ82"/>
       <c r="AK82"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -8388,7 +8632,7 @@
       <c r="AJ83"/>
       <c r="AK83"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>170</v>
       </c>
@@ -8441,7 +8685,7 @@
       <c r="AJ84"/>
       <c r="AK84"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>171</v>
       </c>
@@ -8498,7 +8742,7 @@
       <c r="AJ85"/>
       <c r="AK85"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -8547,7 +8791,7 @@
       <c r="AJ86"/>
       <c r="AK86"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -8612,7 +8856,7 @@
       <c r="AJ87"/>
       <c r="AK87"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -8659,7 +8903,7 @@
       <c r="AJ88"/>
       <c r="AK88"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>175</v>
       </c>
@@ -8710,7 +8954,7 @@
       <c r="AJ89"/>
       <c r="AK89"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -8761,7 +9005,7 @@
       <c r="AJ90"/>
       <c r="AK90"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -8810,7 +9054,7 @@
       <c r="AJ91"/>
       <c r="AK91"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>178</v>
       </c>
@@ -8865,7 +9109,7 @@
       <c r="AJ92"/>
       <c r="AK92"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -8916,7 +9160,7 @@
       <c r="AJ93"/>
       <c r="AK93"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>180</v>
       </c>
@@ -8965,7 +9209,7 @@
       <c r="AJ94"/>
       <c r="AK94"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -9016,7 +9260,7 @@
       <c r="AJ95"/>
       <c r="AK95"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -9067,7 +9311,7 @@
       <c r="AJ96"/>
       <c r="AK96"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -9128,7 +9372,7 @@
       <c r="AJ97"/>
       <c r="AK97"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>184</v>
       </c>
@@ -9185,7 +9429,7 @@
       <c r="AJ98"/>
       <c r="AK98"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -9234,7 +9478,7 @@
       <c r="AJ99"/>
       <c r="AK99"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>186</v>
       </c>
@@ -9289,7 +9533,7 @@
       <c r="AJ100"/>
       <c r="AK100"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>187</v>
       </c>
@@ -9340,7 +9584,7 @@
       <c r="AJ101"/>
       <c r="AK101"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -9405,7 +9649,7 @@
       <c r="AJ102"/>
       <c r="AK102"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -9419,7 +9663,7 @@
         <v>2.0</v>
       </c>
       <c r="E103" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
@@ -9460,7 +9704,7 @@
       <c r="AJ103"/>
       <c r="AK103"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>190</v>
       </c>
@@ -9519,7 +9763,7 @@
       <c r="AJ104"/>
       <c r="AK104"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -9572,7 +9816,7 @@
       <c r="AJ105"/>
       <c r="AK105"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -9621,7 +9865,7 @@
       <c r="AJ106"/>
       <c r="AK106"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>193</v>
       </c>
@@ -9682,7 +9926,7 @@
       <c r="AJ107"/>
       <c r="AK107"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -9733,7 +9977,7 @@
       <c r="AJ108"/>
       <c r="AK108"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>195</v>
       </c>
@@ -9784,7 +10028,7 @@
       <c r="AJ109"/>
       <c r="AK109"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>196</v>
       </c>
@@ -9841,7 +10085,7 @@
       <c r="AJ110"/>
       <c r="AK110"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>197</v>
       </c>
@@ -9896,7 +10140,7 @@
       <c r="AJ111"/>
       <c r="AK111"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>198</v>
       </c>
@@ -9910,7 +10154,7 @@
         <v>2.0</v>
       </c>
       <c r="E112" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
@@ -9918,7 +10162,7 @@
       </c>
       <c r="H112"/>
       <c r="I112" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
@@ -9953,7 +10197,7 @@
       <c r="AJ112"/>
       <c r="AK112"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>199</v>
       </c>
@@ -9967,7 +10211,7 @@
         <v>6.0</v>
       </c>
       <c r="E113" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
@@ -10014,7 +10258,7 @@
       <c r="AJ113"/>
       <c r="AK113"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>200</v>
       </c>
@@ -10063,7 +10307,7 @@
       <c r="AJ114"/>
       <c r="AK114"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>201</v>
       </c>
@@ -10112,7 +10356,7 @@
       <c r="AJ115"/>
       <c r="AK115"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>202</v>
       </c>
@@ -10126,7 +10370,7 @@
         <v>2.0</v>
       </c>
       <c r="E116" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
@@ -10167,7 +10411,7 @@
       <c r="AJ116"/>
       <c r="AK116"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>203</v>
       </c>
@@ -10224,7 +10468,7 @@
       <c r="AJ117"/>
       <c r="AK117"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -10273,7 +10517,7 @@
       <c r="AJ118"/>
       <c r="AK118"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -10322,7 +10566,7 @@
       <c r="AJ119"/>
       <c r="AK119"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -10375,7 +10619,7 @@
       <c r="AJ120"/>
       <c r="AK120"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -10426,7 +10670,7 @@
       <c r="AJ121"/>
       <c r="AK121"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -10475,7 +10719,7 @@
       <c r="AJ122"/>
       <c r="AK122"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>209</v>
       </c>
@@ -10489,15 +10733,15 @@
         <v>1.0</v>
       </c>
       <c r="E123" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H123"/>
       <c r="I123" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
@@ -10528,7 +10772,7 @@
       <c r="AJ123"/>
       <c r="AK123"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>210</v>
       </c>
@@ -10579,7 +10823,7 @@
       <c r="AJ124"/>
       <c r="AK124"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>211</v>
       </c>
@@ -10624,7 +10868,7 @@
       <c r="AJ125"/>
       <c r="AK125"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>212</v>
       </c>
@@ -10675,7 +10919,7 @@
       <c r="AJ126"/>
       <c r="AK126"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -10724,7 +10968,7 @@
       <c r="AJ127"/>
       <c r="AK127"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>214</v>
       </c>
@@ -10738,10 +10982,12 @@
         <v>2.0</v>
       </c>
       <c r="E128" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F128"/>
-      <c r="G128"/>
+      <c r="G128" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128"/>
@@ -10773,7 +11019,7 @@
       <c r="AJ128"/>
       <c r="AK128"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>215</v>
       </c>
@@ -10834,7 +11080,7 @@
       <c r="AJ129"/>
       <c r="AK129"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>216</v>
       </c>
@@ -10893,7 +11139,7 @@
       <c r="AJ130"/>
       <c r="AK130"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>217</v>
       </c>
@@ -10906,7 +11152,9 @@
       <c r="D131" t="n">
         <v>1.0</v>
       </c>
-      <c r="E131"/>
+      <c r="E131" t="n">
+        <v>2.0</v>
+      </c>
       <c r="F131"/>
       <c r="G131"/>
       <c r="H131"/>
@@ -10923,7 +11171,9 @@
       <c r="S131"/>
       <c r="T131"/>
       <c r="U131"/>
-      <c r="V131"/>
+      <c r="V131" t="n">
+        <v>2.0</v>
+      </c>
       <c r="W131"/>
       <c r="X131"/>
       <c r="Y131"/>
@@ -10940,7 +11190,7 @@
       <c r="AJ131"/>
       <c r="AK131"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -10985,7 +11235,7 @@
       <c r="AJ132"/>
       <c r="AK132"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -11034,7 +11284,7 @@
       <c r="AJ133"/>
       <c r="AK133"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -11095,7 +11345,7 @@
       <c r="AJ134"/>
       <c r="AK134"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>221</v>
       </c>
@@ -11148,7 +11398,7 @@
       <c r="AJ135"/>
       <c r="AK135"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -11162,7 +11412,7 @@
         <v>3.0</v>
       </c>
       <c r="E136" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
@@ -11174,7 +11424,9 @@
       </c>
       <c r="J136"/>
       <c r="K136"/>
-      <c r="L136"/>
+      <c r="L136" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136"/>
@@ -11205,7 +11457,7 @@
       <c r="AJ136"/>
       <c r="AK136"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>223</v>
       </c>
@@ -11256,7 +11508,7 @@
       <c r="AJ137"/>
       <c r="AK137"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>224</v>
       </c>
@@ -11305,7 +11557,7 @@
       <c r="AJ138"/>
       <c r="AK138"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>225</v>
       </c>
@@ -11354,7 +11606,7 @@
       <c r="AJ139"/>
       <c r="AK139"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>226</v>
       </c>
@@ -11368,7 +11620,7 @@
         <v>6.0</v>
       </c>
       <c r="E140" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
@@ -11380,7 +11632,9 @@
       </c>
       <c r="J140"/>
       <c r="K140"/>
-      <c r="L140"/>
+      <c r="L140" t="n">
+        <v>1.0</v>
+      </c>
       <c r="M140"/>
       <c r="N140"/>
       <c r="O140"/>
@@ -11411,7 +11665,7 @@
       <c r="AJ140"/>
       <c r="AK140"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>227</v>
       </c>
@@ -11468,7 +11722,7 @@
       <c r="AJ141"/>
       <c r="AK141"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>228</v>
       </c>
@@ -11519,7 +11773,7 @@
       <c r="AJ142"/>
       <c r="AK142"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -11572,7 +11826,7 @@
       <c r="AJ143"/>
       <c r="AK143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -11586,7 +11840,7 @@
         <v>1.0</v>
       </c>
       <c r="E144" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F144"/>
       <c r="G144" t="n">
@@ -11623,7 +11877,7 @@
       <c r="AJ144"/>
       <c r="AK144"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>231</v>
       </c>
@@ -11670,7 +11924,7 @@
       <c r="AJ145"/>
       <c r="AK145"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>232</v>
       </c>
@@ -11684,7 +11938,7 @@
         <v>4.0</v>
       </c>
       <c r="E146" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F146"/>
       <c r="G146" t="n">
@@ -11692,7 +11946,7 @@
       </c>
       <c r="H146"/>
       <c r="I146" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
@@ -11729,7 +11983,7 @@
       <c r="AJ146"/>
       <c r="AK146"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>233</v>
       </c>
@@ -11792,7 +12046,7 @@
       <c r="AJ147"/>
       <c r="AK147"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>234</v>
       </c>
@@ -11843,7 +12097,7 @@
       <c r="AJ148"/>
       <c r="AK148"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>235</v>
       </c>
@@ -11888,14 +12142,16 @@
       <c r="AJ149"/>
       <c r="AK149"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>236</v>
       </c>
       <c r="B150" t="s">
         <v>39</v>
       </c>
-      <c r="C150"/>
+      <c r="C150" t="s">
+        <v>97</v>
+      </c>
       <c r="D150" t="n">
         <v>0.0</v>
       </c>
@@ -11927,13 +12183,17 @@
       <c r="AD150"/>
       <c r="AE150"/>
       <c r="AF150"/>
-      <c r="AG150"/>
-      <c r="AH150"/>
+      <c r="AG150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI150"/>
       <c r="AJ150"/>
       <c r="AK150"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>237</v>
       </c>
@@ -11978,7 +12238,7 @@
       <c r="AJ151"/>
       <c r="AK151"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>238</v>
       </c>
@@ -12023,7 +12283,7 @@
       <c r="AJ152"/>
       <c r="AK152"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -12068,7 +12328,7 @@
       <c r="AJ153"/>
       <c r="AK153"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>240</v>
       </c>
@@ -12113,7 +12373,7 @@
       <c r="AJ154"/>
       <c r="AK154"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>241</v>
       </c>
@@ -12158,7 +12418,7 @@
       <c r="AJ155"/>
       <c r="AK155"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>242</v>
       </c>
@@ -12203,7 +12463,7 @@
       <c r="AJ156"/>
       <c r="AK156"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>243</v>
       </c>
@@ -12248,7 +12508,7 @@
       <c r="AJ157"/>
       <c r="AK157"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>244</v>
       </c>
@@ -12293,14 +12553,16 @@
       <c r="AJ158"/>
       <c r="AK158"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>245</v>
       </c>
       <c r="B159" t="s">
         <v>39</v>
       </c>
-      <c r="C159"/>
+      <c r="C159" t="s">
+        <v>87</v>
+      </c>
       <c r="D159" t="n">
         <v>0.0</v>
       </c>
@@ -12332,20 +12594,26 @@
       <c r="AD159"/>
       <c r="AE159"/>
       <c r="AF159"/>
-      <c r="AG159"/>
-      <c r="AH159"/>
+      <c r="AG159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI159"/>
       <c r="AJ159"/>
       <c r="AK159"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>246</v>
       </c>
       <c r="B160" t="s">
         <v>39</v>
       </c>
-      <c r="C160"/>
+      <c r="C160" t="s">
+        <v>87</v>
+      </c>
       <c r="D160" t="n">
         <v>0.0</v>
       </c>
@@ -12377,13 +12645,17 @@
       <c r="AD160"/>
       <c r="AE160"/>
       <c r="AF160"/>
-      <c r="AG160"/>
-      <c r="AH160"/>
+      <c r="AG160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI160"/>
       <c r="AJ160"/>
       <c r="AK160"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>247</v>
       </c>
@@ -12428,7 +12700,7 @@
       <c r="AJ161"/>
       <c r="AK161"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>248</v>
       </c>
@@ -12473,7 +12745,7 @@
       <c r="AJ162"/>
       <c r="AK162"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>249</v>
       </c>
@@ -12518,7 +12790,7 @@
       <c r="AJ163"/>
       <c r="AK163"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>250</v>
       </c>
@@ -12563,7 +12835,7 @@
       <c r="AJ164"/>
       <c r="AK164"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>251</v>
       </c>
@@ -12608,7 +12880,7 @@
       <c r="AJ165"/>
       <c r="AK165"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -12653,7 +12925,7 @@
       <c r="AJ166"/>
       <c r="AK166"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>253</v>
       </c>
@@ -12698,14 +12970,16 @@
       <c r="AJ167"/>
       <c r="AK167"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>254</v>
       </c>
       <c r="B168" t="s">
         <v>39</v>
       </c>
-      <c r="C168"/>
+      <c r="C168" t="s">
+        <v>79</v>
+      </c>
       <c r="D168" t="n">
         <v>0.0</v>
       </c>
@@ -12737,13 +13011,17 @@
       <c r="AD168"/>
       <c r="AE168"/>
       <c r="AF168"/>
-      <c r="AG168"/>
-      <c r="AH168"/>
+      <c r="AG168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI168"/>
       <c r="AJ168"/>
       <c r="AK168"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>255</v>
       </c>
@@ -12788,14 +13066,16 @@
       <c r="AJ169"/>
       <c r="AK169"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>256</v>
       </c>
       <c r="B170" t="s">
         <v>39</v>
       </c>
-      <c r="C170"/>
+      <c r="C170" t="s">
+        <v>95</v>
+      </c>
       <c r="D170" t="n">
         <v>0.0</v>
       </c>
@@ -12827,20 +13107,26 @@
       <c r="AD170"/>
       <c r="AE170"/>
       <c r="AF170"/>
-      <c r="AG170"/>
-      <c r="AH170"/>
+      <c r="AG170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI170"/>
       <c r="AJ170"/>
       <c r="AK170"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>257</v>
       </c>
       <c r="B171" t="s">
         <v>39</v>
       </c>
-      <c r="C171"/>
+      <c r="C171" t="s">
+        <v>77</v>
+      </c>
       <c r="D171" t="n">
         <v>0.0</v>
       </c>
@@ -12872,20 +13158,26 @@
       <c r="AD171"/>
       <c r="AE171"/>
       <c r="AF171"/>
-      <c r="AG171"/>
-      <c r="AH171"/>
+      <c r="AG171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI171"/>
       <c r="AJ171"/>
       <c r="AK171"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>258</v>
       </c>
       <c r="B172" t="s">
         <v>39</v>
       </c>
-      <c r="C172"/>
+      <c r="C172" t="s">
+        <v>97</v>
+      </c>
       <c r="D172" t="n">
         <v>0.0</v>
       </c>
@@ -12917,13 +13209,17 @@
       <c r="AD172"/>
       <c r="AE172"/>
       <c r="AF172"/>
-      <c r="AG172"/>
-      <c r="AH172"/>
+      <c r="AG172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI172"/>
       <c r="AJ172"/>
       <c r="AK172"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>259</v>
       </c>
@@ -12968,7 +13264,7 @@
       <c r="AJ173"/>
       <c r="AK173"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>260</v>
       </c>
@@ -13013,14 +13309,16 @@
       <c r="AJ174"/>
       <c r="AK174"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>261</v>
       </c>
       <c r="B175" t="s">
         <v>39</v>
       </c>
-      <c r="C175"/>
+      <c r="C175" t="s">
+        <v>77</v>
+      </c>
       <c r="D175" t="n">
         <v>0.0</v>
       </c>
@@ -13052,13 +13350,17 @@
       <c r="AD175"/>
       <c r="AE175"/>
       <c r="AF175"/>
-      <c r="AG175"/>
-      <c r="AH175"/>
+      <c r="AG175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI175"/>
       <c r="AJ175"/>
       <c r="AK175"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>262</v>
       </c>
@@ -13103,7 +13405,7 @@
       <c r="AJ176"/>
       <c r="AK176"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>263</v>
       </c>
@@ -13148,7 +13450,7 @@
       <c r="AJ177"/>
       <c r="AK177"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>264</v>
       </c>
@@ -13193,7 +13495,7 @@
       <c r="AJ178"/>
       <c r="AK178"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>265</v>
       </c>
@@ -13238,7 +13540,7 @@
       <c r="AJ179"/>
       <c r="AK179"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>266</v>
       </c>
@@ -13283,7 +13585,7 @@
       <c r="AJ180"/>
       <c r="AK180"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>267</v>
       </c>
@@ -13328,7 +13630,7 @@
       <c r="AJ181"/>
       <c r="AK181"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>268</v>
       </c>
@@ -13373,7 +13675,7 @@
       <c r="AJ182"/>
       <c r="AK182"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>269</v>
       </c>
@@ -13418,14 +13720,16 @@
       <c r="AJ183"/>
       <c r="AK183"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>270</v>
       </c>
       <c r="B184" t="s">
         <v>39</v>
       </c>
-      <c r="C184"/>
+      <c r="C184" t="s">
+        <v>77</v>
+      </c>
       <c r="D184" t="n">
         <v>0.0</v>
       </c>
@@ -13458,12 +13762,14 @@
       <c r="AE184"/>
       <c r="AF184"/>
       <c r="AG184"/>
-      <c r="AH184"/>
+      <c r="AH184" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI184"/>
       <c r="AJ184"/>
       <c r="AK184"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>271</v>
       </c>
@@ -13508,7 +13814,7 @@
       <c r="AJ185"/>
       <c r="AK185"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>272</v>
       </c>
@@ -13553,7 +13859,7 @@
       <c r="AJ186"/>
       <c r="AK186"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>273</v>
       </c>
@@ -13598,14 +13904,16 @@
       <c r="AJ187"/>
       <c r="AK187"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>274</v>
       </c>
       <c r="B188" t="s">
         <v>39</v>
       </c>
-      <c r="C188"/>
+      <c r="C188" t="s">
+        <v>93</v>
+      </c>
       <c r="D188" t="n">
         <v>0.0</v>
       </c>
@@ -13637,20 +13945,26 @@
       <c r="AD188"/>
       <c r="AE188"/>
       <c r="AF188"/>
-      <c r="AG188"/>
-      <c r="AH188"/>
+      <c r="AG188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI188"/>
       <c r="AJ188"/>
       <c r="AK188"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>275</v>
       </c>
       <c r="B189" t="s">
         <v>39</v>
       </c>
-      <c r="C189"/>
+      <c r="C189" t="s">
+        <v>93</v>
+      </c>
       <c r="D189" t="n">
         <v>0.0</v>
       </c>
@@ -13682,13 +13996,17 @@
       <c r="AD189"/>
       <c r="AE189"/>
       <c r="AF189"/>
-      <c r="AG189"/>
-      <c r="AH189"/>
+      <c r="AG189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI189"/>
       <c r="AJ189"/>
       <c r="AK189"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>276</v>
       </c>
@@ -13733,7 +14051,7 @@
       <c r="AJ190"/>
       <c r="AK190"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>277</v>
       </c>
@@ -13778,7 +14096,7 @@
       <c r="AJ191"/>
       <c r="AK191"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>278</v>
       </c>
@@ -13823,7 +14141,7 @@
       <c r="AJ192"/>
       <c r="AK192"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>279</v>
       </c>
@@ -13868,14 +14186,16 @@
       <c r="AJ193"/>
       <c r="AK193"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>280</v>
       </c>
       <c r="B194" t="s">
         <v>39</v>
       </c>
-      <c r="C194"/>
+      <c r="C194" t="s">
+        <v>97</v>
+      </c>
       <c r="D194" t="n">
         <v>0.0</v>
       </c>
@@ -13907,20 +14227,26 @@
       <c r="AD194"/>
       <c r="AE194"/>
       <c r="AF194"/>
-      <c r="AG194"/>
-      <c r="AH194"/>
+      <c r="AG194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI194"/>
       <c r="AJ194"/>
       <c r="AK194"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>281</v>
       </c>
       <c r="B195" t="s">
         <v>39</v>
       </c>
-      <c r="C195"/>
+      <c r="C195" t="s">
+        <v>77</v>
+      </c>
       <c r="D195" t="n">
         <v>0.0</v>
       </c>
@@ -13952,13 +14278,17 @@
       <c r="AD195"/>
       <c r="AE195"/>
       <c r="AF195"/>
-      <c r="AG195"/>
-      <c r="AH195"/>
+      <c r="AG195" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI195"/>
       <c r="AJ195"/>
       <c r="AK195"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>282</v>
       </c>
@@ -14003,7 +14333,7 @@
       <c r="AJ196"/>
       <c r="AK196"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>283</v>
       </c>
@@ -14046,7 +14376,7 @@
       <c r="AJ197"/>
       <c r="AK197"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>284</v>
       </c>
@@ -14089,7 +14419,7 @@
       <c r="AJ198"/>
       <c r="AK198"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>285</v>
       </c>
@@ -14132,7 +14462,7 @@
       <c r="AJ199"/>
       <c r="AK199"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>286</v>
       </c>
@@ -14175,7 +14505,7 @@
       <c r="AJ200"/>
       <c r="AK200"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>287</v>
       </c>
@@ -14218,7 +14548,7 @@
       <c r="AJ201"/>
       <c r="AK201"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>288</v>
       </c>
@@ -14261,7 +14591,7 @@
       <c r="AJ202"/>
       <c r="AK202"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>289</v>
       </c>
@@ -14304,7 +14634,7 @@
       <c r="AJ203"/>
       <c r="AK203"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>290</v>
       </c>
@@ -14347,7 +14677,7 @@
       <c r="AJ204"/>
       <c r="AK204"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>291</v>
       </c>
@@ -14392,7 +14722,7 @@
       <c r="AJ205"/>
       <c r="AK205"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>292</v>
       </c>
@@ -14437,14 +14767,16 @@
       <c r="AJ206"/>
       <c r="AK206"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>293</v>
       </c>
       <c r="B207" t="s">
         <v>39</v>
       </c>
-      <c r="C207"/>
+      <c r="C207" t="s">
+        <v>93</v>
+      </c>
       <c r="D207" t="n">
         <v>0.0</v>
       </c>
@@ -14476,20 +14808,26 @@
       <c r="AD207"/>
       <c r="AE207"/>
       <c r="AF207"/>
-      <c r="AG207"/>
-      <c r="AH207"/>
+      <c r="AG207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI207"/>
       <c r="AJ207"/>
       <c r="AK207"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>294</v>
       </c>
       <c r="B208" t="s">
         <v>39</v>
       </c>
-      <c r="C208"/>
+      <c r="C208" t="s">
+        <v>77</v>
+      </c>
       <c r="D208" t="n">
         <v>0.0</v>
       </c>
@@ -14522,12 +14860,14 @@
       <c r="AE208"/>
       <c r="AF208"/>
       <c r="AG208"/>
-      <c r="AH208"/>
+      <c r="AH208" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI208"/>
       <c r="AJ208"/>
       <c r="AK208"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>295</v>
       </c>
@@ -14572,7 +14912,7 @@
       <c r="AJ209"/>
       <c r="AK209"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>296</v>
       </c>
@@ -14617,14 +14957,16 @@
       <c r="AJ210"/>
       <c r="AK210"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>297</v>
       </c>
       <c r="B211" t="s">
         <v>39</v>
       </c>
-      <c r="C211"/>
+      <c r="C211" t="s">
+        <v>77</v>
+      </c>
       <c r="D211" t="n">
         <v>0.0</v>
       </c>
@@ -14656,20 +14998,26 @@
       <c r="AD211"/>
       <c r="AE211"/>
       <c r="AF211"/>
-      <c r="AG211"/>
-      <c r="AH211"/>
+      <c r="AG211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>2.0</v>
+      </c>
       <c r="AI211"/>
       <c r="AJ211"/>
       <c r="AK211"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>298</v>
       </c>
       <c r="B212" t="s">
         <v>39</v>
       </c>
-      <c r="C212"/>
+      <c r="C212" t="s">
+        <v>77</v>
+      </c>
       <c r="D212" t="n">
         <v>0.0</v>
       </c>
@@ -14701,13 +15049,17 @@
       <c r="AD212"/>
       <c r="AE212"/>
       <c r="AF212"/>
-      <c r="AG212"/>
-      <c r="AH212"/>
+      <c r="AG212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI212"/>
       <c r="AJ212"/>
       <c r="AK212"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>299</v>
       </c>
@@ -14752,7 +15104,7 @@
       <c r="AJ213"/>
       <c r="AK213"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>300</v>
       </c>
@@ -14797,14 +15149,16 @@
       <c r="AJ214"/>
       <c r="AK214"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>301</v>
       </c>
       <c r="B215" t="s">
         <v>39</v>
       </c>
-      <c r="C215"/>
+      <c r="C215" t="s">
+        <v>97</v>
+      </c>
       <c r="D215" t="n">
         <v>0.0</v>
       </c>
@@ -14836,13 +15190,17 @@
       <c r="AD215"/>
       <c r="AE215"/>
       <c r="AF215"/>
-      <c r="AG215"/>
-      <c r="AH215"/>
+      <c r="AG215" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI215"/>
       <c r="AJ215"/>
       <c r="AK215"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>302</v>
       </c>
@@ -14887,7 +15245,7 @@
       <c r="AJ216"/>
       <c r="AK216"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>303</v>
       </c>
@@ -14932,14 +15290,16 @@
       <c r="AJ217"/>
       <c r="AK217"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>304</v>
       </c>
       <c r="B218" t="s">
         <v>39</v>
       </c>
-      <c r="C218"/>
+      <c r="C218" t="s">
+        <v>93</v>
+      </c>
       <c r="D218" t="n">
         <v>0.0</v>
       </c>
@@ -14972,12 +15332,14 @@
       <c r="AE218"/>
       <c r="AF218"/>
       <c r="AG218"/>
-      <c r="AH218"/>
+      <c r="AH218" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI218"/>
       <c r="AJ218"/>
       <c r="AK218"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>305</v>
       </c>
@@ -15022,14 +15384,16 @@
       <c r="AJ219"/>
       <c r="AK219"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>306</v>
       </c>
       <c r="B220" t="s">
         <v>39</v>
       </c>
-      <c r="C220"/>
+      <c r="C220" t="s">
+        <v>77</v>
+      </c>
       <c r="D220" t="n">
         <v>0.0</v>
       </c>
@@ -15062,12 +15426,14 @@
       <c r="AE220"/>
       <c r="AF220"/>
       <c r="AG220"/>
-      <c r="AH220"/>
+      <c r="AH220" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI220"/>
       <c r="AJ220"/>
       <c r="AK220"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>307</v>
       </c>
@@ -15112,7 +15478,7 @@
       <c r="AJ221"/>
       <c r="AK221"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>308</v>
       </c>
@@ -15157,7 +15523,7 @@
       <c r="AJ222"/>
       <c r="AK222"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>309</v>
       </c>
@@ -15202,7 +15568,7 @@
       <c r="AJ223"/>
       <c r="AK223"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>310</v>
       </c>
@@ -15247,7 +15613,7 @@
       <c r="AJ224"/>
       <c r="AK224"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>311</v>
       </c>
@@ -15292,7 +15658,7 @@
       <c r="AJ225"/>
       <c r="AK225"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>312</v>
       </c>
@@ -15337,7 +15703,7 @@
       <c r="AJ226"/>
       <c r="AK226"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>313</v>
       </c>
@@ -15382,7 +15748,7 @@
       <c r="AJ227"/>
       <c r="AK227"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>314</v>
       </c>
@@ -15427,14 +15793,16 @@
       <c r="AJ228"/>
       <c r="AK228"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>315</v>
       </c>
       <c r="B229" t="s">
         <v>39</v>
       </c>
-      <c r="C229"/>
+      <c r="C229" t="s">
+        <v>93</v>
+      </c>
       <c r="D229" t="n">
         <v>0.0</v>
       </c>
@@ -15466,13 +15834,17 @@
       <c r="AD229"/>
       <c r="AE229"/>
       <c r="AF229"/>
-      <c r="AG229"/>
-      <c r="AH229"/>
+      <c r="AG229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI229"/>
       <c r="AJ229"/>
       <c r="AK229"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>316</v>
       </c>
@@ -15517,7 +15889,7 @@
       <c r="AJ230"/>
       <c r="AK230"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>317</v>
       </c>
@@ -15562,14 +15934,16 @@
       <c r="AJ231"/>
       <c r="AK231"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>318</v>
       </c>
       <c r="B232" t="s">
         <v>39</v>
       </c>
-      <c r="C232"/>
+      <c r="C232" t="s">
+        <v>77</v>
+      </c>
       <c r="D232" t="n">
         <v>0.0</v>
       </c>
@@ -15602,19 +15976,23 @@
       <c r="AE232"/>
       <c r="AF232"/>
       <c r="AG232"/>
-      <c r="AH232"/>
+      <c r="AH232" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI232"/>
       <c r="AJ232"/>
       <c r="AK232"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>319</v>
       </c>
       <c r="B233" t="s">
         <v>39</v>
       </c>
-      <c r="C233"/>
+      <c r="C233" t="s">
+        <v>110</v>
+      </c>
       <c r="D233" t="n">
         <v>0.0</v>
       </c>
@@ -15646,13 +16024,17 @@
       <c r="AD233"/>
       <c r="AE233"/>
       <c r="AF233"/>
-      <c r="AG233"/>
-      <c r="AH233"/>
+      <c r="AG233" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>2.0</v>
+      </c>
       <c r="AI233"/>
       <c r="AJ233"/>
       <c r="AK233"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>320</v>
       </c>
@@ -15697,7 +16079,7 @@
       <c r="AJ234"/>
       <c r="AK234"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>321</v>
       </c>
@@ -15742,14 +16124,16 @@
       <c r="AJ235"/>
       <c r="AK235"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>322</v>
       </c>
       <c r="B236" t="s">
         <v>39</v>
       </c>
-      <c r="C236"/>
+      <c r="C236" t="s">
+        <v>97</v>
+      </c>
       <c r="D236" t="n">
         <v>0.0</v>
       </c>
@@ -15781,13 +16165,17 @@
       <c r="AD236"/>
       <c r="AE236"/>
       <c r="AF236"/>
-      <c r="AG236"/>
-      <c r="AH236"/>
+      <c r="AG236" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI236"/>
       <c r="AJ236"/>
       <c r="AK236"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>323</v>
       </c>
@@ -15832,7 +16220,7 @@
       <c r="AJ237"/>
       <c r="AK237"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>324</v>
       </c>
@@ -15877,7 +16265,7 @@
       <c r="AJ238"/>
       <c r="AK238"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>325</v>
       </c>
@@ -15922,7 +16310,7 @@
       <c r="AJ239"/>
       <c r="AK239"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>326</v>
       </c>
@@ -15967,14 +16355,16 @@
       <c r="AJ240"/>
       <c r="AK240"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>327</v>
       </c>
       <c r="B241" t="s">
         <v>39</v>
       </c>
-      <c r="C241"/>
+      <c r="C241" t="s">
+        <v>110</v>
+      </c>
       <c r="D241" t="n">
         <v>0.0</v>
       </c>
@@ -16006,13 +16396,17 @@
       <c r="AD241"/>
       <c r="AE241"/>
       <c r="AF241"/>
-      <c r="AG241"/>
-      <c r="AH241"/>
+      <c r="AG241" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI241"/>
       <c r="AJ241"/>
       <c r="AK241"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>328</v>
       </c>
@@ -16057,7 +16451,7 @@
       <c r="AJ242"/>
       <c r="AK242"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>329</v>
       </c>
@@ -16102,7 +16496,7 @@
       <c r="AJ243"/>
       <c r="AK243"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>330</v>
       </c>
@@ -16147,7 +16541,7 @@
       <c r="AJ244"/>
       <c r="AK244"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>331</v>
       </c>
@@ -16186,13 +16580,17 @@
       <c r="AD245"/>
       <c r="AE245"/>
       <c r="AF245"/>
-      <c r="AG245"/>
-      <c r="AH245"/>
+      <c r="AG245" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI245"/>
       <c r="AJ245"/>
       <c r="AK245"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>332</v>
       </c>
@@ -16237,7 +16635,7 @@
       <c r="AJ246"/>
       <c r="AK246"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>333</v>
       </c>
@@ -16282,7 +16680,7 @@
       <c r="AJ247"/>
       <c r="AK247"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>334</v>
       </c>
@@ -16327,7 +16725,7 @@
       <c r="AJ248"/>
       <c r="AK248"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>335</v>
       </c>
@@ -16372,7 +16770,7 @@
       <c r="AJ249"/>
       <c r="AK249"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>336</v>
       </c>
@@ -16417,7 +16815,7 @@
       <c r="AJ250"/>
       <c r="AK250"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>337</v>
       </c>
@@ -16462,7 +16860,7 @@
       <c r="AJ251"/>
       <c r="AK251"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>338</v>
       </c>
@@ -16507,14 +16905,16 @@
       <c r="AJ252"/>
       <c r="AK252"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>339</v>
       </c>
       <c r="B253" t="s">
         <v>39</v>
       </c>
-      <c r="C253"/>
+      <c r="C253" t="s">
+        <v>81</v>
+      </c>
       <c r="D253" t="n">
         <v>0.0</v>
       </c>
@@ -16546,13 +16946,17 @@
       <c r="AD253"/>
       <c r="AE253"/>
       <c r="AF253"/>
-      <c r="AG253"/>
-      <c r="AH253"/>
+      <c r="AG253" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI253"/>
       <c r="AJ253"/>
       <c r="AK253"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>340</v>
       </c>
@@ -16597,7 +17001,7 @@
       <c r="AJ254"/>
       <c r="AK254"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>341</v>
       </c>
@@ -16642,14 +17046,16 @@
       <c r="AJ255"/>
       <c r="AK255"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>342</v>
       </c>
       <c r="B256" t="s">
         <v>39</v>
       </c>
-      <c r="C256"/>
+      <c r="C256" t="s">
+        <v>81</v>
+      </c>
       <c r="D256" t="n">
         <v>0.0</v>
       </c>
@@ -16682,12 +17088,14 @@
       <c r="AE256"/>
       <c r="AF256"/>
       <c r="AG256"/>
-      <c r="AH256"/>
+      <c r="AH256" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI256"/>
       <c r="AJ256"/>
       <c r="AK256"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>343</v>
       </c>
@@ -16732,7 +17140,7 @@
       <c r="AJ257"/>
       <c r="AK257"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>344</v>
       </c>
@@ -16777,7 +17185,7 @@
       <c r="AJ258"/>
       <c r="AK258"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>345</v>
       </c>
@@ -16822,7 +17230,7 @@
       <c r="AJ259"/>
       <c r="AK259"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>346</v>
       </c>
@@ -16867,14 +17275,16 @@
       <c r="AJ260"/>
       <c r="AK260"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>347</v>
       </c>
       <c r="B261" t="s">
         <v>39</v>
       </c>
-      <c r="C261"/>
+      <c r="C261" t="s">
+        <v>81</v>
+      </c>
       <c r="D261" t="n">
         <v>0.0</v>
       </c>
@@ -16907,12 +17317,14 @@
       <c r="AE261"/>
       <c r="AF261"/>
       <c r="AG261"/>
-      <c r="AH261"/>
+      <c r="AH261" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI261"/>
       <c r="AJ261"/>
       <c r="AK261"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>348</v>
       </c>
@@ -16957,7 +17369,7 @@
       <c r="AJ262"/>
       <c r="AK262"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>349</v>
       </c>
@@ -17002,14 +17414,16 @@
       <c r="AJ263"/>
       <c r="AK263"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>350</v>
       </c>
       <c r="B264" t="s">
         <v>39</v>
       </c>
-      <c r="C264"/>
+      <c r="C264" t="s">
+        <v>81</v>
+      </c>
       <c r="D264" t="n">
         <v>0.0</v>
       </c>
@@ -17041,13 +17455,17 @@
       <c r="AD264"/>
       <c r="AE264"/>
       <c r="AF264"/>
-      <c r="AG264"/>
-      <c r="AH264"/>
+      <c r="AG264" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI264"/>
       <c r="AJ264"/>
       <c r="AK264"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>351</v>
       </c>
@@ -17092,7 +17510,7 @@
       <c r="AJ265"/>
       <c r="AK265"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>352</v>
       </c>
@@ -17137,7 +17555,7 @@
       <c r="AJ266"/>
       <c r="AK266"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>353</v>
       </c>
@@ -17182,7 +17600,7 @@
       <c r="AJ267"/>
       <c r="AK267"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>354</v>
       </c>
@@ -17227,14 +17645,16 @@
       <c r="AJ268"/>
       <c r="AK268"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>355</v>
       </c>
       <c r="B269" t="s">
         <v>39</v>
       </c>
-      <c r="C269"/>
+      <c r="C269" t="s">
+        <v>83</v>
+      </c>
       <c r="D269" t="n">
         <v>0.0</v>
       </c>
@@ -17267,12 +17687,14 @@
       <c r="AE269"/>
       <c r="AF269"/>
       <c r="AG269"/>
-      <c r="AH269"/>
+      <c r="AH269" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI269"/>
       <c r="AJ269"/>
       <c r="AK269"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>356</v>
       </c>
@@ -17317,7 +17739,7 @@
       <c r="AJ270"/>
       <c r="AK270"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>357</v>
       </c>
@@ -17362,7 +17784,7 @@
       <c r="AJ271"/>
       <c r="AK271"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>358</v>
       </c>
@@ -17407,7 +17829,7 @@
       <c r="AJ272"/>
       <c r="AK272"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>359</v>
       </c>
@@ -17452,7 +17874,7 @@
       <c r="AJ273"/>
       <c r="AK273"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>360</v>
       </c>
@@ -17497,7 +17919,7 @@
       <c r="AJ274"/>
       <c r="AK274"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>361</v>
       </c>
@@ -17542,7 +17964,7 @@
       <c r="AJ275"/>
       <c r="AK275"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>362</v>
       </c>
@@ -17587,7 +18009,7 @@
       <c r="AJ276"/>
       <c r="AK276"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>363</v>
       </c>
@@ -17632,7 +18054,7 @@
       <c r="AJ277"/>
       <c r="AK277"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>364</v>
       </c>
@@ -17677,14 +18099,16 @@
       <c r="AJ278"/>
       <c r="AK278"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>365</v>
       </c>
       <c r="B279" t="s">
         <v>39</v>
       </c>
-      <c r="C279"/>
+      <c r="C279" t="s">
+        <v>79</v>
+      </c>
       <c r="D279" t="n">
         <v>0.0</v>
       </c>
@@ -17716,13 +18140,17 @@
       <c r="AD279"/>
       <c r="AE279"/>
       <c r="AF279"/>
-      <c r="AG279"/>
-      <c r="AH279"/>
+      <c r="AG279" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI279"/>
       <c r="AJ279"/>
       <c r="AK279"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>366</v>
       </c>
@@ -17767,7 +18195,7 @@
       <c r="AJ280"/>
       <c r="AK280"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>367</v>
       </c>
@@ -17812,14 +18240,16 @@
       <c r="AJ281"/>
       <c r="AK281"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>368</v>
       </c>
       <c r="B282" t="s">
         <v>39</v>
       </c>
-      <c r="C282"/>
+      <c r="C282" t="s">
+        <v>81</v>
+      </c>
       <c r="D282" t="n">
         <v>0.0</v>
       </c>
@@ -17852,12 +18282,14 @@
       <c r="AE282"/>
       <c r="AF282"/>
       <c r="AG282"/>
-      <c r="AH282"/>
+      <c r="AH282" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI282"/>
       <c r="AJ282"/>
       <c r="AK282"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>369</v>
       </c>
@@ -17902,14 +18334,16 @@
       <c r="AJ283"/>
       <c r="AK283"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>370</v>
       </c>
       <c r="B284" t="s">
         <v>39</v>
       </c>
-      <c r="C284"/>
+      <c r="C284" t="s">
+        <v>83</v>
+      </c>
       <c r="D284" t="n">
         <v>0.0</v>
       </c>
@@ -17941,13 +18375,17 @@
       <c r="AD284"/>
       <c r="AE284"/>
       <c r="AF284"/>
-      <c r="AG284"/>
-      <c r="AH284"/>
+      <c r="AG284" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AI284"/>
       <c r="AJ284"/>
       <c r="AK284"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>371</v>
       </c>
@@ -17992,7 +18430,7 @@
       <c r="AJ285"/>
       <c r="AK285"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>372</v>
       </c>
@@ -18037,7 +18475,7 @@
       <c r="AJ286"/>
       <c r="AK286"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>373</v>
       </c>
@@ -18082,7 +18520,7 @@
       <c r="AJ287"/>
       <c r="AK287"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>374</v>
       </c>
@@ -18127,7 +18565,7 @@
       <c r="AJ288"/>
       <c r="AK288"/>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>375</v>
       </c>
@@ -18172,7 +18610,7 @@
       <c r="AJ289"/>
       <c r="AK289"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>376</v>
       </c>
@@ -18217,7 +18655,7 @@
       <c r="AJ290"/>
       <c r="AK290"/>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>377</v>
       </c>
@@ -18262,7 +18700,7 @@
       <c r="AJ291"/>
       <c r="AK291"/>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>378</v>
       </c>
@@ -18307,7 +18745,7 @@
       <c r="AJ292"/>
       <c r="AK292"/>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>379</v>
       </c>
@@ -18352,7 +18790,7 @@
       <c r="AJ293"/>
       <c r="AK293"/>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>380</v>
       </c>
@@ -18397,7 +18835,7 @@
       <c r="AJ294"/>
       <c r="AK294"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>381</v>
       </c>
@@ -18442,7 +18880,7 @@
       <c r="AJ295"/>
       <c r="AK295"/>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>382</v>
       </c>
@@ -18487,7 +18925,7 @@
       <c r="AJ296"/>
       <c r="AK296"/>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>383</v>
       </c>
@@ -18532,7 +18970,7 @@
       <c r="AJ297"/>
       <c r="AK297"/>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>384</v>
       </c>
@@ -18585,7 +19023,7 @@
       <c r="AJ298"/>
       <c r="AK298"/>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>385</v>
       </c>
@@ -18599,15 +19037,15 @@
         <v>3.0</v>
       </c>
       <c r="E299" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F299"/>
       <c r="G299" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H299"/>
       <c r="I299" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J299"/>
       <c r="K299"/>
@@ -18638,7 +19076,7 @@
       <c r="AJ299"/>
       <c r="AK299"/>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>386</v>
       </c>
@@ -18697,7 +19135,7 @@
       <c r="AJ300"/>
       <c r="AK300"/>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>387</v>
       </c>
@@ -18746,7 +19184,7 @@
       <c r="AJ301"/>
       <c r="AK301"/>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>388</v>
       </c>
@@ -18797,7 +19235,7 @@
       <c r="AJ302"/>
       <c r="AK302"/>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>389</v>
       </c>
@@ -18850,7 +19288,7 @@
       <c r="AJ303"/>
       <c r="AK303"/>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>390</v>
       </c>
@@ -18897,7 +19335,7 @@
       <c r="AJ304"/>
       <c r="AK304"/>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>391</v>
       </c>
@@ -18946,7 +19384,7 @@
       <c r="AJ305"/>
       <c r="AK305"/>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>392</v>
       </c>
@@ -18999,7 +19437,7 @@
       <c r="AJ306"/>
       <c r="AK306"/>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>393</v>
       </c>
@@ -19054,7 +19492,7 @@
       <c r="AJ307"/>
       <c r="AK307"/>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>394</v>
       </c>
@@ -19117,7 +19555,7 @@
       <c r="AJ308"/>
       <c r="AK308"/>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>395</v>
       </c>
@@ -19170,7 +19608,7 @@
       <c r="AJ309"/>
       <c r="AK309"/>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>396</v>
       </c>
@@ -19219,7 +19657,7 @@
       <c r="AJ310"/>
       <c r="AK310"/>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>397</v>
       </c>
@@ -19272,7 +19710,7 @@
       <c r="AJ311"/>
       <c r="AK311"/>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>398</v>
       </c>
@@ -19327,7 +19765,7 @@
       <c r="AJ312"/>
       <c r="AK312"/>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>399</v>
       </c>
@@ -19374,7 +19812,7 @@
       <c r="AJ313"/>
       <c r="AK313"/>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>400</v>
       </c>
@@ -19427,7 +19865,7 @@
       <c r="AJ314"/>
       <c r="AK314"/>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>401</v>
       </c>
@@ -19474,7 +19912,7 @@
       <c r="AJ315"/>
       <c r="AK315"/>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>402</v>
       </c>
@@ -19529,7 +19967,7 @@
       <c r="AJ316"/>
       <c r="AK316"/>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>403</v>
       </c>
@@ -19586,7 +20024,7 @@
       <c r="AJ317"/>
       <c r="AK317"/>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>404</v>
       </c>
@@ -19635,7 +20073,7 @@
       <c r="AJ318"/>
       <c r="AK318"/>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>405</v>
       </c>
@@ -19694,7 +20132,7 @@
       <c r="AJ319"/>
       <c r="AK319"/>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>406</v>
       </c>
@@ -19739,7 +20177,7 @@
       <c r="AJ320"/>
       <c r="AK320"/>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>407</v>
       </c>
@@ -19784,7 +20222,7 @@
       <c r="AJ321"/>
       <c r="AK321"/>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>408</v>
       </c>
@@ -19798,7 +20236,7 @@
         <v>6.0</v>
       </c>
       <c r="E322" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F322"/>
       <c r="G322" t="n">
@@ -19845,7 +20283,7 @@
       <c r="AJ322"/>
       <c r="AK322"/>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>409</v>
       </c>
@@ -19900,7 +20338,7 @@
       <c r="AJ323"/>
       <c r="AK323"/>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>410</v>
       </c>
@@ -19961,7 +20399,7 @@
       <c r="AJ324"/>
       <c r="AK324"/>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>411</v>
       </c>
@@ -20006,7 +20444,7 @@
       <c r="AJ325"/>
       <c r="AK325"/>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>412</v>
       </c>
@@ -20051,7 +20489,7 @@
       <c r="AJ326"/>
       <c r="AK326"/>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>413</v>
       </c>
@@ -20114,7 +20552,7 @@
       <c r="AJ327"/>
       <c r="AK327"/>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>414</v>
       </c>
@@ -20163,7 +20601,7 @@
       <c r="AJ328"/>
       <c r="AK328"/>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>415</v>
       </c>
@@ -20208,7 +20646,7 @@
       <c r="AJ329"/>
       <c r="AK329"/>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>416</v>
       </c>
@@ -20257,7 +20695,7 @@
       <c r="AJ330"/>
       <c r="AK330"/>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>417</v>
       </c>
@@ -20306,7 +20744,7 @@
       <c r="AJ331"/>
       <c r="AK331"/>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>418</v>
       </c>
@@ -20355,7 +20793,7 @@
       <c r="AJ332"/>
       <c r="AK332"/>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>419</v>
       </c>
@@ -20406,7 +20844,7 @@
       <c r="AJ333"/>
       <c r="AK333"/>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>420</v>
       </c>
@@ -20451,7 +20889,7 @@
       <c r="AJ334"/>
       <c r="AK334"/>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>421</v>
       </c>
@@ -20496,7 +20934,7 @@
       <c r="AJ335"/>
       <c r="AK335"/>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>422</v>
       </c>
@@ -20545,7 +20983,7 @@
       <c r="AJ336"/>
       <c r="AK336"/>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>423</v>
       </c>
@@ -20602,7 +21040,7 @@
       <c r="AJ337"/>
       <c r="AK337"/>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>424</v>
       </c>
@@ -20647,7 +21085,7 @@
       <c r="AJ338"/>
       <c r="AK338"/>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>425</v>
       </c>
@@ -20696,7 +21134,7 @@
       <c r="AJ339"/>
       <c r="AK339"/>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>426</v>
       </c>
@@ -20741,7 +21179,7 @@
       <c r="AJ340"/>
       <c r="AK340"/>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>427</v>
       </c>
@@ -20786,7 +21224,7 @@
       <c r="AJ341"/>
       <c r="AK341"/>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>428</v>
       </c>
@@ -20831,7 +21269,7 @@
       <c r="AJ342"/>
       <c r="AK342"/>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>429</v>
       </c>
@@ -20886,7 +21324,7 @@
       <c r="AJ343"/>
       <c r="AK343"/>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>430</v>
       </c>
@@ -20931,7 +21369,7 @@
       <c r="AJ344"/>
       <c r="AK344"/>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>431</v>
       </c>
@@ -20976,7 +21414,7 @@
       <c r="AJ345"/>
       <c r="AK345"/>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>432</v>
       </c>
@@ -21021,7 +21459,7 @@
       <c r="AJ346"/>
       <c r="AK346"/>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>433</v>
       </c>
@@ -21072,7 +21510,7 @@
       <c r="AJ347"/>
       <c r="AK347"/>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>434</v>
       </c>
@@ -21117,7 +21555,7 @@
       <c r="AJ348"/>
       <c r="AK348"/>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>435</v>
       </c>
@@ -21170,7 +21608,7 @@
       <c r="AJ349"/>
       <c r="AK349"/>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>436</v>
       </c>
@@ -21219,7 +21657,7 @@
       <c r="AJ350"/>
       <c r="AK350"/>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>437</v>
       </c>
@@ -21278,7 +21716,7 @@
       <c r="AJ351"/>
       <c r="AK351"/>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>438</v>
       </c>
@@ -21337,7 +21775,7 @@
       <c r="AJ352"/>
       <c r="AK352"/>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>439</v>
       </c>
@@ -21382,7 +21820,7 @@
       <c r="AJ353"/>
       <c r="AK353"/>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>440</v>
       </c>
@@ -21427,7 +21865,7 @@
       <c r="AJ354"/>
       <c r="AK354"/>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>441</v>
       </c>
@@ -21484,7 +21922,7 @@
       <c r="AJ355"/>
       <c r="AK355"/>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>442</v>
       </c>
@@ -21543,7 +21981,7 @@
       <c r="AJ356"/>
       <c r="AK356"/>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>443</v>
       </c>
@@ -21602,7 +22040,7 @@
       <c r="AJ357"/>
       <c r="AK357"/>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>444</v>
       </c>
@@ -21661,7 +22099,7 @@
       <c r="AJ358"/>
       <c r="AK358"/>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>445</v>
       </c>
@@ -21704,7 +22142,7 @@
       <c r="AJ359"/>
       <c r="AK359"/>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>446</v>
       </c>
@@ -21761,7 +22199,7 @@
       <c r="AJ360"/>
       <c r="AK360"/>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>447</v>
       </c>
@@ -21810,7 +22248,7 @@
       <c r="AJ361"/>
       <c r="AK361"/>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>448</v>
       </c>
@@ -21855,7 +22293,7 @@
       <c r="AJ362"/>
       <c r="AK362"/>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>449</v>
       </c>
@@ -21900,7 +22338,7 @@
       <c r="AJ363"/>
       <c r="AK363"/>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>450</v>
       </c>
@@ -21945,7 +22383,7 @@
       <c r="AJ364"/>
       <c r="AK364"/>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>451</v>
       </c>
@@ -21990,7 +22428,7 @@
       <c r="AJ365"/>
       <c r="AK365"/>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>452</v>
       </c>
@@ -22047,7 +22485,7 @@
       <c r="AJ366"/>
       <c r="AK366"/>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>453</v>
       </c>
@@ -22092,7 +22530,7 @@
       <c r="AJ367"/>
       <c r="AK367"/>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>454</v>
       </c>
@@ -22145,7 +22583,7 @@
       <c r="AJ368"/>
       <c r="AK368"/>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>455</v>
       </c>
@@ -22190,7 +22628,7 @@
       <c r="AJ369"/>
       <c r="AK369"/>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>456</v>
       </c>
@@ -22235,7 +22673,7 @@
       <c r="AJ370"/>
       <c r="AK370"/>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>457</v>
       </c>
@@ -22280,7 +22718,7 @@
       <c r="AJ371"/>
       <c r="AK371"/>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>458</v>
       </c>
@@ -22329,7 +22767,7 @@
       <c r="AJ372"/>
       <c r="AK372"/>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>459</v>
       </c>
@@ -22388,7 +22826,7 @@
       <c r="AJ373"/>
       <c r="AK373"/>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>460</v>
       </c>
@@ -22445,7 +22883,7 @@
       <c r="AJ374"/>
       <c r="AK374"/>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>461</v>
       </c>
@@ -22504,7 +22942,7 @@
       <c r="AJ375"/>
       <c r="AK375"/>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>462</v>
       </c>
@@ -22549,7 +22987,7 @@
       <c r="AJ376"/>
       <c r="AK376"/>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>463</v>
       </c>
@@ -22594,7 +23032,7 @@
       <c r="AJ377"/>
       <c r="AK377"/>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>464</v>
       </c>
@@ -22639,7 +23077,7 @@
       <c r="AJ378"/>
       <c r="AK378"/>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>465</v>
       </c>
@@ -22684,7 +23122,7 @@
       <c r="AJ379"/>
       <c r="AK379"/>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>466</v>
       </c>
@@ -22741,7 +23179,7 @@
       <c r="AJ380"/>
       <c r="AK380"/>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>467</v>
       </c>
@@ -22786,7 +23224,7 @@
       <c r="AJ381"/>
       <c r="AK381"/>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>468</v>
       </c>
@@ -22831,7 +23269,7 @@
       <c r="AJ382"/>
       <c r="AK382"/>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>469</v>
       </c>
@@ -22886,7 +23324,7 @@
       <c r="AJ383"/>
       <c r="AK383"/>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>470</v>
       </c>
@@ -22931,7 +23369,7 @@
       <c r="AJ384"/>
       <c r="AK384"/>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>471</v>
       </c>
@@ -22976,7 +23414,7 @@
       <c r="AJ385"/>
       <c r="AK385"/>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>472</v>
       </c>
@@ -23021,7 +23459,7 @@
       <c r="AJ386"/>
       <c r="AK386"/>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>473</v>
       </c>
@@ -23066,7 +23504,7 @@
       <c r="AJ387"/>
       <c r="AK387"/>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>474</v>
       </c>
@@ -23111,7 +23549,7 @@
       <c r="AJ388"/>
       <c r="AK388"/>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>475</v>
       </c>
@@ -23156,7 +23594,7 @@
       <c r="AJ389"/>
       <c r="AK389"/>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>476</v>
       </c>
@@ -23213,7 +23651,7 @@
       <c r="AJ390"/>
       <c r="AK390"/>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>477</v>
       </c>
@@ -23264,7 +23702,7 @@
       <c r="AJ391"/>
       <c r="AK391"/>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>478</v>
       </c>
@@ -23299,7 +23737,7 @@
         <v>3.0</v>
       </c>
       <c r="T392" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U392"/>
       <c r="V392"/>
@@ -23319,7 +23757,7 @@
       <c r="AJ392"/>
       <c r="AK392"/>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>479</v>
       </c>
@@ -23370,14 +23808,16 @@
       <c r="AJ393"/>
       <c r="AK393"/>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>480</v>
       </c>
       <c r="B394" t="s">
         <v>39</v>
       </c>
-      <c r="C394"/>
+      <c r="C394" t="s">
+        <v>77</v>
+      </c>
       <c r="D394" t="n">
         <v>0.0</v>
       </c>
@@ -23417,7 +23857,7 @@
       <c r="AJ394"/>
       <c r="AK394"/>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>481</v>
       </c>
@@ -23468,7 +23908,7 @@
       <c r="AJ395"/>
       <c r="AK395"/>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>482</v>
       </c>
@@ -23503,7 +23943,7 @@
         <v>3.0</v>
       </c>
       <c r="T396" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U396"/>
       <c r="V396"/>
@@ -23523,7 +23963,7 @@
       <c r="AJ396"/>
       <c r="AK396"/>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>483</v>
       </c>
@@ -23574,7 +24014,7 @@
       <c r="AJ397"/>
       <c r="AK397"/>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>484</v>
       </c>
@@ -23633,7 +24073,7 @@
       <c r="AJ398"/>
       <c r="AK398"/>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>485</v>
       </c>
@@ -23680,7 +24120,7 @@
       <c r="AJ399"/>
       <c r="AK399"/>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>486</v>
       </c>
@@ -23727,7 +24167,7 @@
       <c r="AJ400"/>
       <c r="AK400"/>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>487</v>
       </c>
@@ -23778,7 +24218,7 @@
       <c r="AJ401"/>
       <c r="AK401"/>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>488</v>
       </c>
@@ -23829,7 +24269,7 @@
       <c r="AJ402"/>
       <c r="AK402"/>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>489</v>
       </c>
@@ -23876,7 +24316,7 @@
       <c r="AJ403"/>
       <c r="AK403"/>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>490</v>
       </c>
@@ -23935,7 +24375,7 @@
       <c r="AJ404"/>
       <c r="AK404"/>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>491</v>
       </c>
@@ -23992,7 +24432,7 @@
       <c r="AJ405"/>
       <c r="AK405"/>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>492</v>
       </c>
@@ -24039,7 +24479,7 @@
       <c r="AJ406"/>
       <c r="AK406"/>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>493</v>
       </c>
@@ -24086,7 +24526,7 @@
       <c r="AJ407"/>
       <c r="AK407"/>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>494</v>
       </c>
@@ -24133,7 +24573,7 @@
       <c r="AJ408"/>
       <c r="AK408"/>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>495</v>
       </c>
@@ -24190,7 +24630,7 @@
       <c r="AJ409"/>
       <c r="AK409"/>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>496</v>
       </c>
@@ -24237,7 +24677,7 @@
       <c r="AJ410"/>
       <c r="AK410"/>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>497</v>
       </c>
@@ -24284,7 +24724,7 @@
       <c r="AJ411"/>
       <c r="AK411"/>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>498</v>
       </c>
@@ -24331,7 +24771,7 @@
       <c r="AJ412"/>
       <c r="AK412"/>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>499</v>
       </c>
@@ -24378,7 +24818,7 @@
       <c r="AJ413"/>
       <c r="AK413"/>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>500</v>
       </c>
@@ -24425,7 +24865,7 @@
       <c r="AJ414"/>
       <c r="AK414"/>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>501</v>
       </c>
@@ -24472,7 +24912,7 @@
       <c r="AJ415"/>
       <c r="AK415"/>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>502</v>
       </c>
@@ -24531,7 +24971,7 @@
       <c r="AJ416"/>
       <c r="AK416"/>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>503</v>
       </c>
@@ -24578,7 +25018,7 @@
       <c r="AJ417"/>
       <c r="AK417"/>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>504</v>
       </c>
@@ -24637,7 +25077,7 @@
       <c r="AJ418"/>
       <c r="AK418"/>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>505</v>
       </c>
@@ -24688,7 +25128,7 @@
       <c r="AJ419"/>
       <c r="AK419"/>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>506</v>
       </c>
@@ -24743,7 +25183,7 @@
       <c r="AJ420"/>
       <c r="AK420"/>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>507</v>
       </c>
@@ -24792,7 +25232,7 @@
       <c r="AJ421"/>
       <c r="AK421"/>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>508</v>
       </c>
@@ -24839,7 +25279,7 @@
       <c r="AJ422"/>
       <c r="AK422"/>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>509</v>
       </c>
@@ -24890,7 +25330,7 @@
       <c r="AJ423"/>
       <c r="AK423"/>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>510</v>
       </c>
@@ -24945,7 +25385,7 @@
       <c r="AJ424"/>
       <c r="AK424"/>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>511</v>
       </c>
@@ -24994,7 +25434,7 @@
       <c r="AJ425"/>
       <c r="AK425"/>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>512</v>
       </c>
@@ -25008,7 +25448,7 @@
         <v>2.0</v>
       </c>
       <c r="E426" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F426"/>
       <c r="G426" t="n">
@@ -25053,7 +25493,7 @@
       <c r="AJ426"/>
       <c r="AK426"/>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>513</v>
       </c>
@@ -25104,7 +25544,7 @@
       <c r="AJ427"/>
       <c r="AK427"/>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>514</v>
       </c>
@@ -25155,7 +25595,7 @@
       <c r="AJ428"/>
       <c r="AK428"/>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>515</v>
       </c>
@@ -25218,7 +25658,7 @@
       <c r="AJ429"/>
       <c r="AK429"/>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>516</v>
       </c>
@@ -25267,7 +25707,7 @@
       <c r="AJ430"/>
       <c r="AK430"/>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>517</v>
       </c>
@@ -25314,7 +25754,7 @@
       <c r="AJ431"/>
       <c r="AK431"/>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>518</v>
       </c>
@@ -25363,7 +25803,7 @@
       <c r="AJ432"/>
       <c r="AK432"/>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>519</v>
       </c>
@@ -25414,7 +25854,7 @@
       <c r="AJ433"/>
       <c r="AK433"/>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>520</v>
       </c>
@@ -25467,7 +25907,7 @@
       <c r="AJ434"/>
       <c r="AK434"/>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>521</v>
       </c>
@@ -25520,7 +25960,7 @@
       <c r="AJ435"/>
       <c r="AK435"/>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>522</v>
       </c>
@@ -25565,7 +26005,7 @@
       <c r="AJ436"/>
       <c r="AK436"/>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>523</v>
       </c>
@@ -25610,7 +26050,7 @@
       <c r="AJ437"/>
       <c r="AK437"/>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>524</v>
       </c>
@@ -25659,7 +26099,7 @@
       <c r="AJ438"/>
       <c r="AK438"/>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>525</v>
       </c>
@@ -25704,7 +26144,7 @@
       <c r="AJ439"/>
       <c r="AK439"/>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>526</v>
       </c>
@@ -25749,7 +26189,7 @@
       <c r="AJ440"/>
       <c r="AK440"/>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>527</v>
       </c>
@@ -25794,7 +26234,7 @@
       <c r="AJ441"/>
       <c r="AK441"/>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>528</v>
       </c>
@@ -25853,7 +26293,7 @@
       <c r="AJ442"/>
       <c r="AK442"/>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>529</v>
       </c>
@@ -25912,7 +26352,7 @@
       <c r="AJ443"/>
       <c r="AK443"/>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>530</v>
       </c>
@@ -25973,7 +26413,7 @@
       <c r="AJ444"/>
       <c r="AK444"/>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>531</v>
       </c>
@@ -26028,7 +26468,7 @@
       <c r="AJ445"/>
       <c r="AK445"/>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>532</v>
       </c>
@@ -26089,7 +26529,7 @@
       <c r="AJ446"/>
       <c r="AK446"/>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>533</v>
       </c>
@@ -26138,7 +26578,7 @@
       <c r="AJ447"/>
       <c r="AK447"/>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>534</v>
       </c>
@@ -26189,7 +26629,7 @@
       <c r="AJ448"/>
       <c r="AK448"/>
     </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>535</v>
       </c>
@@ -26240,7 +26680,7 @@
       <c r="AJ449"/>
       <c r="AK449"/>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>536</v>
       </c>
@@ -26289,7 +26729,7 @@
       <c r="AJ450"/>
       <c r="AK450"/>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>537</v>
       </c>
@@ -26340,7 +26780,7 @@
       <c r="AJ451"/>
       <c r="AK451"/>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>538</v>
       </c>
@@ -26398,6 +26838,9 @@
       <c r="AK452"/>
     </row>
   </sheetData>
+  <sortState ref="A2:AK452">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="8660" windowWidth="37660" windowHeight="13160" activeTab="1"/>
+    <workbookView xWindow="740" yWindow="8660" windowWidth="37660" windowHeight="13160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="550">
   <si>
     <t>unit</t>
   </si>
@@ -4245,8 +4245,8 @@
   <dimension ref="A1:AK452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI300" sqref="AI300"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6453,7 +6453,7 @@
         <v>2.0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X41" t="n">
         <v>1.0</v>
@@ -16548,7 +16548,9 @@
       <c r="B245" t="s">
         <v>39</v>
       </c>
-      <c r="C245"/>
+      <c r="C245" t="s">
+        <v>142</v>
+      </c>
       <c r="D245" t="n">
         <v>0.0</v>
       </c>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4875" windowWidth="37665" windowHeight="13155"/>
+    <workbookView xWindow="8670" yWindow="4875" windowWidth="37665" windowHeight="13155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="562">
   <si>
     <t>unit</t>
   </si>
@@ -2041,16 +2041,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ34"/>
+  <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="AW2"/>
       <c r="AX2"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="AW3"/>
       <c r="AX3"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="AW4"/>
       <c r="AX4"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="AW5"/>
       <c r="AX5"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="AW6"/>
       <c r="AX6"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="AW7"/>
       <c r="AX7"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="AW8"/>
       <c r="AX8"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="AW9"/>
       <c r="AX9"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="AW10"/>
       <c r="AX10"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="AW11"/>
       <c r="AX11"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2986,7 +2986,7 @@
       <c r="AW12"/>
       <c r="AX12"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="AW13"/>
       <c r="AX13"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>539</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="AW14"/>
       <c r="AX14"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="AW15"/>
       <c r="AX15"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="AW16"/>
       <c r="AX16"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="AW17"/>
       <c r="AX17"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="AW18"/>
       <c r="AX18"/>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="AW19"/>
       <c r="AX19"/>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="AW20"/>
       <c r="AX20"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3622,7 +3622,7 @@
       <c r="AW21"/>
       <c r="AX21"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="AW22"/>
       <c r="AX22"/>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="AW23"/>
       <c r="AX23"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="AW24"/>
       <c r="AX24"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>537</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="AX25"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>538</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -4054,7 +4054,7 @@
       <c r="AW27"/>
       <c r="AX27"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="AW28"/>
       <c r="AX28"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -4210,7 +4210,7 @@
       <c r="AW29"/>
       <c r="AX29"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="AW30"/>
       <c r="AX30"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4348,7 +4348,7 @@
       <c r="AW31"/>
       <c r="AX31"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4422,7 +4422,7 @@
       <c r="AW32"/>
       <c r="AX32"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>559</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="AW33"/>
       <c r="AX33"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AW34"/>
       <c r="AX34"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -4637,20 +4637,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK452"/>
+  <dimension ref="A1:AL454"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D429" sqref="D429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -4814,7 +4814,7 @@
       <c r="AK2"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="AK3"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -4914,7 +4914,7 @@
       <c r="AK4"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -5014,7 +5014,7 @@
       <c r="AK6"/>
       <c r="AL6"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>85</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" t="n">
         <v>4.0</v>
@@ -5070,7 +5070,7 @@
       <c r="AK7"/>
       <c r="AL7"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="AK8"/>
       <c r="AL8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="AK9"/>
       <c r="AL9"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="AK10"/>
       <c r="AL10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="AK11"/>
       <c r="AL11"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="AK12"/>
       <c r="AL12"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="AK13"/>
       <c r="AL13"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="AK14"/>
       <c r="AL14"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" t="n">
         <v>4.0</v>
@@ -5502,7 +5502,7 @@
       <c r="AK15"/>
       <c r="AL15"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="AK16"/>
       <c r="AL16"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="AK17"/>
       <c r="AL17"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="AK18"/>
       <c r="AL18"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -5708,7 +5708,7 @@
       <c r="AK19"/>
       <c r="AL19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="AK20"/>
       <c r="AL20"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="AK21"/>
       <c r="AL21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -5884,7 +5884,7 @@
       <c r="AK22"/>
       <c r="AL22"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -5938,7 +5938,7 @@
       <c r="AK23"/>
       <c r="AL23"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="AK24"/>
       <c r="AL24"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -6058,7 +6058,7 @@
       <c r="AK25"/>
       <c r="AL25"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -6112,7 +6112,7 @@
       <c r="AK26"/>
       <c r="AL26"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="AK27"/>
       <c r="AL27"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="AK28"/>
       <c r="AL28"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="AK29"/>
       <c r="AL29"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="AK30"/>
       <c r="AL30"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -6366,7 +6366,7 @@
       <c r="AK31"/>
       <c r="AL31"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="AK32"/>
       <c r="AL32"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="AK33"/>
       <c r="AL33"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>117</v>
       </c>
@@ -6526,7 +6526,7 @@
       <c r="AK34"/>
       <c r="AL34"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="AK35"/>
       <c r="AL35"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="AK36"/>
       <c r="AL36"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="AK37"/>
       <c r="AL37"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="AK38"/>
       <c r="AL38"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -6800,7 +6800,7 @@
       <c r="AK39"/>
       <c r="AL39"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>560</v>
       </c>
@@ -6846,7 +6846,7 @@
       <c r="AK40"/>
       <c r="AL40"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="AK41"/>
       <c r="AL41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="AK42"/>
       <c r="AL42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="AK43"/>
       <c r="AL43"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -7076,7 +7076,7 @@
       <c r="AK44"/>
       <c r="AL44"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="AK45"/>
       <c r="AL45"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -7178,7 +7178,7 @@
       <c r="AK46"/>
       <c r="AL46"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="AK47"/>
       <c r="AL47"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="AK48"/>
       <c r="AL48"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -7338,7 +7338,7 @@
       <c r="AK49"/>
       <c r="AL49"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -7390,7 +7390,7 @@
       <c r="AK50"/>
       <c r="AL50"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -7440,7 +7440,7 @@
       <c r="AK51"/>
       <c r="AL51"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>134</v>
       </c>
@@ -7492,7 +7492,7 @@
       <c r="AK52"/>
       <c r="AL52"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="AK53"/>
       <c r="AL53"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -7592,7 +7592,7 @@
       <c r="AK54"/>
       <c r="AL54"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="AK55"/>
       <c r="AL55"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -7688,7 +7688,7 @@
       <c r="AK56"/>
       <c r="AL56"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="AK57"/>
       <c r="AL57"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="AK58"/>
       <c r="AL58"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="AK59"/>
       <c r="AL59"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -7896,7 +7896,7 @@
       <c r="AK60"/>
       <c r="AL60"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="AK61"/>
       <c r="AL61"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>145</v>
       </c>
@@ -7996,7 +7996,7 @@
       <c r="AK62"/>
       <c r="AL62"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -8054,7 +8054,7 @@
       <c r="AK63"/>
       <c r="AL63"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>147</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="AK64"/>
       <c r="AL64"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -8158,7 +8158,7 @@
       <c r="AK65"/>
       <c r="AL65"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>81</v>
       </c>
       <c r="D66" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E66" t="n">
         <v>2.0</v>
@@ -8214,7 +8214,7 @@
       <c r="AK66"/>
       <c r="AL66"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -8264,7 +8264,7 @@
       <c r="AK67"/>
       <c r="AL67"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -8314,7 +8314,7 @@
       <c r="AK68"/>
       <c r="AL68"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -8364,7 +8364,7 @@
       <c r="AK69"/>
       <c r="AL69"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="AK70"/>
       <c r="AL70"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="AK71"/>
       <c r="AL71"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="AK72"/>
       <c r="AL72"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -8594,7 +8594,7 @@
       <c r="AK73"/>
       <c r="AL73"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -8644,7 +8644,7 @@
       <c r="AK74"/>
       <c r="AL74"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -8694,7 +8694,7 @@
       <c r="AK75"/>
       <c r="AL75"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -8744,7 +8744,7 @@
       <c r="AK76"/>
       <c r="AL76"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -8802,7 +8802,7 @@
       <c r="AK77"/>
       <c r="AL77"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -8858,7 +8858,7 @@
       <c r="AK78"/>
       <c r="AL78"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -8910,7 +8910,7 @@
       <c r="AK79"/>
       <c r="AL79"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -8960,7 +8960,7 @@
       <c r="AK80"/>
       <c r="AL80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="AK81"/>
       <c r="AL81"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -9060,7 +9060,7 @@
       <c r="AK82"/>
       <c r="AL82"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="AK83"/>
       <c r="AL83"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="AK84"/>
       <c r="AL84"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="AK85"/>
       <c r="AL85"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>169</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="AK86"/>
       <c r="AL86"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>170</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="AK87"/>
       <c r="AL87"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="AK88"/>
       <c r="AL88"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="AK89"/>
       <c r="AL89"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -9488,7 +9488,7 @@
       <c r="AK90"/>
       <c r="AL90"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>174</v>
       </c>
@@ -9540,7 +9540,7 @@
       <c r="AK91"/>
       <c r="AL91"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -9590,7 +9590,7 @@
       <c r="AK92"/>
       <c r="AL92"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -9646,7 +9646,7 @@
       <c r="AK93"/>
       <c r="AL93"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -9698,7 +9698,7 @@
       <c r="AK94"/>
       <c r="AL94"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>178</v>
       </c>
@@ -9748,7 +9748,7 @@
       <c r="AK95"/>
       <c r="AL95"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -9800,7 +9800,7 @@
       <c r="AK96"/>
       <c r="AL96"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="AK97"/>
       <c r="AL97"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="AK98"/>
       <c r="AL98"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>182</v>
       </c>
@@ -9972,7 +9972,7 @@
       <c r="AK99"/>
       <c r="AL99"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>183</v>
       </c>
@@ -10022,7 +10022,7 @@
       <c r="AK100"/>
       <c r="AL100"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="AK101"/>
       <c r="AL101"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>185</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="AK102"/>
       <c r="AL102"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>186</v>
       </c>
@@ -10196,7 +10196,7 @@
       <c r="AK103"/>
       <c r="AL103"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -10252,7 +10252,7 @@
       <c r="AK104"/>
       <c r="AL104"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>188</v>
       </c>
@@ -10312,7 +10312,7 @@
       <c r="AK105"/>
       <c r="AL105"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>189</v>
       </c>
@@ -10366,7 +10366,7 @@
       <c r="AK106"/>
       <c r="AL106"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="AK107"/>
       <c r="AL107"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -10478,7 +10478,7 @@
       <c r="AK108"/>
       <c r="AL108"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -10530,7 +10530,7 @@
       <c r="AK109"/>
       <c r="AL109"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -10582,7 +10582,7 @@
       <c r="AK110"/>
       <c r="AL110"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="AK111"/>
       <c r="AL111"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>195</v>
       </c>
@@ -10696,7 +10696,7 @@
       <c r="AK112"/>
       <c r="AL112"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>196</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="AK113"/>
       <c r="AL113"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>197</v>
       </c>
@@ -10816,7 +10816,7 @@
       <c r="AK114"/>
       <c r="AL114"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -10866,7 +10866,7 @@
       <c r="AK115"/>
       <c r="AL115"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>199</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="AK116"/>
       <c r="AL116"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>200</v>
       </c>
@@ -10972,7 +10972,7 @@
       <c r="AK117"/>
       <c r="AL117"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>201</v>
       </c>
@@ -11030,7 +11030,7 @@
       <c r="AK118"/>
       <c r="AL118"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -11086,7 +11086,7 @@
       <c r="AK119"/>
       <c r="AL119"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>203</v>
       </c>
@@ -11136,7 +11136,7 @@
       <c r="AK120"/>
       <c r="AL120"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>204</v>
       </c>
@@ -11190,7 +11190,7 @@
       <c r="AK121"/>
       <c r="AL121"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>205</v>
       </c>
@@ -11242,7 +11242,7 @@
       <c r="AK122"/>
       <c r="AL122"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>206</v>
       </c>
@@ -11292,7 +11292,7 @@
       <c r="AK123"/>
       <c r="AL123"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>207</v>
       </c>
@@ -11346,7 +11346,7 @@
       <c r="AK124"/>
       <c r="AL124"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>208</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="AK125"/>
       <c r="AL125"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>209</v>
       </c>
@@ -11444,7 +11444,7 @@
       <c r="AK126"/>
       <c r="AL126"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>210</v>
       </c>
@@ -11496,7 +11496,7 @@
       <c r="AK127"/>
       <c r="AL127"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>211</v>
       </c>
@@ -11546,7 +11546,7 @@
       <c r="AK128"/>
       <c r="AL128"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>212</v>
       </c>
@@ -11598,7 +11598,7 @@
       <c r="AK129"/>
       <c r="AL129"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>561</v>
       </c>
@@ -11628,7 +11628,7 @@
       <c r="U130"/>
       <c r="V130"/>
       <c r="W130" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="X130"/>
       <c r="Y130"/>
@@ -11646,7 +11646,7 @@
       <c r="AK130"/>
       <c r="AL130"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>213</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="AK131"/>
       <c r="AL131"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>214</v>
       </c>
@@ -11768,7 +11768,7 @@
       <c r="AK132"/>
       <c r="AL132"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>215</v>
       </c>
@@ -11820,7 +11820,7 @@
       <c r="AK133"/>
       <c r="AL133"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>216</v>
       </c>
@@ -11866,7 +11866,7 @@
       <c r="AK134"/>
       <c r="AL134"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -11916,7 +11916,7 @@
       <c r="AK135"/>
       <c r="AL135"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -11978,7 +11978,7 @@
       <c r="AK136"/>
       <c r="AL136"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>219</v>
       </c>
@@ -12032,7 +12032,7 @@
       <c r="AK137"/>
       <c r="AL137"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>220</v>
       </c>
@@ -12092,7 +12092,7 @@
       <c r="AK138"/>
       <c r="AL138"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>221</v>
       </c>
@@ -12144,7 +12144,7 @@
       <c r="AK139"/>
       <c r="AL139"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>222</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="AK140"/>
       <c r="AL140"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>223</v>
       </c>
@@ -12244,7 +12244,7 @@
       <c r="AK141"/>
       <c r="AL141"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>224</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="AK142"/>
       <c r="AL142"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>225</v>
       </c>
@@ -12362,7 +12362,7 @@
       <c r="AK143"/>
       <c r="AL143"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>226</v>
       </c>
@@ -12414,7 +12414,7 @@
       <c r="AK144"/>
       <c r="AL144"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -12468,7 +12468,7 @@
       <c r="AK145"/>
       <c r="AL145"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>228</v>
       </c>
@@ -12520,7 +12520,7 @@
       <c r="AK146"/>
       <c r="AL146"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>229</v>
       </c>
@@ -12568,7 +12568,7 @@
       <c r="AK147"/>
       <c r="AL147"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>230</v>
       </c>
@@ -12628,7 +12628,7 @@
       <c r="AK148"/>
       <c r="AL148"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>231</v>
       </c>
@@ -12692,7 +12692,7 @@
       <c r="AK149"/>
       <c r="AL149"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>232</v>
       </c>
@@ -12744,7 +12744,7 @@
       <c r="AK150"/>
       <c r="AL150"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>233</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="AK151"/>
       <c r="AL151"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>234</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="AK152"/>
       <c r="AL152"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -12892,7 +12892,7 @@
       <c r="AK153"/>
       <c r="AL153"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>236</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="AK154"/>
       <c r="AL154"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>237</v>
       </c>
@@ -12984,7 +12984,7 @@
       <c r="AK155"/>
       <c r="AL155"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>238</v>
       </c>
@@ -13030,7 +13030,7 @@
       <c r="AK156"/>
       <c r="AL156"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>239</v>
       </c>
@@ -13076,7 +13076,7 @@
       <c r="AK157"/>
       <c r="AL157"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>240</v>
       </c>
@@ -13122,7 +13122,7 @@
       <c r="AK158"/>
       <c r="AL158"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>241</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="AK159"/>
       <c r="AL159"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>242</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="AK160"/>
       <c r="AL160"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>243</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="AK161"/>
       <c r="AL161"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>244</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="AK162"/>
       <c r="AL162"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>245</v>
       </c>
@@ -13364,7 +13364,7 @@
       <c r="AK163"/>
       <c r="AL163"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>246</v>
       </c>
@@ -13410,7 +13410,7 @@
       <c r="AK164"/>
       <c r="AL164"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>247</v>
       </c>
@@ -13456,7 +13456,7 @@
       <c r="AK165"/>
       <c r="AL165"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>248</v>
       </c>
@@ -13502,7 +13502,7 @@
       <c r="AK166"/>
       <c r="AL166"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>249</v>
       </c>
@@ -13548,7 +13548,7 @@
       <c r="AK167"/>
       <c r="AL167"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>250</v>
       </c>
@@ -13594,7 +13594,7 @@
       <c r="AK168"/>
       <c r="AL168"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>251</v>
       </c>
@@ -13640,7 +13640,7 @@
       <c r="AK169"/>
       <c r="AL169"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>252</v>
       </c>
@@ -13692,7 +13692,7 @@
       <c r="AK170"/>
       <c r="AL170"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>253</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="AK171"/>
       <c r="AL171"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>254</v>
       </c>
@@ -13790,7 +13790,7 @@
       <c r="AK172"/>
       <c r="AL172"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>255</v>
       </c>
@@ -13842,7 +13842,7 @@
       <c r="AK173"/>
       <c r="AL173"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>256</v>
       </c>
@@ -13894,7 +13894,7 @@
       <c r="AK174"/>
       <c r="AL174"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>257</v>
       </c>
@@ -13940,7 +13940,7 @@
       <c r="AK175"/>
       <c r="AL175"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>258</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="AK176"/>
       <c r="AL176"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>259</v>
       </c>
@@ -14038,7 +14038,7 @@
       <c r="AK177"/>
       <c r="AL177"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>260</v>
       </c>
@@ -14084,7 +14084,7 @@
       <c r="AK178"/>
       <c r="AL178"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>261</v>
       </c>
@@ -14130,7 +14130,7 @@
       <c r="AK179"/>
       <c r="AL179"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>262</v>
       </c>
@@ -14176,7 +14176,7 @@
       <c r="AK180"/>
       <c r="AL180"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>263</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="AK181"/>
       <c r="AL181"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>264</v>
       </c>
@@ -14268,7 +14268,7 @@
       <c r="AK182"/>
       <c r="AL182"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>265</v>
       </c>
@@ -14314,7 +14314,7 @@
       <c r="AK183"/>
       <c r="AL183"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>266</v>
       </c>
@@ -14360,7 +14360,7 @@
       <c r="AK184"/>
       <c r="AL184"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>267</v>
       </c>
@@ -14406,7 +14406,7 @@
       <c r="AK185"/>
       <c r="AL185"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>268</v>
       </c>
@@ -14456,7 +14456,7 @@
       <c r="AK186"/>
       <c r="AL186"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>269</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="AK187"/>
       <c r="AL187"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>270</v>
       </c>
@@ -14548,7 +14548,7 @@
       <c r="AK188"/>
       <c r="AL188"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>271</v>
       </c>
@@ -14594,7 +14594,7 @@
       <c r="AK189"/>
       <c r="AL189"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>272</v>
       </c>
@@ -14646,7 +14646,7 @@
       <c r="AK190"/>
       <c r="AL190"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>273</v>
       </c>
@@ -14698,7 +14698,7 @@
       <c r="AK191"/>
       <c r="AL191"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>274</v>
       </c>
@@ -14744,7 +14744,7 @@
       <c r="AK192"/>
       <c r="AL192"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>275</v>
       </c>
@@ -14790,7 +14790,7 @@
       <c r="AK193"/>
       <c r="AL193"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>276</v>
       </c>
@@ -14836,7 +14836,7 @@
       <c r="AK194"/>
       <c r="AL194"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>277</v>
       </c>
@@ -14882,7 +14882,7 @@
       <c r="AK195"/>
       <c r="AL195"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>278</v>
       </c>
@@ -14934,7 +14934,7 @@
       <c r="AK196"/>
       <c r="AL196"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>279</v>
       </c>
@@ -14986,7 +14986,7 @@
       <c r="AK197"/>
       <c r="AL197"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>280</v>
       </c>
@@ -15032,7 +15032,7 @@
       <c r="AK198"/>
       <c r="AL198"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>281</v>
       </c>
@@ -15040,7 +15040,9 @@
         <v>37</v>
       </c>
       <c r="C199"/>
-      <c r="D199"/>
+      <c r="D199" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E199"/>
       <c r="F199"/>
       <c r="G199"/>
@@ -15076,7 +15078,7 @@
       <c r="AK199"/>
       <c r="AL199"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>282</v>
       </c>
@@ -15084,7 +15086,9 @@
         <v>37</v>
       </c>
       <c r="C200"/>
-      <c r="D200"/>
+      <c r="D200" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E200"/>
       <c r="F200"/>
       <c r="G200"/>
@@ -15120,7 +15124,7 @@
       <c r="AK200"/>
       <c r="AL200"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>283</v>
       </c>
@@ -15128,7 +15132,9 @@
         <v>37</v>
       </c>
       <c r="C201"/>
-      <c r="D201"/>
+      <c r="D201" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E201"/>
       <c r="F201"/>
       <c r="G201"/>
@@ -15164,7 +15170,7 @@
       <c r="AK201"/>
       <c r="AL201"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>284</v>
       </c>
@@ -15172,7 +15178,9 @@
         <v>37</v>
       </c>
       <c r="C202"/>
-      <c r="D202"/>
+      <c r="D202" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202"/>
@@ -15208,7 +15216,7 @@
       <c r="AK202"/>
       <c r="AL202"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>285</v>
       </c>
@@ -15216,7 +15224,9 @@
         <v>37</v>
       </c>
       <c r="C203"/>
-      <c r="D203"/>
+      <c r="D203" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203"/>
@@ -15252,7 +15262,7 @@
       <c r="AK203"/>
       <c r="AL203"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>286</v>
       </c>
@@ -15260,7 +15270,9 @@
         <v>37</v>
       </c>
       <c r="C204"/>
-      <c r="D204"/>
+      <c r="D204" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E204"/>
       <c r="F204"/>
       <c r="G204"/>
@@ -15296,7 +15308,7 @@
       <c r="AK204"/>
       <c r="AL204"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>287</v>
       </c>
@@ -15304,7 +15316,9 @@
         <v>37</v>
       </c>
       <c r="C205"/>
-      <c r="D205"/>
+      <c r="D205" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E205"/>
       <c r="F205"/>
       <c r="G205"/>
@@ -15340,7 +15354,7 @@
       <c r="AK205"/>
       <c r="AL205"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>288</v>
       </c>
@@ -15348,7 +15362,9 @@
         <v>37</v>
       </c>
       <c r="C206"/>
-      <c r="D206"/>
+      <c r="D206" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E206"/>
       <c r="F206"/>
       <c r="G206"/>
@@ -15384,7 +15400,7 @@
       <c r="AK206"/>
       <c r="AL206"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>289</v>
       </c>
@@ -15430,7 +15446,7 @@
       <c r="AK207"/>
       <c r="AL207"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>290</v>
       </c>
@@ -15476,7 +15492,7 @@
       <c r="AK208"/>
       <c r="AL208"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>291</v>
       </c>
@@ -15528,7 +15544,7 @@
       <c r="AK209"/>
       <c r="AL209"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>292</v>
       </c>
@@ -15578,7 +15594,7 @@
       <c r="AK210"/>
       <c r="AL210"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>293</v>
       </c>
@@ -15624,7 +15640,7 @@
       <c r="AK211"/>
       <c r="AL211"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>294</v>
       </c>
@@ -15670,7 +15686,7 @@
       <c r="AK212"/>
       <c r="AL212"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>295</v>
       </c>
@@ -15722,7 +15738,7 @@
       <c r="AK213"/>
       <c r="AL213"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>296</v>
       </c>
@@ -15774,7 +15790,7 @@
       <c r="AK214"/>
       <c r="AL214"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>297</v>
       </c>
@@ -15820,7 +15836,7 @@
       <c r="AK215"/>
       <c r="AL215"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>298</v>
       </c>
@@ -15866,7 +15882,7 @@
       <c r="AK216"/>
       <c r="AL216"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>299</v>
       </c>
@@ -15918,7 +15934,7 @@
       <c r="AK217"/>
       <c r="AL217"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>300</v>
       </c>
@@ -15964,7 +15980,7 @@
       <c r="AK218"/>
       <c r="AL218"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>301</v>
       </c>
@@ -16010,7 +16026,7 @@
       <c r="AK219"/>
       <c r="AL219"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>302</v>
       </c>
@@ -16060,7 +16076,7 @@
       <c r="AK220"/>
       <c r="AL220"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>303</v>
       </c>
@@ -16106,7 +16122,7 @@
       <c r="AK221"/>
       <c r="AL221"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>304</v>
       </c>
@@ -16156,7 +16172,7 @@
       <c r="AK222"/>
       <c r="AL222"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>305</v>
       </c>
@@ -16202,7 +16218,7 @@
       <c r="AK223"/>
       <c r="AL223"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>306</v>
       </c>
@@ -16248,7 +16264,7 @@
       <c r="AK224"/>
       <c r="AL224"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>307</v>
       </c>
@@ -16294,7 +16310,7 @@
       <c r="AK225"/>
       <c r="AL225"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>308</v>
       </c>
@@ -16340,7 +16356,7 @@
       <c r="AK226"/>
       <c r="AL226"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>309</v>
       </c>
@@ -16386,7 +16402,7 @@
       <c r="AK227"/>
       <c r="AL227"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>310</v>
       </c>
@@ -16432,7 +16448,7 @@
       <c r="AK228"/>
       <c r="AL228"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>311</v>
       </c>
@@ -16478,7 +16494,7 @@
       <c r="AK229"/>
       <c r="AL229"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>312</v>
       </c>
@@ -16524,7 +16540,7 @@
       <c r="AK230"/>
       <c r="AL230"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>313</v>
       </c>
@@ -16576,7 +16592,7 @@
       <c r="AK231"/>
       <c r="AL231"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>314</v>
       </c>
@@ -16622,7 +16638,7 @@
       <c r="AK232"/>
       <c r="AL232"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>315</v>
       </c>
@@ -16668,7 +16684,7 @@
       <c r="AK233"/>
       <c r="AL233"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>316</v>
       </c>
@@ -16718,7 +16734,7 @@
       <c r="AK234"/>
       <c r="AL234"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>317</v>
       </c>
@@ -16770,7 +16786,7 @@
       <c r="AK235"/>
       <c r="AL235"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>318</v>
       </c>
@@ -16816,7 +16832,7 @@
       <c r="AK236"/>
       <c r="AL236"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>319</v>
       </c>
@@ -16862,7 +16878,7 @@
       <c r="AK237"/>
       <c r="AL237"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>320</v>
       </c>
@@ -16914,7 +16930,7 @@
       <c r="AK238"/>
       <c r="AL238"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>321</v>
       </c>
@@ -16960,7 +16976,7 @@
       <c r="AK239"/>
       <c r="AL239"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>322</v>
       </c>
@@ -17006,7 +17022,7 @@
       <c r="AK240"/>
       <c r="AL240"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>323</v>
       </c>
@@ -17052,7 +17068,7 @@
       <c r="AK241"/>
       <c r="AL241"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>324</v>
       </c>
@@ -17098,7 +17114,7 @@
       <c r="AK242"/>
       <c r="AL242"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>325</v>
       </c>
@@ -17150,7 +17166,7 @@
       <c r="AK243"/>
       <c r="AL243"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>326</v>
       </c>
@@ -17196,7 +17212,7 @@
       <c r="AK244"/>
       <c r="AL244"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>327</v>
       </c>
@@ -17242,7 +17258,7 @@
       <c r="AK245"/>
       <c r="AL245"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>328</v>
       </c>
@@ -17288,7 +17304,7 @@
       <c r="AK246"/>
       <c r="AL246"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>329</v>
       </c>
@@ -17340,7 +17356,7 @@
       <c r="AK247"/>
       <c r="AL247"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>330</v>
       </c>
@@ -17386,7 +17402,7 @@
       <c r="AK248"/>
       <c r="AL248"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>331</v>
       </c>
@@ -17432,7 +17448,7 @@
       <c r="AK249"/>
       <c r="AL249"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>332</v>
       </c>
@@ -17478,7 +17494,7 @@
       <c r="AK250"/>
       <c r="AL250"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>333</v>
       </c>
@@ -17524,7 +17540,7 @@
       <c r="AK251"/>
       <c r="AL251"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>334</v>
       </c>
@@ -17576,7 +17592,7 @@
       <c r="AK252"/>
       <c r="AL252"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>335</v>
       </c>
@@ -17622,7 +17638,7 @@
       <c r="AK253"/>
       <c r="AL253"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>336</v>
       </c>
@@ -17668,7 +17684,7 @@
       <c r="AK254"/>
       <c r="AL254"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>337</v>
       </c>
@@ -17720,7 +17736,7 @@
       <c r="AK255"/>
       <c r="AL255"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>338</v>
       </c>
@@ -17766,7 +17782,7 @@
       <c r="AK256"/>
       <c r="AL256"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>339</v>
       </c>
@@ -17812,7 +17828,7 @@
       <c r="AK257"/>
       <c r="AL257"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>340</v>
       </c>
@@ -17862,7 +17878,7 @@
       <c r="AK258"/>
       <c r="AL258"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>341</v>
       </c>
@@ -17908,7 +17924,7 @@
       <c r="AK259"/>
       <c r="AL259"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>342</v>
       </c>
@@ -17954,7 +17970,7 @@
       <c r="AK260"/>
       <c r="AL260"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>343</v>
       </c>
@@ -18000,7 +18016,7 @@
       <c r="AK261"/>
       <c r="AL261"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>344</v>
       </c>
@@ -18046,7 +18062,7 @@
       <c r="AK262"/>
       <c r="AL262"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>345</v>
       </c>
@@ -18096,7 +18112,7 @@
       <c r="AK263"/>
       <c r="AL263"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>346</v>
       </c>
@@ -18142,7 +18158,7 @@
       <c r="AK264"/>
       <c r="AL264"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>347</v>
       </c>
@@ -18188,7 +18204,7 @@
       <c r="AK265"/>
       <c r="AL265"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>348</v>
       </c>
@@ -18240,7 +18256,7 @@
       <c r="AK266"/>
       <c r="AL266"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>349</v>
       </c>
@@ -18286,7 +18302,7 @@
       <c r="AK267"/>
       <c r="AL267"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>350</v>
       </c>
@@ -18332,7 +18348,7 @@
       <c r="AK268"/>
       <c r="AL268"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>351</v>
       </c>
@@ -18378,7 +18394,7 @@
       <c r="AK269"/>
       <c r="AL269"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>352</v>
       </c>
@@ -18424,7 +18440,7 @@
       <c r="AK270"/>
       <c r="AL270"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>353</v>
       </c>
@@ -18474,7 +18490,7 @@
       <c r="AK271"/>
       <c r="AL271"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>354</v>
       </c>
@@ -18520,7 +18536,7 @@
       <c r="AK272"/>
       <c r="AL272"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>355</v>
       </c>
@@ -18566,7 +18582,7 @@
       <c r="AK273"/>
       <c r="AL273"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>356</v>
       </c>
@@ -18612,7 +18628,7 @@
       <c r="AK274"/>
       <c r="AL274"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>357</v>
       </c>
@@ -18658,7 +18674,7 @@
       <c r="AK275"/>
       <c r="AL275"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>358</v>
       </c>
@@ -18704,7 +18720,7 @@
       <c r="AK276"/>
       <c r="AL276"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>359</v>
       </c>
@@ -18750,7 +18766,7 @@
       <c r="AK277"/>
       <c r="AL277"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>360</v>
       </c>
@@ -18796,7 +18812,7 @@
       <c r="AK278"/>
       <c r="AL278"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>361</v>
       </c>
@@ -18842,7 +18858,7 @@
       <c r="AK279"/>
       <c r="AL279"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>362</v>
       </c>
@@ -18888,7 +18904,7 @@
       <c r="AK280"/>
       <c r="AL280"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>363</v>
       </c>
@@ -18940,7 +18956,7 @@
       <c r="AK281"/>
       <c r="AL281"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>364</v>
       </c>
@@ -18986,7 +19002,7 @@
       <c r="AK282"/>
       <c r="AL282"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>365</v>
       </c>
@@ -19032,7 +19048,7 @@
       <c r="AK283"/>
       <c r="AL283"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>366</v>
       </c>
@@ -19082,7 +19098,7 @@
       <c r="AK284"/>
       <c r="AL284"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>367</v>
       </c>
@@ -19128,7 +19144,7 @@
       <c r="AK285"/>
       <c r="AL285"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>368</v>
       </c>
@@ -19180,7 +19196,7 @@
       <c r="AK286"/>
       <c r="AL286"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>369</v>
       </c>
@@ -19226,7 +19242,7 @@
       <c r="AK287"/>
       <c r="AL287"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>370</v>
       </c>
@@ -19272,7 +19288,7 @@
       <c r="AK288"/>
       <c r="AL288"/>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>371</v>
       </c>
@@ -19318,7 +19334,7 @@
       <c r="AK289"/>
       <c r="AL289"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>372</v>
       </c>
@@ -19364,7 +19380,7 @@
       <c r="AK290"/>
       <c r="AL290"/>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>373</v>
       </c>
@@ -19410,7 +19426,7 @@
       <c r="AK291"/>
       <c r="AL291"/>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>374</v>
       </c>
@@ -19456,7 +19472,7 @@
       <c r="AK292"/>
       <c r="AL292"/>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>375</v>
       </c>
@@ -19502,7 +19518,7 @@
       <c r="AK293"/>
       <c r="AL293"/>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>376</v>
       </c>
@@ -19548,7 +19564,7 @@
       <c r="AK294"/>
       <c r="AL294"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>377</v>
       </c>
@@ -19594,7 +19610,7 @@
       <c r="AK295"/>
       <c r="AL295"/>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>378</v>
       </c>
@@ -19640,7 +19656,7 @@
       <c r="AK296"/>
       <c r="AL296"/>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>379</v>
       </c>
@@ -19686,7 +19702,7 @@
       <c r="AK297"/>
       <c r="AL297"/>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>380</v>
       </c>
@@ -19732,7 +19748,7 @@
       <c r="AK298"/>
       <c r="AL298"/>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>381</v>
       </c>
@@ -19778,7 +19794,7 @@
       <c r="AK299"/>
       <c r="AL299"/>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>382</v>
       </c>
@@ -19832,7 +19848,7 @@
       <c r="AK300"/>
       <c r="AL300"/>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>383</v>
       </c>
@@ -19886,7 +19902,7 @@
       <c r="AK301"/>
       <c r="AL301"/>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>384</v>
       </c>
@@ -19897,7 +19913,7 @@
         <v>77</v>
       </c>
       <c r="D302" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E302" t="n">
         <v>3.0</v>
@@ -19946,7 +19962,7 @@
       <c r="AK302"/>
       <c r="AL302"/>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>385</v>
       </c>
@@ -19996,7 +20012,7 @@
       <c r="AK303"/>
       <c r="AL303"/>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>386</v>
       </c>
@@ -20321,7 +20337,7 @@
         <v>81</v>
       </c>
       <c r="D310" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E310" t="n">
         <v>3.0</v>
@@ -20489,7 +20505,7 @@
         <v>77</v>
       </c>
       <c r="D313" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E313" t="n">
         <v>2.0</v>
@@ -20902,7 +20918,7 @@
       <c r="AK320"/>
       <c r="AL320"/>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>403</v>
       </c>
@@ -20962,7 +20978,7 @@
       <c r="AK321"/>
       <c r="AL321"/>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>404</v>
       </c>
@@ -21008,7 +21024,7 @@
       <c r="AK322"/>
       <c r="AL322"/>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>405</v>
       </c>
@@ -21054,7 +21070,7 @@
       <c r="AK323"/>
       <c r="AL323"/>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>406</v>
       </c>
@@ -21116,7 +21132,7 @@
       <c r="AK324"/>
       <c r="AL324"/>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>407</v>
       </c>
@@ -21172,7 +21188,7 @@
       <c r="AK325"/>
       <c r="AL325"/>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>408</v>
       </c>
@@ -21234,7 +21250,7 @@
       <c r="AK326"/>
       <c r="AL326"/>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>409</v>
       </c>
@@ -21280,7 +21296,7 @@
       <c r="AK327"/>
       <c r="AL327"/>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>410</v>
       </c>
@@ -21326,7 +21342,7 @@
       <c r="AK328"/>
       <c r="AL328"/>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>411</v>
       </c>
@@ -21337,7 +21353,7 @@
         <v>79</v>
       </c>
       <c r="D329" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E329" t="n">
         <v>4.0</v>
@@ -21390,7 +21406,7 @@
       <c r="AK329"/>
       <c r="AL329"/>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>412</v>
       </c>
@@ -21440,7 +21456,7 @@
       <c r="AK330"/>
       <c r="AL330"/>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>413</v>
       </c>
@@ -21486,7 +21502,7 @@
       <c r="AK331"/>
       <c r="AL331"/>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>414</v>
       </c>
@@ -21536,7 +21552,7 @@
       <c r="AK332"/>
       <c r="AL332"/>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>415</v>
       </c>
@@ -21586,7 +21602,7 @@
       <c r="AK333"/>
       <c r="AL333"/>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>416</v>
       </c>
@@ -21636,7 +21652,7 @@
       <c r="AK334"/>
       <c r="AL334"/>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>417</v>
       </c>
@@ -21688,7 +21704,7 @@
       <c r="AK335"/>
       <c r="AL335"/>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>418</v>
       </c>
@@ -21734,7 +21750,7 @@
       <c r="AK336"/>
       <c r="AL336"/>
     </row>
-    <row r="337" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>419</v>
       </c>
@@ -21780,7 +21796,7 @@
       <c r="AK337"/>
       <c r="AL337"/>
     </row>
-    <row r="338" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>420</v>
       </c>
@@ -21830,7 +21846,7 @@
       <c r="AK338"/>
       <c r="AL338"/>
     </row>
-    <row r="339" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>421</v>
       </c>
@@ -21888,7 +21904,7 @@
       <c r="AK339"/>
       <c r="AL339"/>
     </row>
-    <row r="340" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>422</v>
       </c>
@@ -21934,7 +21950,7 @@
       <c r="AK340"/>
       <c r="AL340"/>
     </row>
-    <row r="341" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>423</v>
       </c>
@@ -21984,7 +22000,7 @@
       <c r="AK341"/>
       <c r="AL341"/>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>424</v>
       </c>
@@ -22030,7 +22046,7 @@
       <c r="AK342"/>
       <c r="AL342"/>
     </row>
-    <row r="343" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>425</v>
       </c>
@@ -22076,7 +22092,7 @@
       <c r="AK343"/>
       <c r="AL343"/>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>426</v>
       </c>
@@ -22122,7 +22138,7 @@
       <c r="AK344"/>
       <c r="AL344"/>
     </row>
-    <row r="345" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>427</v>
       </c>
@@ -22178,7 +22194,7 @@
       <c r="AK345"/>
       <c r="AL345"/>
     </row>
-    <row r="346" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>428</v>
       </c>
@@ -22224,7 +22240,7 @@
       <c r="AK346"/>
       <c r="AL346"/>
     </row>
-    <row r="347" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>429</v>
       </c>
@@ -22270,7 +22286,7 @@
       <c r="AK347"/>
       <c r="AL347"/>
     </row>
-    <row r="348" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>430</v>
       </c>
@@ -22316,7 +22332,7 @@
       <c r="AK348"/>
       <c r="AL348"/>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>431</v>
       </c>
@@ -22368,7 +22384,7 @@
       <c r="AK349"/>
       <c r="AL349"/>
     </row>
-    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>432</v>
       </c>
@@ -22414,7 +22430,7 @@
       <c r="AK350"/>
       <c r="AL350"/>
     </row>
-    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>433</v>
       </c>
@@ -22468,7 +22484,7 @@
       <c r="AK351"/>
       <c r="AL351"/>
     </row>
-    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>434</v>
       </c>
@@ -22518,7 +22534,7 @@
       <c r="AK352"/>
       <c r="AL352"/>
     </row>
-    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>435</v>
       </c>
@@ -22578,7 +22594,7 @@
       <c r="AK353"/>
       <c r="AL353"/>
     </row>
-    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>436</v>
       </c>
@@ -22638,7 +22654,7 @@
       <c r="AK354"/>
       <c r="AL354"/>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>437</v>
       </c>
@@ -22684,7 +22700,7 @@
       <c r="AK355"/>
       <c r="AL355"/>
     </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>438</v>
       </c>
@@ -22730,7 +22746,7 @@
       <c r="AK356"/>
       <c r="AL356"/>
     </row>
-    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>439</v>
       </c>
@@ -22788,7 +22804,7 @@
       <c r="AK357"/>
       <c r="AL357"/>
     </row>
-    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>440</v>
       </c>
@@ -22848,7 +22864,7 @@
       <c r="AK358"/>
       <c r="AL358"/>
     </row>
-    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>441</v>
       </c>
@@ -22908,7 +22924,7 @@
       <c r="AK359"/>
       <c r="AL359"/>
     </row>
-    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>442</v>
       </c>
@@ -22968,7 +22984,7 @@
       <c r="AK360"/>
       <c r="AL360"/>
     </row>
-    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>443</v>
       </c>
@@ -22976,7 +22992,9 @@
         <v>37</v>
       </c>
       <c r="C361"/>
-      <c r="D361"/>
+      <c r="D361" t="n">
+        <v>0.0</v>
+      </c>
       <c r="E361"/>
       <c r="F361"/>
       <c r="G361"/>
@@ -23012,7 +23030,7 @@
       <c r="AK361"/>
       <c r="AL361"/>
     </row>
-    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>444</v>
       </c>
@@ -23070,7 +23088,7 @@
       <c r="AK362"/>
       <c r="AL362"/>
     </row>
-    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>445</v>
       </c>
@@ -23120,7 +23138,7 @@
       <c r="AK363"/>
       <c r="AL363"/>
     </row>
-    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>446</v>
       </c>
@@ -23166,7 +23184,7 @@
       <c r="AK364"/>
       <c r="AL364"/>
     </row>
-    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>447</v>
       </c>
@@ -23212,7 +23230,7 @@
       <c r="AK365"/>
       <c r="AL365"/>
     </row>
-    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>448</v>
       </c>
@@ -23258,7 +23276,7 @@
       <c r="AK366"/>
       <c r="AL366"/>
     </row>
-    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>449</v>
       </c>
@@ -23304,7 +23322,7 @@
       <c r="AK367"/>
       <c r="AL367"/>
     </row>
-    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>450</v>
       </c>
@@ -23362,7 +23380,7 @@
       <c r="AK368"/>
       <c r="AL368"/>
     </row>
-    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>451</v>
       </c>
@@ -23408,7 +23426,7 @@
       <c r="AK369"/>
       <c r="AL369"/>
     </row>
-    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>452</v>
       </c>
@@ -23462,7 +23480,7 @@
       <c r="AK370"/>
       <c r="AL370"/>
     </row>
-    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>453</v>
       </c>
@@ -23508,7 +23526,7 @@
       <c r="AK371"/>
       <c r="AL371"/>
     </row>
-    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>454</v>
       </c>
@@ -23554,7 +23572,7 @@
       <c r="AK372"/>
       <c r="AL372"/>
     </row>
-    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>455</v>
       </c>
@@ -23600,7 +23618,7 @@
       <c r="AK373"/>
       <c r="AL373"/>
     </row>
-    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>456</v>
       </c>
@@ -23650,7 +23668,7 @@
       <c r="AK374"/>
       <c r="AL374"/>
     </row>
-    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>457</v>
       </c>
@@ -23710,7 +23728,7 @@
       <c r="AK375"/>
       <c r="AL375"/>
     </row>
-    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>458</v>
       </c>
@@ -23768,7 +23786,7 @@
       <c r="AK376"/>
       <c r="AL376"/>
     </row>
-    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>459</v>
       </c>
@@ -23828,7 +23846,7 @@
       <c r="AK377"/>
       <c r="AL377"/>
     </row>
-    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>460</v>
       </c>
@@ -23874,7 +23892,7 @@
       <c r="AK378"/>
       <c r="AL378"/>
     </row>
-    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>461</v>
       </c>
@@ -23920,7 +23938,7 @@
       <c r="AK379"/>
       <c r="AL379"/>
     </row>
-    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>462</v>
       </c>
@@ -23966,7 +23984,7 @@
       <c r="AK380"/>
       <c r="AL380"/>
     </row>
-    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>463</v>
       </c>
@@ -24012,7 +24030,7 @@
       <c r="AK381"/>
       <c r="AL381"/>
     </row>
-    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>464</v>
       </c>
@@ -24070,7 +24088,7 @@
       <c r="AK382"/>
       <c r="AL382"/>
     </row>
-    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>465</v>
       </c>
@@ -24116,7 +24134,7 @@
       <c r="AK383"/>
       <c r="AL383"/>
     </row>
-    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>466</v>
       </c>
@@ -24162,7 +24180,7 @@
       <c r="AK384"/>
       <c r="AL384"/>
     </row>
-    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>467</v>
       </c>
@@ -24218,7 +24236,7 @@
       <c r="AK385"/>
       <c r="AL385"/>
     </row>
-    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>468</v>
       </c>
@@ -24264,7 +24282,7 @@
       <c r="AK386"/>
       <c r="AL386"/>
     </row>
-    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>469</v>
       </c>
@@ -24310,7 +24328,7 @@
       <c r="AK387"/>
       <c r="AL387"/>
     </row>
-    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>470</v>
       </c>
@@ -24356,7 +24374,7 @@
       <c r="AK388"/>
       <c r="AL388"/>
     </row>
-    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>471</v>
       </c>
@@ -24402,7 +24420,7 @@
       <c r="AK389"/>
       <c r="AL389"/>
     </row>
-    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>472</v>
       </c>
@@ -24448,7 +24466,7 @@
       <c r="AK390"/>
       <c r="AL390"/>
     </row>
-    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>473</v>
       </c>
@@ -24494,7 +24512,7 @@
       <c r="AK391"/>
       <c r="AL391"/>
     </row>
-    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>474</v>
       </c>
@@ -24552,7 +24570,7 @@
       <c r="AK392"/>
       <c r="AL392"/>
     </row>
-    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>475</v>
       </c>
@@ -24604,7 +24622,7 @@
       <c r="AK393"/>
       <c r="AL393"/>
     </row>
-    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>476</v>
       </c>
@@ -24660,7 +24678,7 @@
       <c r="AK394"/>
       <c r="AL394"/>
     </row>
-    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>477</v>
       </c>
@@ -24712,7 +24730,7 @@
       <c r="AK395"/>
       <c r="AL395"/>
     </row>
-    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>478</v>
       </c>
@@ -24762,7 +24780,7 @@
       <c r="AK396"/>
       <c r="AL396"/>
     </row>
-    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>479</v>
       </c>
@@ -24814,7 +24832,7 @@
       <c r="AK397"/>
       <c r="AL397"/>
     </row>
-    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>480</v>
       </c>
@@ -24870,7 +24888,7 @@
       <c r="AK398"/>
       <c r="AL398"/>
     </row>
-    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>481</v>
       </c>
@@ -24922,7 +24940,7 @@
       <c r="AK399"/>
       <c r="AL399"/>
     </row>
-    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>482</v>
       </c>
@@ -24982,7 +25000,7 @@
       <c r="AK400"/>
       <c r="AL400"/>
     </row>
-    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>483</v>
       </c>
@@ -25030,7 +25048,7 @@
       <c r="AK401"/>
       <c r="AL401"/>
     </row>
-    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>484</v>
       </c>
@@ -25078,7 +25096,7 @@
       <c r="AK402"/>
       <c r="AL402"/>
     </row>
-    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>485</v>
       </c>
@@ -25130,7 +25148,7 @@
       <c r="AK403"/>
       <c r="AL403"/>
     </row>
-    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>486</v>
       </c>
@@ -25182,7 +25200,7 @@
       <c r="AK404"/>
       <c r="AL404"/>
     </row>
-    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>487</v>
       </c>
@@ -25230,7 +25248,7 @@
       <c r="AK405"/>
       <c r="AL405"/>
     </row>
-    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>488</v>
       </c>
@@ -25290,7 +25308,7 @@
       <c r="AK406"/>
       <c r="AL406"/>
     </row>
-    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>489</v>
       </c>
@@ -25348,7 +25366,7 @@
       <c r="AK407"/>
       <c r="AL407"/>
     </row>
-    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>490</v>
       </c>
@@ -25396,7 +25414,7 @@
       <c r="AK408"/>
       <c r="AL408"/>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>491</v>
       </c>
@@ -25444,7 +25462,7 @@
       <c r="AK409"/>
       <c r="AL409"/>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>492</v>
       </c>
@@ -25492,7 +25510,7 @@
       <c r="AK410"/>
       <c r="AL410"/>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>493</v>
       </c>
@@ -25550,7 +25568,7 @@
       <c r="AK411"/>
       <c r="AL411"/>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>494</v>
       </c>
@@ -25598,7 +25616,7 @@
       <c r="AK412"/>
       <c r="AL412"/>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>495</v>
       </c>
@@ -25646,7 +25664,7 @@
       <c r="AK413"/>
       <c r="AL413"/>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>496</v>
       </c>
@@ -25694,7 +25712,7 @@
       <c r="AK414"/>
       <c r="AL414"/>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>497</v>
       </c>
@@ -25742,7 +25760,7 @@
       <c r="AK415"/>
       <c r="AL415"/>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>498</v>
       </c>
@@ -25790,7 +25808,7 @@
       <c r="AK416"/>
       <c r="AL416"/>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>499</v>
       </c>
@@ -25838,7 +25856,7 @@
       <c r="AK417"/>
       <c r="AL417"/>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>500</v>
       </c>
@@ -25898,7 +25916,7 @@
       <c r="AK418"/>
       <c r="AL418"/>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>501</v>
       </c>
@@ -25946,7 +25964,7 @@
       <c r="AK419"/>
       <c r="AL419"/>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>502</v>
       </c>
@@ -26006,7 +26024,7 @@
       <c r="AK420"/>
       <c r="AL420"/>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>503</v>
       </c>
@@ -26058,7 +26076,7 @@
       <c r="AK421"/>
       <c r="AL421"/>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>504</v>
       </c>
@@ -26114,7 +26132,7 @@
       <c r="AK422"/>
       <c r="AL422"/>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>505</v>
       </c>
@@ -26164,7 +26182,7 @@
       <c r="AK423"/>
       <c r="AL423"/>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>506</v>
       </c>
@@ -26212,7 +26230,7 @@
       <c r="AK424"/>
       <c r="AL424"/>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>507</v>
       </c>
@@ -26264,7 +26282,7 @@
       <c r="AK425"/>
       <c r="AL425"/>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>508</v>
       </c>
@@ -26320,7 +26338,7 @@
       <c r="AK426"/>
       <c r="AL426"/>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>509</v>
       </c>
@@ -26370,7 +26388,7 @@
       <c r="AK427"/>
       <c r="AL427"/>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>510</v>
       </c>
@@ -26381,7 +26399,7 @@
         <v>85</v>
       </c>
       <c r="D428" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E428" t="n">
         <v>5.0</v>
@@ -26430,7 +26448,7 @@
       <c r="AK428"/>
       <c r="AL428"/>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>511</v>
       </c>
@@ -26482,7 +26500,7 @@
       <c r="AK429"/>
       <c r="AL429"/>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>512</v>
       </c>
@@ -26534,7 +26552,7 @@
       <c r="AK430"/>
       <c r="AL430"/>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>513</v>
       </c>
@@ -26598,7 +26616,7 @@
       <c r="AK431"/>
       <c r="AL431"/>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>514</v>
       </c>
@@ -26648,7 +26666,7 @@
       <c r="AK432"/>
       <c r="AL432"/>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>515</v>
       </c>
@@ -26696,7 +26714,7 @@
       <c r="AK433"/>
       <c r="AL433"/>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>516</v>
       </c>
@@ -26746,7 +26764,7 @@
       <c r="AK434"/>
       <c r="AL434"/>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>517</v>
       </c>
@@ -26798,7 +26816,7 @@
       <c r="AK435"/>
       <c r="AL435"/>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>518</v>
       </c>
@@ -26858,7 +26876,7 @@
       <c r="AK436"/>
       <c r="AL436"/>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>519</v>
       </c>
@@ -26912,7 +26930,7 @@
       <c r="AK437"/>
       <c r="AL437"/>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>520</v>
       </c>
@@ -26958,7 +26976,7 @@
       <c r="AK438"/>
       <c r="AL438"/>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>521</v>
       </c>
@@ -27004,7 +27022,7 @@
       <c r="AK439"/>
       <c r="AL439"/>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>522</v>
       </c>
@@ -27054,7 +27072,7 @@
       <c r="AK440"/>
       <c r="AL440"/>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>523</v>
       </c>
@@ -27100,7 +27118,7 @@
       <c r="AK441"/>
       <c r="AL441"/>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>524</v>
       </c>
@@ -27146,7 +27164,7 @@
       <c r="AK442"/>
       <c r="AL442"/>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>525</v>
       </c>
@@ -27192,7 +27210,7 @@
       <c r="AK443"/>
       <c r="AL443"/>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>526</v>
       </c>
@@ -27252,7 +27270,7 @@
       <c r="AK444"/>
       <c r="AL444"/>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>527</v>
       </c>
@@ -27312,7 +27330,7 @@
       <c r="AK445"/>
       <c r="AL445"/>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>528</v>
       </c>
@@ -27374,7 +27392,7 @@
       <c r="AK446"/>
       <c r="AL446"/>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>529</v>
       </c>
@@ -27430,7 +27448,7 @@
       <c r="AK447"/>
       <c r="AL447"/>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>530</v>
       </c>
@@ -27492,7 +27510,7 @@
       <c r="AK448"/>
       <c r="AL448"/>
     </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>531</v>
       </c>
@@ -27542,7 +27560,7 @@
       <c r="AK449"/>
       <c r="AL449"/>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>532</v>
       </c>
@@ -27594,7 +27612,7 @@
       <c r="AK450"/>
       <c r="AL450"/>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>533</v>
       </c>
@@ -27646,7 +27664,7 @@
       <c r="AK451"/>
       <c r="AL451"/>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>534</v>
       </c>
@@ -27696,7 +27714,7 @@
       <c r="AK452"/>
       <c r="AL452"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>535</v>
       </c>
@@ -27748,7 +27766,7 @@
       <c r="AK453"/>
       <c r="AL453"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>536</v>
       </c>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="4875" windowWidth="37665" windowHeight="13155"/>
+    <workbookView xWindow="15465" yWindow="4875" windowWidth="37665" windowHeight="13155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12996" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="561">
   <si>
     <t>unit</t>
   </si>
@@ -2040,9 +2040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH16" sqref="AH16"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4597,9 +4597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL454"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA42" sqref="AA42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA437" sqref="AA437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26921,8 +26921,12 @@
       <c r="V438"/>
       <c r="W438"/>
       <c r="X438"/>
-      <c r="Y438"/>
-      <c r="Z438"/>
+      <c r="Y438" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z438" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AA438"/>
       <c r="AB438"/>
       <c r="AC438"/>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15465" yWindow="4875" windowWidth="37665" windowHeight="13155" activeTab="1"/>
+    <workbookView xWindow="17730" yWindow="4875" windowWidth="37665" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -2040,9 +2040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2287,7 @@
         <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="L3" t="n">
         <v>2.0</v>
@@ -4597,9 +4597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA437" sqref="AA437"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdimeo\Documents\great-war-1916\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Danny-John Games\GreatWar New Map\TEXT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17730" yWindow="4875" windowWidth="37665" windowHeight="13155"/>
+    <workbookView xWindow="19140" yWindow="3480" windowWidth="36255" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="566">
   <si>
     <t>unit</t>
   </si>
@@ -1711,6 +1711,21 @@
   </si>
   <si>
     <t>OVER THE TOP</t>
+  </si>
+  <si>
+    <t>Elite-Offensive-Infantry</t>
+  </si>
+  <si>
+    <t>Elite-Defensive-Infantry</t>
+  </si>
+  <si>
+    <t>Develop-Elite-Offensive-Infantry</t>
+  </si>
+  <si>
+    <t>Develop-Elite-Defensive-Infantry</t>
+  </si>
+  <si>
+    <t>Develop-Elite-Infantry</t>
   </si>
 </sst>
 </file>
@@ -2038,11 +2053,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW35"/>
+  <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="CP1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="DO21" sqref="DO21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,46 +2154,46 @@
         <v>19</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>556</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>31</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>542</v>
       </c>
       <c r="AS1" t="s">
         <v>32</v>
@@ -2272,7 +2287,7 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2902,7 +2917,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -2913,7 +2928,7 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="I12" t="s">
         <v>37</v>
@@ -2969,7 +2984,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>565</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -2980,7 +2995,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -3036,7 +3051,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -3047,7 +3062,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -3103,7 +3118,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -3170,7 +3185,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -3179,18 +3194,20 @@
       </c>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16" t="s">
-        <v>557</v>
-      </c>
+      <c r="G16"/>
       <c r="H16" t="n">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
@@ -3207,29 +3224,19 @@
       <c r="Z16"/>
       <c r="AA16"/>
       <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16" t="s">
+      <c r="AC16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD16" t="s">
         <v>36</v>
       </c>
-      <c r="AF16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>36</v>
-      </c>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
       <c r="AL16"/>
       <c r="AM16"/>
       <c r="AN16"/>
@@ -3245,30 +3252,28 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>538</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="n">
-        <v>5.0</v>
+        <v>50.0</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -3286,8 +3291,12 @@
       <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
+      <c r="AC17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>36</v>
+      </c>
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17"/>
@@ -3295,9 +3304,7 @@
       <c r="AI17"/>
       <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17" t="s">
-        <v>36</v>
-      </c>
+      <c r="AL17"/>
       <c r="AM17"/>
       <c r="AN17"/>
       <c r="AO17"/>
@@ -3312,28 +3319,28 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -3342,21 +3349,21 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-      <c r="T18" t="s">
-        <v>36</v>
-      </c>
+      <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
-      <c r="X18" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
+      <c r="AC18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>36</v>
+      </c>
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18"/>
@@ -3379,43 +3386,37 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>562</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E19"/>
+        <v>1.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
       </c>
-      <c r="J19" t="s">
-        <v>36</v>
-      </c>
+      <c r="J19"/>
       <c r="K19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" t="s">
-        <v>40</v>
-      </c>
+      <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" t="s">
-        <v>546</v>
-      </c>
+      <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -3428,8 +3429,12 @@
       <c r="AB19"/>
       <c r="AC19"/>
       <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
+      <c r="AE19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>36</v>
+      </c>
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
@@ -3450,14 +3455,16 @@
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>561</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E20"/>
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="n">
@@ -3466,11 +3473,9 @@
       <c r="I20" t="s">
         <v>37</v>
       </c>
-      <c r="J20" t="s">
-        <v>36</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L20" t="n">
         <v>1.0</v>
@@ -3478,13 +3483,9 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20" t="s">
-        <v>57</v>
-      </c>
+      <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" t="s">
-        <v>546</v>
-      </c>
+      <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
@@ -3493,33 +3494,29 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
-      <c r="AA20"/>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
       <c r="AB20"/>
       <c r="AC20"/>
       <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
+      <c r="AE20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>36</v>
+      </c>
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
       <c r="AK20"/>
       <c r="AL20"/>
-      <c r="AM20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
       <c r="AR20"/>
       <c r="AS20"/>
       <c r="AT20"/>
@@ -3529,31 +3526,27 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
+      <c r="G21" t="s">
+        <v>557</v>
+      </c>
       <c r="H21" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="I21" t="s">
         <v>37</v>
       </c>
       <c r="J21"/>
-      <c r="K21" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.0</v>
-      </c>
+      <c r="K21"/>
+      <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
@@ -3572,13 +3565,25 @@
       <c r="AB21"/>
       <c r="AC21"/>
       <c r="AD21"/>
-      <c r="AE21"/>
+      <c r="AE21" t="s">
+        <v>52</v>
+      </c>
       <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
+      <c r="AG21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>36</v>
+      </c>
       <c r="AL21" t="s">
         <v>36</v>
       </c>
@@ -3596,7 +3601,7 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -3604,22 +3609,22 @@
         <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="I22" t="s">
         <v>37</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -3635,30 +3640,26 @@
       <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
-      <c r="AA22" t="s">
-        <v>36</v>
-      </c>
+      <c r="AA22"/>
       <c r="AB22"/>
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
-      <c r="AF22" t="s">
-        <v>60</v>
-      </c>
+      <c r="AF22"/>
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
-      <c r="AM22"/>
+      <c r="AM22" t="s">
+        <v>36</v>
+      </c>
       <c r="AN22"/>
       <c r="AO22"/>
       <c r="AP22"/>
       <c r="AQ22"/>
-      <c r="AR22" t="s">
-        <v>36</v>
-      </c>
+      <c r="AR22"/>
       <c r="AS22"/>
       <c r="AT22"/>
       <c r="AU22"/>
@@ -3667,46 +3668,48 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1.0</v>
-      </c>
+        <v>3.0</v>
+      </c>
+      <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="H23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
       <c r="J23"/>
       <c r="K23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" t="s">
-        <v>549</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-      <c r="T23"/>
+      <c r="T23" t="s">
+        <v>36</v>
+      </c>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-      <c r="X23"/>
+      <c r="X23" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Y23"/>
       <c r="Z23"/>
-      <c r="AA23" t="s">
-        <v>39</v>
-      </c>
+      <c r="AA23"/>
       <c r="AB23"/>
       <c r="AC23"/>
       <c r="AD23"/>
@@ -3717,20 +3720,14 @@
       <c r="AI23"/>
       <c r="AJ23"/>
       <c r="AK23"/>
-      <c r="AL23" t="s">
-        <v>36</v>
-      </c>
+      <c r="AL23"/>
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
       <c r="AP23"/>
       <c r="AQ23"/>
-      <c r="AR23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="AR23"/>
+      <c r="AS23"/>
       <c r="AT23"/>
       <c r="AU23"/>
       <c r="AV23"/>
@@ -3738,16 +3735,14 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="n">
         <v>2.0</v>
       </c>
-      <c r="E24" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="n">
@@ -3756,19 +3751,27 @@
       <c r="I24" t="s">
         <v>37</v>
       </c>
-      <c r="J24"/>
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
       <c r="K24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" t="n">
         <v>1.0</v>
       </c>
-      <c r="M24"/>
+      <c r="M24" t="n">
+        <v>3.0</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24"/>
+      <c r="P24" t="s">
+        <v>40</v>
+      </c>
       <c r="Q24"/>
-      <c r="R24"/>
+      <c r="R24" t="s">
+        <v>546</v>
+      </c>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -3776,12 +3779,8 @@
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24"/>
-      <c r="Z24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>39</v>
-      </c>
+      <c r="Z24"/>
+      <c r="AA24"/>
       <c r="AB24"/>
       <c r="AC24"/>
       <c r="AD24"/>
@@ -3800,57 +3799,53 @@
       <c r="AQ24"/>
       <c r="AR24"/>
       <c r="AS24"/>
-      <c r="AT24" t="s">
-        <v>36</v>
-      </c>
+      <c r="AT24"/>
       <c r="AU24"/>
       <c r="AV24"/>
       <c r="AW24"/>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>56</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="J25"/>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25"/>
+      <c r="P25" t="s">
+        <v>57</v>
+      </c>
       <c r="Q25"/>
-      <c r="R25"/>
+      <c r="R25" t="s">
+        <v>546</v>
+      </c>
       <c r="S25"/>
-      <c r="T25" t="s">
-        <v>36</v>
-      </c>
-      <c r="U25" t="s">
-        <v>36</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>-1.0</v>
-      </c>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
       <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
@@ -3867,57 +3862,59 @@
       <c r="AK25"/>
       <c r="AL25"/>
       <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
+      <c r="AN25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AS25"/>
       <c r="AT25"/>
-      <c r="AU25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>36</v>
-      </c>
+      <c r="AU25"/>
+      <c r="AV25"/>
       <c r="AW25"/>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>58</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E26"/>
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.0</v>
+      </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
       </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
+      <c r="J26"/>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M26"/>
-      <c r="N26" t="s">
-        <v>546</v>
-      </c>
+      <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26" t="s">
-        <v>547</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -3939,7 +3936,9 @@
       <c r="AJ26"/>
       <c r="AK26"/>
       <c r="AL26"/>
-      <c r="AM26"/>
+      <c r="AM26" t="s">
+        <v>36</v>
+      </c>
       <c r="AN26"/>
       <c r="AO26"/>
       <c r="AP26"/>
@@ -3949,34 +3948,34 @@
       <c r="AT26"/>
       <c r="AU26"/>
       <c r="AV26"/>
-      <c r="AW26" t="s">
-        <v>547</v>
-      </c>
+      <c r="AW26"/>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E27"/>
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I27" t="s">
         <v>37</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -3985,23 +3984,25 @@
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-      <c r="T27" t="s">
-        <v>36</v>
-      </c>
+      <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
-      <c r="X27" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
-      <c r="AA27"/>
+      <c r="AA27" t="s">
+        <v>36</v>
+      </c>
       <c r="AB27"/>
       <c r="AC27"/>
       <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
+      <c r="AE27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>36</v>
+      </c>
       <c r="AG27"/>
       <c r="AH27"/>
       <c r="AI27"/>
@@ -4022,32 +4023,34 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28" t="n">
         <v>0.0</v>
       </c>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28" t="s">
-        <v>557</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28"/>
+      <c r="Q28" t="s">
+        <v>549</v>
+      </c>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
@@ -4057,47 +4060,33 @@
       <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
-      <c r="AA28"/>
+      <c r="AA28" t="s">
+        <v>39</v>
+      </c>
       <c r="AB28"/>
       <c r="AC28"/>
-      <c r="AD28" t="s">
-        <v>36</v>
-      </c>
+      <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="s">
         <v>36</v>
       </c>
-      <c r="AH28" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AJ28" t="s">
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28" t="s">
         <v>36</v>
       </c>
-      <c r="AK28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
       <c r="AR28"/>
-      <c r="AS28"/>
+      <c r="AS28" t="n">
+        <v>10.0</v>
+      </c>
       <c r="AT28"/>
       <c r="AU28"/>
       <c r="AV28"/>
@@ -4105,25 +4094,25 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="n">
         <v>2.0</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="n">
+        <v>2.0</v>
+      </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="I29" t="s">
         <v>37</v>
       </c>
-      <c r="J29" t="s">
-        <v>36</v>
-      </c>
+      <c r="J29"/>
       <c r="K29" t="n">
         <v>2.0</v>
       </c>
@@ -4133,13 +4122,9 @@
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
-      <c r="P29" t="s">
-        <v>40</v>
-      </c>
+      <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29" t="s">
-        <v>546</v>
-      </c>
+      <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -4147,8 +4132,12 @@
       <c r="W29"/>
       <c r="X29"/>
       <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>39</v>
+      </c>
       <c r="AB29"/>
       <c r="AC29"/>
       <c r="AD29"/>
@@ -4160,46 +4149,44 @@
       <c r="AJ29"/>
       <c r="AK29"/>
       <c r="AL29"/>
-      <c r="AM29" t="s">
-        <v>36</v>
-      </c>
+      <c r="AM29"/>
       <c r="AN29"/>
       <c r="AO29"/>
       <c r="AP29"/>
       <c r="AQ29"/>
       <c r="AR29"/>
       <c r="AS29"/>
-      <c r="AT29"/>
+      <c r="AT29" t="s">
+        <v>36</v>
+      </c>
       <c r="AU29"/>
       <c r="AV29"/>
       <c r="AW29"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>536</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
-      <c r="E30" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="I30" t="s">
         <v>37</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -4207,13 +4194,19 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
-      <c r="S30" t="s">
+      <c r="S30"/>
+      <c r="T30" t="s">
         <v>36</v>
       </c>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
+      <c r="U30" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-1.0</v>
+      </c>
       <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
@@ -4237,24 +4230,28 @@
       <c r="AR30"/>
       <c r="AS30"/>
       <c r="AT30"/>
-      <c r="AU30"/>
-      <c r="AV30"/>
+      <c r="AU30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>36</v>
+      </c>
       <c r="AW30"/>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>537</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
@@ -4268,15 +4265,15 @@
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
-      <c r="M31" t="n">
-        <v>5.0</v>
-      </c>
+      <c r="M31"/>
       <c r="N31" t="s">
         <v>546</v>
       </c>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31"/>
+      <c r="Q31" t="s">
+        <v>548</v>
+      </c>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
@@ -4308,32 +4305,34 @@
       <c r="AT31"/>
       <c r="AU31"/>
       <c r="AV31"/>
-      <c r="AW31"/>
+      <c r="AW31" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="s">
         <v>37</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -4341,14 +4340,16 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
-      <c r="S32" t="s">
+      <c r="S32"/>
+      <c r="T32" t="s">
         <v>36</v>
       </c>
-      <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
-      <c r="X32"/>
+      <c r="X32" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Y32"/>
       <c r="Z32"/>
       <c r="AA32"/>
@@ -4364,18 +4365,10 @@
       <c r="AK32"/>
       <c r="AL32"/>
       <c r="AM32"/>
-      <c r="AN32" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
       <c r="AR32"/>
       <c r="AS32"/>
       <c r="AT32"/>
@@ -4383,9 +4376,9 @@
       <c r="AV32"/>
       <c r="AW32"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>558</v>
+        <v>57</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -4394,25 +4387,25 @@
       </c>
       <c r="E33"/>
       <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="G33" t="s">
+        <v>557</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
       <c r="J33"/>
-      <c r="K33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="K33"/>
+      <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-      <c r="S33" t="s">
-        <v>36</v>
-      </c>
+      <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
@@ -4423,30 +4416,52 @@
       <c r="AA33"/>
       <c r="AB33"/>
       <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
+      <c r="AD33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>41</v>
+      </c>
       <c r="AF33"/>
       <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
+      <c r="AH33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>36</v>
+      </c>
       <c r="AM33"/>
       <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-      <c r="AR33"/>
+      <c r="AO33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AS33"/>
       <c r="AT33"/>
       <c r="AU33"/>
       <c r="AV33"/>
       <c r="AW33"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -4457,7 +4472,7 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="I34" t="s">
         <v>37</v>
@@ -4466,14 +4481,12 @@
         <v>36</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>8.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="s">
@@ -4504,7 +4517,9 @@
       <c r="AK34"/>
       <c r="AL34"/>
       <c r="AM34"/>
-      <c r="AN34"/>
+      <c r="AN34" t="s">
+        <v>36</v>
+      </c>
       <c r="AO34"/>
       <c r="AP34"/>
       <c r="AQ34"/>
@@ -4515,27 +4530,29 @@
       <c r="AV34"/>
       <c r="AW34"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E35"/>
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.0</v>
+      </c>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="I35" t="s">
         <v>37</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="L35" t="n">
         <v>2.0</v>
@@ -4546,22 +4563,14 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35" t="s">
+      <c r="S35" t="s">
         <v>36</v>
       </c>
-      <c r="U35" t="s">
-        <v>36</v>
-      </c>
-      <c r="V35" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AA35"/>
@@ -4588,6 +4597,353 @@
       <c r="AV35"/>
       <c r="AW35"/>
     </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>546</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>558</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>36</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39"/>
+      <c r="R39" t="s">
+        <v>546</v>
+      </c>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40" t="s">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4595,11 +4951,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL454"/>
+  <dimension ref="A1:AQ454"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,7 +4964,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -4723,8 +5079,23 @@
       <c r="AL1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -4771,8 +5142,13 @@
       <c r="AJ2"/>
       <c r="AK2"/>
       <c r="AL2"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -4821,8 +5197,13 @@
       <c r="AJ3"/>
       <c r="AK3"/>
       <c r="AL3"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4871,8 +5252,13 @@
       <c r="AJ4"/>
       <c r="AK4"/>
       <c r="AL4"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -4921,8 +5307,13 @@
       <c r="AJ5"/>
       <c r="AK5"/>
       <c r="AL5"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -4933,7 +5324,7 @@
         <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -4971,8 +5362,13 @@
       <c r="AJ6"/>
       <c r="AK6"/>
       <c r="AL6"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -5027,8 +5423,13 @@
       <c r="AJ7"/>
       <c r="AK7"/>
       <c r="AL7"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5079,8 +5480,13 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -5131,8 +5537,13 @@
       <c r="AJ9"/>
       <c r="AK9"/>
       <c r="AL9"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5181,8 +5592,13 @@
       <c r="AJ10"/>
       <c r="AK10"/>
       <c r="AL10"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5233,8 +5649,13 @@
       <c r="AJ11"/>
       <c r="AK11"/>
       <c r="AL11"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -5291,8 +5712,13 @@
       <c r="AJ12"/>
       <c r="AK12"/>
       <c r="AL12"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -5349,8 +5775,13 @@
       <c r="AJ13"/>
       <c r="AK13"/>
       <c r="AL13"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -5399,8 +5830,13 @@
       <c r="AJ14"/>
       <c r="AK14"/>
       <c r="AL14"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -5459,8 +5895,13 @@
       <c r="AJ15"/>
       <c r="AK15"/>
       <c r="AL15"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -5509,6 +5950,11 @@
       <c r="AJ16"/>
       <c r="AK16"/>
       <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -5559,6 +6005,11 @@
       <c r="AJ17"/>
       <c r="AK17"/>
       <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -5615,6 +6066,11 @@
       <c r="AJ18"/>
       <c r="AK18"/>
       <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -5665,6 +6121,11 @@
       <c r="AJ19"/>
       <c r="AK19"/>
       <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5723,6 +6184,11 @@
       <c r="AJ20"/>
       <c r="AK20"/>
       <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -5783,6 +6249,11 @@
       <c r="AJ21"/>
       <c r="AK21"/>
       <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -5841,6 +6312,11 @@
       <c r="AJ22"/>
       <c r="AK22"/>
       <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -5895,6 +6371,11 @@
       <c r="AJ23"/>
       <c r="AK23"/>
       <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -5953,6 +6434,11 @@
       <c r="AJ24"/>
       <c r="AK24"/>
       <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -6015,6 +6501,11 @@
       <c r="AJ25"/>
       <c r="AK25"/>
       <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -6069,6 +6560,11 @@
       <c r="AJ26"/>
       <c r="AK26"/>
       <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -6119,6 +6615,11 @@
       <c r="AJ27"/>
       <c r="AK27"/>
       <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -6133,11 +6634,17 @@
       <c r="D28" t="n">
         <v>3.0</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>4.0</v>
+      </c>
       <c r="F28"/>
-      <c r="G28"/>
+      <c r="G28" t="n">
+        <v>2.0</v>
+      </c>
       <c r="H28"/>
-      <c r="I28"/>
+      <c r="I28" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -6167,6 +6674,11 @@
       <c r="AJ28"/>
       <c r="AK28"/>
       <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -6221,6 +6733,11 @@
       <c r="AJ29"/>
       <c r="AK29"/>
       <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -6235,11 +6752,17 @@
       <c r="D30" t="n">
         <v>3.0</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="n">
+        <v>4.0</v>
+      </c>
       <c r="F30"/>
-      <c r="G30"/>
+      <c r="G30" t="n">
+        <v>2.0</v>
+      </c>
       <c r="H30"/>
-      <c r="I30"/>
+      <c r="I30" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -6269,6 +6792,11 @@
       <c r="AJ30"/>
       <c r="AK30"/>
       <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -6283,13 +6811,9 @@
       <c r="D31" t="n">
         <v>3.0</v>
       </c>
-      <c r="E31" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -6304,9 +6828,7 @@
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
-      <c r="V31" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="V31"/>
       <c r="W31"/>
       <c r="X31"/>
       <c r="Y31"/>
@@ -6323,6 +6845,11 @@
       <c r="AJ31"/>
       <c r="AK31"/>
       <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -6337,13 +6864,9 @@
       <c r="D32" t="n">
         <v>3.0</v>
       </c>
-      <c r="E32" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="E32"/>
       <c r="F32"/>
-      <c r="G32" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -6358,9 +6881,7 @@
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
-      <c r="V32" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="V32"/>
       <c r="W32"/>
       <c r="X32"/>
       <c r="Y32"/>
@@ -6377,6 +6898,11 @@
       <c r="AJ32"/>
       <c r="AK32"/>
       <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6391,13 +6917,9 @@
       <c r="D33" t="n">
         <v>3.0</v>
       </c>
-      <c r="E33" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="E33"/>
       <c r="F33"/>
-      <c r="G33" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -6412,9 +6934,7 @@
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
-      <c r="V33" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="V33"/>
       <c r="W33"/>
       <c r="X33"/>
       <c r="Y33"/>
@@ -6431,6 +6951,11 @@
       <c r="AJ33"/>
       <c r="AK33"/>
       <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -6483,6 +7008,11 @@
       <c r="AJ34"/>
       <c r="AK34"/>
       <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -6539,6 +7069,11 @@
       <c r="AJ35"/>
       <c r="AK35"/>
       <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -6593,6 +7128,11 @@
       <c r="AJ36"/>
       <c r="AK36"/>
       <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6643,6 +7183,11 @@
       <c r="AJ37"/>
       <c r="AK37"/>
       <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -6701,6 +7246,11 @@
       <c r="AJ38"/>
       <c r="AK38"/>
       <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -6757,6 +7307,11 @@
       <c r="AJ39"/>
       <c r="AK39"/>
       <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6803,6 +7358,11 @@
       <c r="AJ40"/>
       <c r="AK40"/>
       <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6853,6 +7413,11 @@
       <c r="AJ41"/>
       <c r="AK41"/>
       <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -6896,15 +7461,9 @@
         <v>2.0</v>
       </c>
       <c r="W42"/>
-      <c r="X42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
       <c r="AA42" t="n">
         <v>1.0</v>
       </c>
@@ -6919,6 +7478,11 @@
       <c r="AJ42"/>
       <c r="AK42"/>
       <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -6975,6 +7539,11 @@
       <c r="AJ43"/>
       <c r="AK43"/>
       <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -7035,6 +7604,11 @@
       <c r="AJ44"/>
       <c r="AK44"/>
       <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -7087,6 +7661,11 @@
       <c r="AJ45"/>
       <c r="AK45"/>
       <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -7137,6 +7716,11 @@
       <c r="AJ46"/>
       <c r="AK46"/>
       <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7187,6 +7771,11 @@
       <c r="AJ47"/>
       <c r="AK47"/>
       <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7245,6 +7834,11 @@
       <c r="AJ48"/>
       <c r="AK48"/>
       <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -7297,6 +7891,11 @@
       <c r="AJ49"/>
       <c r="AK49"/>
       <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -7349,6 +7948,11 @@
       <c r="AJ50"/>
       <c r="AK50"/>
       <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -7399,6 +8003,11 @@
       <c r="AJ51"/>
       <c r="AK51"/>
       <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -7451,6 +8060,11 @@
       <c r="AJ52"/>
       <c r="AK52"/>
       <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -7501,6 +8115,11 @@
       <c r="AJ53"/>
       <c r="AK53"/>
       <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -7551,6 +8170,11 @@
       <c r="AJ54"/>
       <c r="AK54"/>
       <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -7599,6 +8223,11 @@
       <c r="AJ55"/>
       <c r="AK55"/>
       <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -7647,6 +8276,11 @@
       <c r="AJ56"/>
       <c r="AK56"/>
       <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -7697,6 +8331,11 @@
       <c r="AJ57"/>
       <c r="AK57"/>
       <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -7749,6 +8388,11 @@
       <c r="AJ58"/>
       <c r="AK58"/>
       <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -7795,6 +8439,11 @@
       <c r="AJ59"/>
       <c r="AK59"/>
       <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -7855,6 +8504,11 @@
       <c r="AJ60"/>
       <c r="AK60"/>
       <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -7905,6 +8559,11 @@
       <c r="AJ61"/>
       <c r="AK61"/>
       <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -7955,6 +8614,11 @@
       <c r="AJ62"/>
       <c r="AK62"/>
       <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -8013,6 +8677,11 @@
       <c r="AJ63"/>
       <c r="AK63"/>
       <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -8022,21 +8691,27 @@
         <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
       </c>
       <c r="E64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" t="n">
         <v>2.0</v>
       </c>
-      <c r="F64"/>
-      <c r="G64"/>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
       <c r="J64"/>
       <c r="K64"/>
-      <c r="L64"/>
+      <c r="L64" t="n">
+        <v>2.0</v>
+      </c>
       <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
@@ -8049,7 +8724,9 @@
       <c r="V64"/>
       <c r="W64"/>
       <c r="X64"/>
-      <c r="Y64"/>
+      <c r="Y64" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Z64"/>
       <c r="AA64"/>
       <c r="AB64"/>
@@ -8063,6 +8740,11 @@
       <c r="AJ64"/>
       <c r="AK64"/>
       <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8117,6 +8799,11 @@
       <c r="AJ65"/>
       <c r="AK65"/>
       <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -8173,6 +8860,11 @@
       <c r="AJ66"/>
       <c r="AK66"/>
       <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -8223,6 +8915,11 @@
       <c r="AJ67"/>
       <c r="AK67"/>
       <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -8273,6 +8970,11 @@
       <c r="AJ68"/>
       <c r="AK68"/>
       <c r="AL68"/>
+      <c r="AM68"/>
+      <c r="AN68"/>
+      <c r="AO68"/>
+      <c r="AP68"/>
+      <c r="AQ68"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -8323,6 +9025,11 @@
       <c r="AJ69"/>
       <c r="AK69"/>
       <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AP69"/>
+      <c r="AQ69"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -8373,6 +9080,11 @@
       <c r="AJ70"/>
       <c r="AK70"/>
       <c r="AL70"/>
+      <c r="AM70"/>
+      <c r="AN70"/>
+      <c r="AO70"/>
+      <c r="AP70"/>
+      <c r="AQ70"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -8433,6 +9145,11 @@
       <c r="AJ71"/>
       <c r="AK71"/>
       <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -8489,6 +9206,11 @@
       <c r="AJ72"/>
       <c r="AK72"/>
       <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AP72"/>
+      <c r="AQ72"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -8501,7 +9223,7 @@
         <v>84</v>
       </c>
       <c r="D73" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E73" t="n">
         <v>8.0</v>
@@ -8553,6 +9275,11 @@
       <c r="AJ73"/>
       <c r="AK73"/>
       <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -8603,6 +9330,11 @@
       <c r="AJ74"/>
       <c r="AK74"/>
       <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -8653,6 +9385,11 @@
       <c r="AJ75"/>
       <c r="AK75"/>
       <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75"/>
+      <c r="AQ75"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -8703,6 +9440,11 @@
       <c r="AJ76"/>
       <c r="AK76"/>
       <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -8761,6 +9503,11 @@
       <c r="AJ77"/>
       <c r="AK77"/>
       <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -8817,6 +9564,11 @@
       <c r="AJ78"/>
       <c r="AK78"/>
       <c r="AL78"/>
+      <c r="AM78"/>
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AP78"/>
+      <c r="AQ78"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -8869,6 +9621,11 @@
       <c r="AJ79"/>
       <c r="AK79"/>
       <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -8919,6 +9676,11 @@
       <c r="AJ80"/>
       <c r="AK80"/>
       <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
+      <c r="AQ80"/>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -8965,6 +9727,11 @@
       <c r="AJ81"/>
       <c r="AK81"/>
       <c r="AL81"/>
+      <c r="AM81"/>
+      <c r="AN81"/>
+      <c r="AO81"/>
+      <c r="AP81"/>
+      <c r="AQ81"/>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -9019,6 +9786,11 @@
       <c r="AJ82"/>
       <c r="AK82"/>
       <c r="AL82"/>
+      <c r="AM82"/>
+      <c r="AN82"/>
+      <c r="AO82"/>
+      <c r="AP82"/>
+      <c r="AQ82"/>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -9069,6 +9841,11 @@
       <c r="AJ83"/>
       <c r="AK83"/>
       <c r="AL83"/>
+      <c r="AM83"/>
+      <c r="AN83"/>
+      <c r="AO83"/>
+      <c r="AP83"/>
+      <c r="AQ83"/>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -9119,6 +9896,11 @@
       <c r="AJ84"/>
       <c r="AK84"/>
       <c r="AL84"/>
+      <c r="AM84"/>
+      <c r="AN84"/>
+      <c r="AO84"/>
+      <c r="AP84"/>
+      <c r="AQ84"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -9159,7 +9941,9 @@
       <c r="V85"/>
       <c r="W85"/>
       <c r="X85"/>
-      <c r="Y85"/>
+      <c r="Y85" t="n">
+        <v>1.0</v>
+      </c>
       <c r="Z85"/>
       <c r="AA85"/>
       <c r="AB85"/>
@@ -9173,6 +9957,11 @@
       <c r="AJ85"/>
       <c r="AK85"/>
       <c r="AL85"/>
+      <c r="AM85"/>
+      <c r="AN85"/>
+      <c r="AO85"/>
+      <c r="AP85"/>
+      <c r="AQ85"/>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -9188,7 +9977,7 @@
         <v>5.0</v>
       </c>
       <c r="E86" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
@@ -9231,6 +10020,11 @@
       <c r="AJ86"/>
       <c r="AK86"/>
       <c r="AL86"/>
+      <c r="AM86"/>
+      <c r="AN86"/>
+      <c r="AO86"/>
+      <c r="AP86"/>
+      <c r="AQ86"/>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -9281,6 +10075,11 @@
       <c r="AJ87"/>
       <c r="AK87"/>
       <c r="AL87"/>
+      <c r="AM87"/>
+      <c r="AN87"/>
+      <c r="AO87"/>
+      <c r="AP87"/>
+      <c r="AQ87"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -9347,6 +10146,11 @@
       <c r="AJ88"/>
       <c r="AK88"/>
       <c r="AL88"/>
+      <c r="AM88"/>
+      <c r="AN88"/>
+      <c r="AO88"/>
+      <c r="AP88"/>
+      <c r="AQ88"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -9395,6 +10199,11 @@
       <c r="AJ89"/>
       <c r="AK89"/>
       <c r="AL89"/>
+      <c r="AM89"/>
+      <c r="AN89"/>
+      <c r="AO89"/>
+      <c r="AP89"/>
+      <c r="AQ89"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -9447,6 +10256,11 @@
       <c r="AJ90"/>
       <c r="AK90"/>
       <c r="AL90"/>
+      <c r="AM90"/>
+      <c r="AN90"/>
+      <c r="AO90"/>
+      <c r="AP90"/>
+      <c r="AQ90"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -9461,9 +10275,7 @@
       <c r="D91" t="n">
         <v>1.0</v>
       </c>
-      <c r="E91" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
@@ -9480,9 +10292,7 @@
       <c r="S91"/>
       <c r="T91"/>
       <c r="U91"/>
-      <c r="V91" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="V91"/>
       <c r="W91"/>
       <c r="X91"/>
       <c r="Y91"/>
@@ -9499,6 +10309,11 @@
       <c r="AJ91"/>
       <c r="AK91"/>
       <c r="AL91"/>
+      <c r="AM91"/>
+      <c r="AN91"/>
+      <c r="AO91"/>
+      <c r="AP91"/>
+      <c r="AQ91"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -9549,6 +10364,11 @@
       <c r="AJ92"/>
       <c r="AK92"/>
       <c r="AL92"/>
+      <c r="AM92"/>
+      <c r="AN92"/>
+      <c r="AO92"/>
+      <c r="AP92"/>
+      <c r="AQ92"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -9605,6 +10425,11 @@
       <c r="AJ93"/>
       <c r="AK93"/>
       <c r="AL93"/>
+      <c r="AM93"/>
+      <c r="AN93"/>
+      <c r="AO93"/>
+      <c r="AP93"/>
+      <c r="AQ93"/>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -9657,6 +10482,11 @@
       <c r="AJ94"/>
       <c r="AK94"/>
       <c r="AL94"/>
+      <c r="AM94"/>
+      <c r="AN94"/>
+      <c r="AO94"/>
+      <c r="AP94"/>
+      <c r="AQ94"/>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -9707,6 +10537,11 @@
       <c r="AJ95"/>
       <c r="AK95"/>
       <c r="AL95"/>
+      <c r="AM95"/>
+      <c r="AN95"/>
+      <c r="AO95"/>
+      <c r="AP95"/>
+      <c r="AQ95"/>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -9759,6 +10594,11 @@
       <c r="AJ96"/>
       <c r="AK96"/>
       <c r="AL96"/>
+      <c r="AM96"/>
+      <c r="AN96"/>
+      <c r="AO96"/>
+      <c r="AP96"/>
+      <c r="AQ96"/>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -9773,9 +10613,7 @@
       <c r="D97" t="n">
         <v>1.0</v>
       </c>
-      <c r="E97" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E97"/>
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
@@ -9792,9 +10630,7 @@
       <c r="S97"/>
       <c r="T97"/>
       <c r="U97"/>
-      <c r="V97" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="V97"/>
       <c r="W97"/>
       <c r="X97"/>
       <c r="Y97"/>
@@ -9811,6 +10647,11 @@
       <c r="AJ97"/>
       <c r="AK97"/>
       <c r="AL97"/>
+      <c r="AM97"/>
+      <c r="AN97"/>
+      <c r="AO97"/>
+      <c r="AP97"/>
+      <c r="AQ97"/>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -9873,6 +10714,11 @@
       <c r="AJ98"/>
       <c r="AK98"/>
       <c r="AL98"/>
+      <c r="AM98"/>
+      <c r="AN98"/>
+      <c r="AO98"/>
+      <c r="AP98"/>
+      <c r="AQ98"/>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -9931,6 +10777,11 @@
       <c r="AJ99"/>
       <c r="AK99"/>
       <c r="AL99"/>
+      <c r="AM99"/>
+      <c r="AN99"/>
+      <c r="AO99"/>
+      <c r="AP99"/>
+      <c r="AQ99"/>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -9981,6 +10832,11 @@
       <c r="AJ100"/>
       <c r="AK100"/>
       <c r="AL100"/>
+      <c r="AM100"/>
+      <c r="AN100"/>
+      <c r="AO100"/>
+      <c r="AP100"/>
+      <c r="AQ100"/>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -10037,6 +10893,11 @@
       <c r="AJ101"/>
       <c r="AK101"/>
       <c r="AL101"/>
+      <c r="AM101"/>
+      <c r="AN101"/>
+      <c r="AO101"/>
+      <c r="AP101"/>
+      <c r="AQ101"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -10089,6 +10950,11 @@
       <c r="AJ102"/>
       <c r="AK102"/>
       <c r="AL102"/>
+      <c r="AM102"/>
+      <c r="AN102"/>
+      <c r="AO102"/>
+      <c r="AP102"/>
+      <c r="AQ102"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -10155,6 +11021,11 @@
       <c r="AJ103"/>
       <c r="AK103"/>
       <c r="AL103"/>
+      <c r="AM103"/>
+      <c r="AN103"/>
+      <c r="AO103"/>
+      <c r="AP103"/>
+      <c r="AQ103"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -10211,6 +11082,11 @@
       <c r="AJ104"/>
       <c r="AK104"/>
       <c r="AL104"/>
+      <c r="AM104"/>
+      <c r="AN104"/>
+      <c r="AO104"/>
+      <c r="AP104"/>
+      <c r="AQ104"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -10271,6 +11147,11 @@
       <c r="AJ105"/>
       <c r="AK105"/>
       <c r="AL105"/>
+      <c r="AM105"/>
+      <c r="AN105"/>
+      <c r="AO105"/>
+      <c r="AP105"/>
+      <c r="AQ105"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -10325,6 +11206,11 @@
       <c r="AJ106"/>
       <c r="AK106"/>
       <c r="AL106"/>
+      <c r="AM106"/>
+      <c r="AN106"/>
+      <c r="AO106"/>
+      <c r="AP106"/>
+      <c r="AQ106"/>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -10375,6 +11261,11 @@
       <c r="AJ107"/>
       <c r="AK107"/>
       <c r="AL107"/>
+      <c r="AM107"/>
+      <c r="AN107"/>
+      <c r="AO107"/>
+      <c r="AP107"/>
+      <c r="AQ107"/>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -10437,6 +11328,11 @@
       <c r="AJ108"/>
       <c r="AK108"/>
       <c r="AL108"/>
+      <c r="AM108"/>
+      <c r="AN108"/>
+      <c r="AO108"/>
+      <c r="AP108"/>
+      <c r="AQ108"/>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -10489,6 +11385,11 @@
       <c r="AJ109"/>
       <c r="AK109"/>
       <c r="AL109"/>
+      <c r="AM109"/>
+      <c r="AN109"/>
+      <c r="AO109"/>
+      <c r="AP109"/>
+      <c r="AQ109"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -10541,6 +11442,11 @@
       <c r="AJ110"/>
       <c r="AK110"/>
       <c r="AL110"/>
+      <c r="AM110"/>
+      <c r="AN110"/>
+      <c r="AO110"/>
+      <c r="AP110"/>
+      <c r="AQ110"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -10599,6 +11505,11 @@
       <c r="AJ111"/>
       <c r="AK111"/>
       <c r="AL111"/>
+      <c r="AM111"/>
+      <c r="AN111"/>
+      <c r="AO111"/>
+      <c r="AP111"/>
+      <c r="AQ111"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -10655,6 +11566,11 @@
       <c r="AJ112"/>
       <c r="AK112"/>
       <c r="AL112"/>
+      <c r="AM112"/>
+      <c r="AN112"/>
+      <c r="AO112"/>
+      <c r="AP112"/>
+      <c r="AQ112"/>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -10713,6 +11629,11 @@
       <c r="AJ113"/>
       <c r="AK113"/>
       <c r="AL113"/>
+      <c r="AM113"/>
+      <c r="AN113"/>
+      <c r="AO113"/>
+      <c r="AP113"/>
+      <c r="AQ113"/>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -10775,6 +11696,11 @@
       <c r="AJ114"/>
       <c r="AK114"/>
       <c r="AL114"/>
+      <c r="AM114"/>
+      <c r="AN114"/>
+      <c r="AO114"/>
+      <c r="AP114"/>
+      <c r="AQ114"/>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -10825,6 +11751,11 @@
       <c r="AJ115"/>
       <c r="AK115"/>
       <c r="AL115"/>
+      <c r="AM115"/>
+      <c r="AN115"/>
+      <c r="AO115"/>
+      <c r="AP115"/>
+      <c r="AQ115"/>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -10875,6 +11806,11 @@
       <c r="AJ116"/>
       <c r="AK116"/>
       <c r="AL116"/>
+      <c r="AM116"/>
+      <c r="AN116"/>
+      <c r="AO116"/>
+      <c r="AP116"/>
+      <c r="AQ116"/>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -10931,6 +11867,11 @@
       <c r="AJ117"/>
       <c r="AK117"/>
       <c r="AL117"/>
+      <c r="AM117"/>
+      <c r="AN117"/>
+      <c r="AO117"/>
+      <c r="AP117"/>
+      <c r="AQ117"/>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -10989,6 +11930,11 @@
       <c r="AJ118"/>
       <c r="AK118"/>
       <c r="AL118"/>
+      <c r="AM118"/>
+      <c r="AN118"/>
+      <c r="AO118"/>
+      <c r="AP118"/>
+      <c r="AQ118"/>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -11045,6 +11991,11 @@
       <c r="AJ119"/>
       <c r="AK119"/>
       <c r="AL119"/>
+      <c r="AM119"/>
+      <c r="AN119"/>
+      <c r="AO119"/>
+      <c r="AP119"/>
+      <c r="AQ119"/>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -11095,6 +12046,11 @@
       <c r="AJ120"/>
       <c r="AK120"/>
       <c r="AL120"/>
+      <c r="AM120"/>
+      <c r="AN120"/>
+      <c r="AO120"/>
+      <c r="AP120"/>
+      <c r="AQ120"/>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -11149,6 +12105,11 @@
       <c r="AJ121"/>
       <c r="AK121"/>
       <c r="AL121"/>
+      <c r="AM121"/>
+      <c r="AN121"/>
+      <c r="AO121"/>
+      <c r="AP121"/>
+      <c r="AQ121"/>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -11201,6 +12162,11 @@
       <c r="AJ122"/>
       <c r="AK122"/>
       <c r="AL122"/>
+      <c r="AM122"/>
+      <c r="AN122"/>
+      <c r="AO122"/>
+      <c r="AP122"/>
+      <c r="AQ122"/>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -11251,6 +12217,11 @@
       <c r="AJ123"/>
       <c r="AK123"/>
       <c r="AL123"/>
+      <c r="AM123"/>
+      <c r="AN123"/>
+      <c r="AO123"/>
+      <c r="AP123"/>
+      <c r="AQ123"/>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -11305,6 +12276,11 @@
       <c r="AJ124"/>
       <c r="AK124"/>
       <c r="AL124"/>
+      <c r="AM124"/>
+      <c r="AN124"/>
+      <c r="AO124"/>
+      <c r="AP124"/>
+      <c r="AQ124"/>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -11357,6 +12333,11 @@
       <c r="AJ125"/>
       <c r="AK125"/>
       <c r="AL125"/>
+      <c r="AM125"/>
+      <c r="AN125"/>
+      <c r="AO125"/>
+      <c r="AP125"/>
+      <c r="AQ125"/>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -11403,6 +12384,11 @@
       <c r="AJ126"/>
       <c r="AK126"/>
       <c r="AL126"/>
+      <c r="AM126"/>
+      <c r="AN126"/>
+      <c r="AO126"/>
+      <c r="AP126"/>
+      <c r="AQ126"/>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -11455,6 +12441,11 @@
       <c r="AJ127"/>
       <c r="AK127"/>
       <c r="AL127"/>
+      <c r="AM127"/>
+      <c r="AN127"/>
+      <c r="AO127"/>
+      <c r="AP127"/>
+      <c r="AQ127"/>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -11505,6 +12496,11 @@
       <c r="AJ128"/>
       <c r="AK128"/>
       <c r="AL128"/>
+      <c r="AM128"/>
+      <c r="AN128"/>
+      <c r="AO128"/>
+      <c r="AP128"/>
+      <c r="AQ128"/>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -11557,6 +12553,11 @@
       <c r="AJ129"/>
       <c r="AK129"/>
       <c r="AL129"/>
+      <c r="AM129"/>
+      <c r="AN129"/>
+      <c r="AO129"/>
+      <c r="AP129"/>
+      <c r="AQ129"/>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -11605,6 +12606,11 @@
       <c r="AJ130"/>
       <c r="AK130"/>
       <c r="AL130"/>
+      <c r="AM130"/>
+      <c r="AN130"/>
+      <c r="AO130"/>
+      <c r="AP130"/>
+      <c r="AQ130"/>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -11667,6 +12673,11 @@
       <c r="AJ131"/>
       <c r="AK131"/>
       <c r="AL131"/>
+      <c r="AM131"/>
+      <c r="AN131"/>
+      <c r="AO131"/>
+      <c r="AP131"/>
+      <c r="AQ131"/>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -11727,6 +12738,11 @@
       <c r="AJ132"/>
       <c r="AK132"/>
       <c r="AL132"/>
+      <c r="AM132"/>
+      <c r="AN132"/>
+      <c r="AO132"/>
+      <c r="AP132"/>
+      <c r="AQ132"/>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -11741,9 +12757,7 @@
       <c r="D133" t="n">
         <v>1.0</v>
       </c>
-      <c r="E133" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E133"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
@@ -11760,9 +12774,7 @@
       <c r="S133"/>
       <c r="T133"/>
       <c r="U133"/>
-      <c r="V133" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="V133"/>
       <c r="W133"/>
       <c r="X133"/>
       <c r="Y133"/>
@@ -11779,6 +12791,11 @@
       <c r="AJ133"/>
       <c r="AK133"/>
       <c r="AL133"/>
+      <c r="AM133"/>
+      <c r="AN133"/>
+      <c r="AO133"/>
+      <c r="AP133"/>
+      <c r="AQ133"/>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -11825,6 +12842,11 @@
       <c r="AJ134"/>
       <c r="AK134"/>
       <c r="AL134"/>
+      <c r="AM134"/>
+      <c r="AN134"/>
+      <c r="AO134"/>
+      <c r="AP134"/>
+      <c r="AQ134"/>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -11875,6 +12897,11 @@
       <c r="AJ135"/>
       <c r="AK135"/>
       <c r="AL135"/>
+      <c r="AM135"/>
+      <c r="AN135"/>
+      <c r="AO135"/>
+      <c r="AP135"/>
+      <c r="AQ135"/>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -11893,18 +12920,12 @@
         <v>6.0</v>
       </c>
       <c r="F136"/>
-      <c r="G136" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="G136"/>
       <c r="H136"/>
-      <c r="I136" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I136"/>
       <c r="J136"/>
       <c r="K136"/>
-      <c r="L136" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
       <c r="O136"/>
@@ -11923,9 +12944,7 @@
       <c r="Z136" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA136" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="AA136"/>
       <c r="AB136"/>
       <c r="AC136"/>
       <c r="AD136"/>
@@ -11937,6 +12956,11 @@
       <c r="AJ136"/>
       <c r="AK136"/>
       <c r="AL136"/>
+      <c r="AM136"/>
+      <c r="AN136"/>
+      <c r="AO136"/>
+      <c r="AP136"/>
+      <c r="AQ136"/>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -11991,6 +13015,11 @@
       <c r="AJ137"/>
       <c r="AK137"/>
       <c r="AL137"/>
+      <c r="AM137"/>
+      <c r="AN137"/>
+      <c r="AO137"/>
+      <c r="AP137"/>
+      <c r="AQ137"/>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -12051,6 +13080,11 @@
       <c r="AJ138"/>
       <c r="AK138"/>
       <c r="AL138"/>
+      <c r="AM138"/>
+      <c r="AN138"/>
+      <c r="AO138"/>
+      <c r="AP138"/>
+      <c r="AQ138"/>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -12103,6 +13137,11 @@
       <c r="AJ139"/>
       <c r="AK139"/>
       <c r="AL139"/>
+      <c r="AM139"/>
+      <c r="AN139"/>
+      <c r="AO139"/>
+      <c r="AP139"/>
+      <c r="AQ139"/>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -12153,6 +13192,11 @@
       <c r="AJ140"/>
       <c r="AK140"/>
       <c r="AL140"/>
+      <c r="AM140"/>
+      <c r="AN140"/>
+      <c r="AO140"/>
+      <c r="AP140"/>
+      <c r="AQ140"/>
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -12203,6 +13247,11 @@
       <c r="AJ141"/>
       <c r="AK141"/>
       <c r="AL141"/>
+      <c r="AM141"/>
+      <c r="AN141"/>
+      <c r="AO141"/>
+      <c r="AP141"/>
+      <c r="AQ141"/>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -12263,6 +13312,11 @@
       <c r="AJ142"/>
       <c r="AK142"/>
       <c r="AL142"/>
+      <c r="AM142"/>
+      <c r="AN142"/>
+      <c r="AO142"/>
+      <c r="AP142"/>
+      <c r="AQ142"/>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -12321,6 +13375,11 @@
       <c r="AJ143"/>
       <c r="AK143"/>
       <c r="AL143"/>
+      <c r="AM143"/>
+      <c r="AN143"/>
+      <c r="AO143"/>
+      <c r="AP143"/>
+      <c r="AQ143"/>
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -12373,6 +13432,11 @@
       <c r="AJ144"/>
       <c r="AK144"/>
       <c r="AL144"/>
+      <c r="AM144"/>
+      <c r="AN144"/>
+      <c r="AO144"/>
+      <c r="AP144"/>
+      <c r="AQ144"/>
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -12427,6 +13491,11 @@
       <c r="AJ145"/>
       <c r="AK145"/>
       <c r="AL145"/>
+      <c r="AM145"/>
+      <c r="AN145"/>
+      <c r="AO145"/>
+      <c r="AP145"/>
+      <c r="AQ145"/>
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -12479,6 +13548,11 @@
       <c r="AJ146"/>
       <c r="AK146"/>
       <c r="AL146"/>
+      <c r="AM146"/>
+      <c r="AN146"/>
+      <c r="AO146"/>
+      <c r="AP146"/>
+      <c r="AQ146"/>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -12527,6 +13601,11 @@
       <c r="AJ147"/>
       <c r="AK147"/>
       <c r="AL147"/>
+      <c r="AM147"/>
+      <c r="AN147"/>
+      <c r="AO147"/>
+      <c r="AP147"/>
+      <c r="AQ147"/>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -12587,6 +13666,11 @@
       <c r="AJ148"/>
       <c r="AK148"/>
       <c r="AL148"/>
+      <c r="AM148"/>
+      <c r="AN148"/>
+      <c r="AO148"/>
+      <c r="AP148"/>
+      <c r="AQ148"/>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -12605,20 +13689,12 @@
         <v>6.0</v>
       </c>
       <c r="F149"/>
-      <c r="G149" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="G149"/>
       <c r="H149"/>
-      <c r="I149" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="I149"/>
       <c r="J149"/>
-      <c r="K149" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="K149"/>
+      <c r="L149"/>
       <c r="M149"/>
       <c r="N149"/>
       <c r="O149"/>
@@ -12637,9 +13713,7 @@
       <c r="Z149" t="n">
         <v>1.0</v>
       </c>
-      <c r="AA149" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="AA149"/>
       <c r="AB149"/>
       <c r="AC149"/>
       <c r="AD149"/>
@@ -12651,6 +13725,11 @@
       <c r="AJ149"/>
       <c r="AK149"/>
       <c r="AL149"/>
+      <c r="AM149"/>
+      <c r="AN149"/>
+      <c r="AO149"/>
+      <c r="AP149"/>
+      <c r="AQ149"/>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -12703,6 +13782,11 @@
       <c r="AJ150"/>
       <c r="AK150"/>
       <c r="AL150"/>
+      <c r="AM150"/>
+      <c r="AN150"/>
+      <c r="AO150"/>
+      <c r="AP150"/>
+      <c r="AQ150"/>
     </row>
     <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -12753,6 +13837,11 @@
       <c r="AJ151"/>
       <c r="AK151"/>
       <c r="AL151"/>
+      <c r="AM151"/>
+      <c r="AN151"/>
+      <c r="AO151"/>
+      <c r="AP151"/>
+      <c r="AQ151"/>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -12796,15 +13885,18 @@
       <c r="AE152"/>
       <c r="AF152"/>
       <c r="AG152"/>
-      <c r="AH152" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH152"/>
       <c r="AI152" t="n">
         <v>1.0</v>
       </c>
       <c r="AJ152"/>
       <c r="AK152"/>
       <c r="AL152"/>
+      <c r="AM152"/>
+      <c r="AN152"/>
+      <c r="AO152"/>
+      <c r="AP152"/>
+      <c r="AQ152"/>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -12851,6 +13943,11 @@
       <c r="AJ153"/>
       <c r="AK153"/>
       <c r="AL153"/>
+      <c r="AM153"/>
+      <c r="AN153"/>
+      <c r="AO153"/>
+      <c r="AP153"/>
+      <c r="AQ153"/>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -12897,6 +13994,11 @@
       <c r="AJ154"/>
       <c r="AK154"/>
       <c r="AL154"/>
+      <c r="AM154"/>
+      <c r="AN154"/>
+      <c r="AO154"/>
+      <c r="AP154"/>
+      <c r="AQ154"/>
     </row>
     <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -12943,6 +14045,11 @@
       <c r="AJ155"/>
       <c r="AK155"/>
       <c r="AL155"/>
+      <c r="AM155"/>
+      <c r="AN155"/>
+      <c r="AO155"/>
+      <c r="AP155"/>
+      <c r="AQ155"/>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -12989,6 +14096,11 @@
       <c r="AJ156"/>
       <c r="AK156"/>
       <c r="AL156"/>
+      <c r="AM156"/>
+      <c r="AN156"/>
+      <c r="AO156"/>
+      <c r="AP156"/>
+      <c r="AQ156"/>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -13035,6 +14147,11 @@
       <c r="AJ157"/>
       <c r="AK157"/>
       <c r="AL157"/>
+      <c r="AM157"/>
+      <c r="AN157"/>
+      <c r="AO157"/>
+      <c r="AP157"/>
+      <c r="AQ157"/>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -13081,6 +14198,11 @@
       <c r="AJ158"/>
       <c r="AK158"/>
       <c r="AL158"/>
+      <c r="AM158"/>
+      <c r="AN158"/>
+      <c r="AO158"/>
+      <c r="AP158"/>
+      <c r="AQ158"/>
     </row>
     <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -13127,6 +14249,11 @@
       <c r="AJ159"/>
       <c r="AK159"/>
       <c r="AL159"/>
+      <c r="AM159"/>
+      <c r="AN159"/>
+      <c r="AO159"/>
+      <c r="AP159"/>
+      <c r="AQ159"/>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -13173,6 +14300,11 @@
       <c r="AJ160"/>
       <c r="AK160"/>
       <c r="AL160"/>
+      <c r="AM160"/>
+      <c r="AN160"/>
+      <c r="AO160"/>
+      <c r="AP160"/>
+      <c r="AQ160"/>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -13225,6 +14357,11 @@
       <c r="AJ161"/>
       <c r="AK161"/>
       <c r="AL161"/>
+      <c r="AM161"/>
+      <c r="AN161"/>
+      <c r="AO161"/>
+      <c r="AP161"/>
+      <c r="AQ161"/>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -13277,6 +14414,11 @@
       <c r="AJ162"/>
       <c r="AK162"/>
       <c r="AL162"/>
+      <c r="AM162"/>
+      <c r="AN162"/>
+      <c r="AO162"/>
+      <c r="AP162"/>
+      <c r="AQ162"/>
     </row>
     <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -13323,6 +14465,11 @@
       <c r="AJ163"/>
       <c r="AK163"/>
       <c r="AL163"/>
+      <c r="AM163"/>
+      <c r="AN163"/>
+      <c r="AO163"/>
+      <c r="AP163"/>
+      <c r="AQ163"/>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -13369,6 +14516,11 @@
       <c r="AJ164"/>
       <c r="AK164"/>
       <c r="AL164"/>
+      <c r="AM164"/>
+      <c r="AN164"/>
+      <c r="AO164"/>
+      <c r="AP164"/>
+      <c r="AQ164"/>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -13415,6 +14567,11 @@
       <c r="AJ165"/>
       <c r="AK165"/>
       <c r="AL165"/>
+      <c r="AM165"/>
+      <c r="AN165"/>
+      <c r="AO165"/>
+      <c r="AP165"/>
+      <c r="AQ165"/>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -13461,6 +14618,11 @@
       <c r="AJ166"/>
       <c r="AK166"/>
       <c r="AL166"/>
+      <c r="AM166"/>
+      <c r="AN166"/>
+      <c r="AO166"/>
+      <c r="AP166"/>
+      <c r="AQ166"/>
     </row>
     <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -13507,6 +14669,11 @@
       <c r="AJ167"/>
       <c r="AK167"/>
       <c r="AL167"/>
+      <c r="AM167"/>
+      <c r="AN167"/>
+      <c r="AO167"/>
+      <c r="AP167"/>
+      <c r="AQ167"/>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -13553,6 +14720,11 @@
       <c r="AJ168"/>
       <c r="AK168"/>
       <c r="AL168"/>
+      <c r="AM168"/>
+      <c r="AN168"/>
+      <c r="AO168"/>
+      <c r="AP168"/>
+      <c r="AQ168"/>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -13599,6 +14771,11 @@
       <c r="AJ169"/>
       <c r="AK169"/>
       <c r="AL169"/>
+      <c r="AM169"/>
+      <c r="AN169"/>
+      <c r="AO169"/>
+      <c r="AP169"/>
+      <c r="AQ169"/>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -13651,6 +14828,11 @@
       <c r="AJ170"/>
       <c r="AK170"/>
       <c r="AL170"/>
+      <c r="AM170"/>
+      <c r="AN170"/>
+      <c r="AO170"/>
+      <c r="AP170"/>
+      <c r="AQ170"/>
     </row>
     <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -13697,6 +14879,11 @@
       <c r="AJ171"/>
       <c r="AK171"/>
       <c r="AL171"/>
+      <c r="AM171"/>
+      <c r="AN171"/>
+      <c r="AO171"/>
+      <c r="AP171"/>
+      <c r="AQ171"/>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -13749,6 +14936,11 @@
       <c r="AJ172"/>
       <c r="AK172"/>
       <c r="AL172"/>
+      <c r="AM172"/>
+      <c r="AN172"/>
+      <c r="AO172"/>
+      <c r="AP172"/>
+      <c r="AQ172"/>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -13801,6 +14993,11 @@
       <c r="AJ173"/>
       <c r="AK173"/>
       <c r="AL173"/>
+      <c r="AM173"/>
+      <c r="AN173"/>
+      <c r="AO173"/>
+      <c r="AP173"/>
+      <c r="AQ173"/>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -13844,15 +15041,16 @@
       <c r="AE174"/>
       <c r="AF174"/>
       <c r="AG174"/>
-      <c r="AH174" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH174"/>
+      <c r="AI174"/>
       <c r="AJ174"/>
       <c r="AK174"/>
       <c r="AL174"/>
+      <c r="AM174"/>
+      <c r="AN174"/>
+      <c r="AO174"/>
+      <c r="AP174"/>
+      <c r="AQ174"/>
     </row>
     <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -13899,6 +15097,11 @@
       <c r="AJ175"/>
       <c r="AK175"/>
       <c r="AL175"/>
+      <c r="AM175"/>
+      <c r="AN175"/>
+      <c r="AO175"/>
+      <c r="AP175"/>
+      <c r="AQ175"/>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -13945,6 +15148,11 @@
       <c r="AJ176"/>
       <c r="AK176"/>
       <c r="AL176"/>
+      <c r="AM176"/>
+      <c r="AN176"/>
+      <c r="AO176"/>
+      <c r="AP176"/>
+      <c r="AQ176"/>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -13988,15 +15196,18 @@
       <c r="AE177"/>
       <c r="AF177"/>
       <c r="AG177"/>
-      <c r="AH177" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH177"/>
       <c r="AI177" t="n">
         <v>1.0</v>
       </c>
       <c r="AJ177"/>
       <c r="AK177"/>
       <c r="AL177"/>
+      <c r="AM177"/>
+      <c r="AN177"/>
+      <c r="AO177"/>
+      <c r="AP177"/>
+      <c r="AQ177"/>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -14043,6 +15254,11 @@
       <c r="AJ178"/>
       <c r="AK178"/>
       <c r="AL178"/>
+      <c r="AM178"/>
+      <c r="AN178"/>
+      <c r="AO178"/>
+      <c r="AP178"/>
+      <c r="AQ178"/>
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -14089,6 +15305,11 @@
       <c r="AJ179"/>
       <c r="AK179"/>
       <c r="AL179"/>
+      <c r="AM179"/>
+      <c r="AN179"/>
+      <c r="AO179"/>
+      <c r="AP179"/>
+      <c r="AQ179"/>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -14135,6 +15356,11 @@
       <c r="AJ180"/>
       <c r="AK180"/>
       <c r="AL180"/>
+      <c r="AM180"/>
+      <c r="AN180"/>
+      <c r="AO180"/>
+      <c r="AP180"/>
+      <c r="AQ180"/>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -14181,6 +15407,11 @@
       <c r="AJ181"/>
       <c r="AK181"/>
       <c r="AL181"/>
+      <c r="AM181"/>
+      <c r="AN181"/>
+      <c r="AO181"/>
+      <c r="AP181"/>
+      <c r="AQ181"/>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -14227,6 +15458,11 @@
       <c r="AJ182"/>
       <c r="AK182"/>
       <c r="AL182"/>
+      <c r="AM182"/>
+      <c r="AN182"/>
+      <c r="AO182"/>
+      <c r="AP182"/>
+      <c r="AQ182"/>
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -14273,6 +15509,11 @@
       <c r="AJ183"/>
       <c r="AK183"/>
       <c r="AL183"/>
+      <c r="AM183"/>
+      <c r="AN183"/>
+      <c r="AO183"/>
+      <c r="AP183"/>
+      <c r="AQ183"/>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -14319,6 +15560,11 @@
       <c r="AJ184"/>
       <c r="AK184"/>
       <c r="AL184"/>
+      <c r="AM184"/>
+      <c r="AN184"/>
+      <c r="AO184"/>
+      <c r="AP184"/>
+      <c r="AQ184"/>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -14365,6 +15611,11 @@
       <c r="AJ185"/>
       <c r="AK185"/>
       <c r="AL185"/>
+      <c r="AM185"/>
+      <c r="AN185"/>
+      <c r="AO185"/>
+      <c r="AP185"/>
+      <c r="AQ185"/>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -14415,6 +15666,11 @@
       <c r="AJ186"/>
       <c r="AK186"/>
       <c r="AL186"/>
+      <c r="AM186"/>
+      <c r="AN186"/>
+      <c r="AO186"/>
+      <c r="AP186"/>
+      <c r="AQ186"/>
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -14461,6 +15717,11 @@
       <c r="AJ187"/>
       <c r="AK187"/>
       <c r="AL187"/>
+      <c r="AM187"/>
+      <c r="AN187"/>
+      <c r="AO187"/>
+      <c r="AP187"/>
+      <c r="AQ187"/>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -14507,6 +15768,11 @@
       <c r="AJ188"/>
       <c r="AK188"/>
       <c r="AL188"/>
+      <c r="AM188"/>
+      <c r="AN188"/>
+      <c r="AO188"/>
+      <c r="AP188"/>
+      <c r="AQ188"/>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -14553,6 +15819,11 @@
       <c r="AJ189"/>
       <c r="AK189"/>
       <c r="AL189"/>
+      <c r="AM189"/>
+      <c r="AN189"/>
+      <c r="AO189"/>
+      <c r="AP189"/>
+      <c r="AQ189"/>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -14605,6 +15876,11 @@
       <c r="AJ190"/>
       <c r="AK190"/>
       <c r="AL190"/>
+      <c r="AM190"/>
+      <c r="AN190"/>
+      <c r="AO190"/>
+      <c r="AP190"/>
+      <c r="AQ190"/>
     </row>
     <row r="191" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -14648,15 +15924,16 @@
       <c r="AE191"/>
       <c r="AF191"/>
       <c r="AG191"/>
-      <c r="AH191" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI191" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH191"/>
+      <c r="AI191"/>
       <c r="AJ191"/>
       <c r="AK191"/>
       <c r="AL191"/>
+      <c r="AM191"/>
+      <c r="AN191"/>
+      <c r="AO191"/>
+      <c r="AP191"/>
+      <c r="AQ191"/>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -14703,6 +15980,11 @@
       <c r="AJ192"/>
       <c r="AK192"/>
       <c r="AL192"/>
+      <c r="AM192"/>
+      <c r="AN192"/>
+      <c r="AO192"/>
+      <c r="AP192"/>
+      <c r="AQ192"/>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -14749,6 +16031,11 @@
       <c r="AJ193"/>
       <c r="AK193"/>
       <c r="AL193"/>
+      <c r="AM193"/>
+      <c r="AN193"/>
+      <c r="AO193"/>
+      <c r="AP193"/>
+      <c r="AQ193"/>
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -14795,6 +16082,11 @@
       <c r="AJ194"/>
       <c r="AK194"/>
       <c r="AL194"/>
+      <c r="AM194"/>
+      <c r="AN194"/>
+      <c r="AO194"/>
+      <c r="AP194"/>
+      <c r="AQ194"/>
     </row>
     <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -14841,6 +16133,11 @@
       <c r="AJ195"/>
       <c r="AK195"/>
       <c r="AL195"/>
+      <c r="AM195"/>
+      <c r="AN195"/>
+      <c r="AO195"/>
+      <c r="AP195"/>
+      <c r="AQ195"/>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -14893,6 +16190,11 @@
       <c r="AJ196"/>
       <c r="AK196"/>
       <c r="AL196"/>
+      <c r="AM196"/>
+      <c r="AN196"/>
+      <c r="AO196"/>
+      <c r="AP196"/>
+      <c r="AQ196"/>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -14936,15 +16238,18 @@
       <c r="AE197"/>
       <c r="AF197"/>
       <c r="AG197"/>
-      <c r="AH197" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH197"/>
       <c r="AI197" t="n">
         <v>1.0</v>
       </c>
       <c r="AJ197"/>
       <c r="AK197"/>
       <c r="AL197"/>
+      <c r="AM197"/>
+      <c r="AN197"/>
+      <c r="AO197"/>
+      <c r="AP197"/>
+      <c r="AQ197"/>
     </row>
     <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -14991,6 +16296,11 @@
       <c r="AJ198"/>
       <c r="AK198"/>
       <c r="AL198"/>
+      <c r="AM198"/>
+      <c r="AN198"/>
+      <c r="AO198"/>
+      <c r="AP198"/>
+      <c r="AQ198"/>
     </row>
     <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -15037,6 +16347,11 @@
       <c r="AJ199"/>
       <c r="AK199"/>
       <c r="AL199"/>
+      <c r="AM199"/>
+      <c r="AN199"/>
+      <c r="AO199"/>
+      <c r="AP199"/>
+      <c r="AQ199"/>
     </row>
     <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -15083,6 +16398,11 @@
       <c r="AJ200"/>
       <c r="AK200"/>
       <c r="AL200"/>
+      <c r="AM200"/>
+      <c r="AN200"/>
+      <c r="AO200"/>
+      <c r="AP200"/>
+      <c r="AQ200"/>
     </row>
     <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -15129,6 +16449,11 @@
       <c r="AJ201"/>
       <c r="AK201"/>
       <c r="AL201"/>
+      <c r="AM201"/>
+      <c r="AN201"/>
+      <c r="AO201"/>
+      <c r="AP201"/>
+      <c r="AQ201"/>
     </row>
     <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -15175,6 +16500,11 @@
       <c r="AJ202"/>
       <c r="AK202"/>
       <c r="AL202"/>
+      <c r="AM202"/>
+      <c r="AN202"/>
+      <c r="AO202"/>
+      <c r="AP202"/>
+      <c r="AQ202"/>
     </row>
     <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -15221,6 +16551,11 @@
       <c r="AJ203"/>
       <c r="AK203"/>
       <c r="AL203"/>
+      <c r="AM203"/>
+      <c r="AN203"/>
+      <c r="AO203"/>
+      <c r="AP203"/>
+      <c r="AQ203"/>
     </row>
     <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -15267,6 +16602,11 @@
       <c r="AJ204"/>
       <c r="AK204"/>
       <c r="AL204"/>
+      <c r="AM204"/>
+      <c r="AN204"/>
+      <c r="AO204"/>
+      <c r="AP204"/>
+      <c r="AQ204"/>
     </row>
     <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -15313,6 +16653,11 @@
       <c r="AJ205"/>
       <c r="AK205"/>
       <c r="AL205"/>
+      <c r="AM205"/>
+      <c r="AN205"/>
+      <c r="AO205"/>
+      <c r="AP205"/>
+      <c r="AQ205"/>
     </row>
     <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -15359,6 +16704,11 @@
       <c r="AJ206"/>
       <c r="AK206"/>
       <c r="AL206"/>
+      <c r="AM206"/>
+      <c r="AN206"/>
+      <c r="AO206"/>
+      <c r="AP206"/>
+      <c r="AQ206"/>
     </row>
     <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -15405,6 +16755,11 @@
       <c r="AJ207"/>
       <c r="AK207"/>
       <c r="AL207"/>
+      <c r="AM207"/>
+      <c r="AN207"/>
+      <c r="AO207"/>
+      <c r="AP207"/>
+      <c r="AQ207"/>
     </row>
     <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -15451,6 +16806,11 @@
       <c r="AJ208"/>
       <c r="AK208"/>
       <c r="AL208"/>
+      <c r="AM208"/>
+      <c r="AN208"/>
+      <c r="AO208"/>
+      <c r="AP208"/>
+      <c r="AQ208"/>
     </row>
     <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -15494,15 +16854,16 @@
       <c r="AE209"/>
       <c r="AF209"/>
       <c r="AG209"/>
-      <c r="AH209" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI209" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH209"/>
+      <c r="AI209"/>
       <c r="AJ209"/>
       <c r="AK209"/>
       <c r="AL209"/>
+      <c r="AM209"/>
+      <c r="AN209"/>
+      <c r="AO209"/>
+      <c r="AP209"/>
+      <c r="AQ209"/>
     </row>
     <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
@@ -15553,6 +16914,11 @@
       <c r="AJ210"/>
       <c r="AK210"/>
       <c r="AL210"/>
+      <c r="AM210"/>
+      <c r="AN210"/>
+      <c r="AO210"/>
+      <c r="AP210"/>
+      <c r="AQ210"/>
     </row>
     <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
@@ -15599,6 +16965,11 @@
       <c r="AJ211"/>
       <c r="AK211"/>
       <c r="AL211"/>
+      <c r="AM211"/>
+      <c r="AN211"/>
+      <c r="AO211"/>
+      <c r="AP211"/>
+      <c r="AQ211"/>
     </row>
     <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
@@ -15645,6 +17016,11 @@
       <c r="AJ212"/>
       <c r="AK212"/>
       <c r="AL212"/>
+      <c r="AM212"/>
+      <c r="AN212"/>
+      <c r="AO212"/>
+      <c r="AP212"/>
+      <c r="AQ212"/>
     </row>
     <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -15697,6 +17073,11 @@
       <c r="AJ213"/>
       <c r="AK213"/>
       <c r="AL213"/>
+      <c r="AM213"/>
+      <c r="AN213"/>
+      <c r="AO213"/>
+      <c r="AP213"/>
+      <c r="AQ213"/>
     </row>
     <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -15740,15 +17121,16 @@
       <c r="AE214"/>
       <c r="AF214"/>
       <c r="AG214"/>
-      <c r="AH214" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI214" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH214"/>
+      <c r="AI214"/>
       <c r="AJ214"/>
       <c r="AK214"/>
       <c r="AL214"/>
+      <c r="AM214"/>
+      <c r="AN214"/>
+      <c r="AO214"/>
+      <c r="AP214"/>
+      <c r="AQ214"/>
     </row>
     <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -15795,6 +17177,11 @@
       <c r="AJ215"/>
       <c r="AK215"/>
       <c r="AL215"/>
+      <c r="AM215"/>
+      <c r="AN215"/>
+      <c r="AO215"/>
+      <c r="AP215"/>
+      <c r="AQ215"/>
     </row>
     <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -15841,6 +17228,11 @@
       <c r="AJ216"/>
       <c r="AK216"/>
       <c r="AL216"/>
+      <c r="AM216"/>
+      <c r="AN216"/>
+      <c r="AO216"/>
+      <c r="AP216"/>
+      <c r="AQ216"/>
     </row>
     <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
@@ -15884,15 +17276,16 @@
       <c r="AE217"/>
       <c r="AF217"/>
       <c r="AG217"/>
-      <c r="AH217" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI217" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH217"/>
+      <c r="AI217"/>
       <c r="AJ217"/>
       <c r="AK217"/>
       <c r="AL217"/>
+      <c r="AM217"/>
+      <c r="AN217"/>
+      <c r="AO217"/>
+      <c r="AP217"/>
+      <c r="AQ217"/>
     </row>
     <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -15939,6 +17332,11 @@
       <c r="AJ218"/>
       <c r="AK218"/>
       <c r="AL218"/>
+      <c r="AM218"/>
+      <c r="AN218"/>
+      <c r="AO218"/>
+      <c r="AP218"/>
+      <c r="AQ218"/>
     </row>
     <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
@@ -15985,6 +17383,11 @@
       <c r="AJ219"/>
       <c r="AK219"/>
       <c r="AL219"/>
+      <c r="AM219"/>
+      <c r="AN219"/>
+      <c r="AO219"/>
+      <c r="AP219"/>
+      <c r="AQ219"/>
     </row>
     <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
@@ -16035,6 +17438,11 @@
       <c r="AJ220"/>
       <c r="AK220"/>
       <c r="AL220"/>
+      <c r="AM220"/>
+      <c r="AN220"/>
+      <c r="AO220"/>
+      <c r="AP220"/>
+      <c r="AQ220"/>
     </row>
     <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
@@ -16081,6 +17489,11 @@
       <c r="AJ221"/>
       <c r="AK221"/>
       <c r="AL221"/>
+      <c r="AM221"/>
+      <c r="AN221"/>
+      <c r="AO221"/>
+      <c r="AP221"/>
+      <c r="AQ221"/>
     </row>
     <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -16131,6 +17544,11 @@
       <c r="AJ222"/>
       <c r="AK222"/>
       <c r="AL222"/>
+      <c r="AM222"/>
+      <c r="AN222"/>
+      <c r="AO222"/>
+      <c r="AP222"/>
+      <c r="AQ222"/>
     </row>
     <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
@@ -16177,6 +17595,11 @@
       <c r="AJ223"/>
       <c r="AK223"/>
       <c r="AL223"/>
+      <c r="AM223"/>
+      <c r="AN223"/>
+      <c r="AO223"/>
+      <c r="AP223"/>
+      <c r="AQ223"/>
     </row>
     <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -16223,6 +17646,11 @@
       <c r="AJ224"/>
       <c r="AK224"/>
       <c r="AL224"/>
+      <c r="AM224"/>
+      <c r="AN224"/>
+      <c r="AO224"/>
+      <c r="AP224"/>
+      <c r="AQ224"/>
     </row>
     <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -16269,6 +17697,11 @@
       <c r="AJ225"/>
       <c r="AK225"/>
       <c r="AL225"/>
+      <c r="AM225"/>
+      <c r="AN225"/>
+      <c r="AO225"/>
+      <c r="AP225"/>
+      <c r="AQ225"/>
     </row>
     <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
@@ -16315,6 +17748,11 @@
       <c r="AJ226"/>
       <c r="AK226"/>
       <c r="AL226"/>
+      <c r="AM226"/>
+      <c r="AN226"/>
+      <c r="AO226"/>
+      <c r="AP226"/>
+      <c r="AQ226"/>
     </row>
     <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
@@ -16361,6 +17799,11 @@
       <c r="AJ227"/>
       <c r="AK227"/>
       <c r="AL227"/>
+      <c r="AM227"/>
+      <c r="AN227"/>
+      <c r="AO227"/>
+      <c r="AP227"/>
+      <c r="AQ227"/>
     </row>
     <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -16407,6 +17850,11 @@
       <c r="AJ228"/>
       <c r="AK228"/>
       <c r="AL228"/>
+      <c r="AM228"/>
+      <c r="AN228"/>
+      <c r="AO228"/>
+      <c r="AP228"/>
+      <c r="AQ228"/>
     </row>
     <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
@@ -16453,6 +17901,11 @@
       <c r="AJ229"/>
       <c r="AK229"/>
       <c r="AL229"/>
+      <c r="AM229"/>
+      <c r="AN229"/>
+      <c r="AO229"/>
+      <c r="AP229"/>
+      <c r="AQ229"/>
     </row>
     <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
@@ -16499,6 +17952,11 @@
       <c r="AJ230"/>
       <c r="AK230"/>
       <c r="AL230"/>
+      <c r="AM230"/>
+      <c r="AN230"/>
+      <c r="AO230"/>
+      <c r="AP230"/>
+      <c r="AQ230"/>
     </row>
     <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
@@ -16542,15 +18000,16 @@
       <c r="AE231"/>
       <c r="AF231"/>
       <c r="AG231"/>
-      <c r="AH231" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI231" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH231"/>
+      <c r="AI231"/>
       <c r="AJ231"/>
       <c r="AK231"/>
       <c r="AL231"/>
+      <c r="AM231"/>
+      <c r="AN231"/>
+      <c r="AO231"/>
+      <c r="AP231"/>
+      <c r="AQ231"/>
     </row>
     <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
@@ -16597,6 +18056,11 @@
       <c r="AJ232"/>
       <c r="AK232"/>
       <c r="AL232"/>
+      <c r="AM232"/>
+      <c r="AN232"/>
+      <c r="AO232"/>
+      <c r="AP232"/>
+      <c r="AQ232"/>
     </row>
     <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
@@ -16643,6 +18107,11 @@
       <c r="AJ233"/>
       <c r="AK233"/>
       <c r="AL233"/>
+      <c r="AM233"/>
+      <c r="AN233"/>
+      <c r="AO233"/>
+      <c r="AP233"/>
+      <c r="AQ233"/>
     </row>
     <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
@@ -16693,6 +18162,11 @@
       <c r="AJ234"/>
       <c r="AK234"/>
       <c r="AL234"/>
+      <c r="AM234"/>
+      <c r="AN234"/>
+      <c r="AO234"/>
+      <c r="AP234"/>
+      <c r="AQ234"/>
     </row>
     <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
@@ -16745,6 +18219,11 @@
       <c r="AJ235"/>
       <c r="AK235"/>
       <c r="AL235"/>
+      <c r="AM235"/>
+      <c r="AN235"/>
+      <c r="AO235"/>
+      <c r="AP235"/>
+      <c r="AQ235"/>
     </row>
     <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
@@ -16791,6 +18270,11 @@
       <c r="AJ236"/>
       <c r="AK236"/>
       <c r="AL236"/>
+      <c r="AM236"/>
+      <c r="AN236"/>
+      <c r="AO236"/>
+      <c r="AP236"/>
+      <c r="AQ236"/>
     </row>
     <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
@@ -16837,6 +18321,11 @@
       <c r="AJ237"/>
       <c r="AK237"/>
       <c r="AL237"/>
+      <c r="AM237"/>
+      <c r="AN237"/>
+      <c r="AO237"/>
+      <c r="AP237"/>
+      <c r="AQ237"/>
     </row>
     <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
@@ -16889,6 +18378,11 @@
       <c r="AJ238"/>
       <c r="AK238"/>
       <c r="AL238"/>
+      <c r="AM238"/>
+      <c r="AN238"/>
+      <c r="AO238"/>
+      <c r="AP238"/>
+      <c r="AQ238"/>
     </row>
     <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
@@ -16935,6 +18429,11 @@
       <c r="AJ239"/>
       <c r="AK239"/>
       <c r="AL239"/>
+      <c r="AM239"/>
+      <c r="AN239"/>
+      <c r="AO239"/>
+      <c r="AP239"/>
+      <c r="AQ239"/>
     </row>
     <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
@@ -16981,6 +18480,11 @@
       <c r="AJ240"/>
       <c r="AK240"/>
       <c r="AL240"/>
+      <c r="AM240"/>
+      <c r="AN240"/>
+      <c r="AO240"/>
+      <c r="AP240"/>
+      <c r="AQ240"/>
     </row>
     <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
@@ -17027,6 +18531,11 @@
       <c r="AJ241"/>
       <c r="AK241"/>
       <c r="AL241"/>
+      <c r="AM241"/>
+      <c r="AN241"/>
+      <c r="AO241"/>
+      <c r="AP241"/>
+      <c r="AQ241"/>
     </row>
     <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -17073,6 +18582,11 @@
       <c r="AJ242"/>
       <c r="AK242"/>
       <c r="AL242"/>
+      <c r="AM242"/>
+      <c r="AN242"/>
+      <c r="AO242"/>
+      <c r="AP242"/>
+      <c r="AQ242"/>
     </row>
     <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
@@ -17125,6 +18639,11 @@
       <c r="AJ243"/>
       <c r="AK243"/>
       <c r="AL243"/>
+      <c r="AM243"/>
+      <c r="AN243"/>
+      <c r="AO243"/>
+      <c r="AP243"/>
+      <c r="AQ243"/>
     </row>
     <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
@@ -17171,6 +18690,11 @@
       <c r="AJ244"/>
       <c r="AK244"/>
       <c r="AL244"/>
+      <c r="AM244"/>
+      <c r="AN244"/>
+      <c r="AO244"/>
+      <c r="AP244"/>
+      <c r="AQ244"/>
     </row>
     <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
@@ -17217,6 +18741,11 @@
       <c r="AJ245"/>
       <c r="AK245"/>
       <c r="AL245"/>
+      <c r="AM245"/>
+      <c r="AN245"/>
+      <c r="AO245"/>
+      <c r="AP245"/>
+      <c r="AQ245"/>
     </row>
     <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
@@ -17263,6 +18792,11 @@
       <c r="AJ246"/>
       <c r="AK246"/>
       <c r="AL246"/>
+      <c r="AM246"/>
+      <c r="AN246"/>
+      <c r="AO246"/>
+      <c r="AP246"/>
+      <c r="AQ246"/>
     </row>
     <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
@@ -17315,6 +18849,11 @@
       <c r="AJ247"/>
       <c r="AK247"/>
       <c r="AL247"/>
+      <c r="AM247"/>
+      <c r="AN247"/>
+      <c r="AO247"/>
+      <c r="AP247"/>
+      <c r="AQ247"/>
     </row>
     <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
@@ -17361,6 +18900,11 @@
       <c r="AJ248"/>
       <c r="AK248"/>
       <c r="AL248"/>
+      <c r="AM248"/>
+      <c r="AN248"/>
+      <c r="AO248"/>
+      <c r="AP248"/>
+      <c r="AQ248"/>
     </row>
     <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
@@ -17407,6 +18951,11 @@
       <c r="AJ249"/>
       <c r="AK249"/>
       <c r="AL249"/>
+      <c r="AM249"/>
+      <c r="AN249"/>
+      <c r="AO249"/>
+      <c r="AP249"/>
+      <c r="AQ249"/>
     </row>
     <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
@@ -17453,6 +19002,11 @@
       <c r="AJ250"/>
       <c r="AK250"/>
       <c r="AL250"/>
+      <c r="AM250"/>
+      <c r="AN250"/>
+      <c r="AO250"/>
+      <c r="AP250"/>
+      <c r="AQ250"/>
     </row>
     <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
@@ -17499,6 +19053,11 @@
       <c r="AJ251"/>
       <c r="AK251"/>
       <c r="AL251"/>
+      <c r="AM251"/>
+      <c r="AN251"/>
+      <c r="AO251"/>
+      <c r="AP251"/>
+      <c r="AQ251"/>
     </row>
     <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
@@ -17542,15 +19101,16 @@
       <c r="AE252"/>
       <c r="AF252"/>
       <c r="AG252"/>
-      <c r="AH252" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI252" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH252"/>
+      <c r="AI252"/>
       <c r="AJ252"/>
       <c r="AK252"/>
       <c r="AL252"/>
+      <c r="AM252"/>
+      <c r="AN252"/>
+      <c r="AO252"/>
+      <c r="AP252"/>
+      <c r="AQ252"/>
     </row>
     <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
@@ -17597,6 +19157,11 @@
       <c r="AJ253"/>
       <c r="AK253"/>
       <c r="AL253"/>
+      <c r="AM253"/>
+      <c r="AN253"/>
+      <c r="AO253"/>
+      <c r="AP253"/>
+      <c r="AQ253"/>
     </row>
     <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
@@ -17643,6 +19208,11 @@
       <c r="AJ254"/>
       <c r="AK254"/>
       <c r="AL254"/>
+      <c r="AM254"/>
+      <c r="AN254"/>
+      <c r="AO254"/>
+      <c r="AP254"/>
+      <c r="AQ254"/>
     </row>
     <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -17695,6 +19265,11 @@
       <c r="AJ255"/>
       <c r="AK255"/>
       <c r="AL255"/>
+      <c r="AM255"/>
+      <c r="AN255"/>
+      <c r="AO255"/>
+      <c r="AP255"/>
+      <c r="AQ255"/>
     </row>
     <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
@@ -17741,6 +19316,11 @@
       <c r="AJ256"/>
       <c r="AK256"/>
       <c r="AL256"/>
+      <c r="AM256"/>
+      <c r="AN256"/>
+      <c r="AO256"/>
+      <c r="AP256"/>
+      <c r="AQ256"/>
     </row>
     <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
@@ -17787,6 +19367,11 @@
       <c r="AJ257"/>
       <c r="AK257"/>
       <c r="AL257"/>
+      <c r="AM257"/>
+      <c r="AN257"/>
+      <c r="AO257"/>
+      <c r="AP257"/>
+      <c r="AQ257"/>
     </row>
     <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -17831,12 +19416,15 @@
       <c r="AF258"/>
       <c r="AG258"/>
       <c r="AH258"/>
-      <c r="AI258" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AI258"/>
       <c r="AJ258"/>
       <c r="AK258"/>
       <c r="AL258"/>
+      <c r="AM258"/>
+      <c r="AN258"/>
+      <c r="AO258"/>
+      <c r="AP258"/>
+      <c r="AQ258"/>
     </row>
     <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -17883,6 +19471,11 @@
       <c r="AJ259"/>
       <c r="AK259"/>
       <c r="AL259"/>
+      <c r="AM259"/>
+      <c r="AN259"/>
+      <c r="AO259"/>
+      <c r="AP259"/>
+      <c r="AQ259"/>
     </row>
     <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -17929,6 +19522,11 @@
       <c r="AJ260"/>
       <c r="AK260"/>
       <c r="AL260"/>
+      <c r="AM260"/>
+      <c r="AN260"/>
+      <c r="AO260"/>
+      <c r="AP260"/>
+      <c r="AQ260"/>
     </row>
     <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
@@ -17975,6 +19573,11 @@
       <c r="AJ261"/>
       <c r="AK261"/>
       <c r="AL261"/>
+      <c r="AM261"/>
+      <c r="AN261"/>
+      <c r="AO261"/>
+      <c r="AP261"/>
+      <c r="AQ261"/>
     </row>
     <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
@@ -18021,6 +19624,11 @@
       <c r="AJ262"/>
       <c r="AK262"/>
       <c r="AL262"/>
+      <c r="AM262"/>
+      <c r="AN262"/>
+      <c r="AO262"/>
+      <c r="AP262"/>
+      <c r="AQ262"/>
     </row>
     <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
@@ -18071,6 +19679,11 @@
       <c r="AJ263"/>
       <c r="AK263"/>
       <c r="AL263"/>
+      <c r="AM263"/>
+      <c r="AN263"/>
+      <c r="AO263"/>
+      <c r="AP263"/>
+      <c r="AQ263"/>
     </row>
     <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -18117,6 +19730,11 @@
       <c r="AJ264"/>
       <c r="AK264"/>
       <c r="AL264"/>
+      <c r="AM264"/>
+      <c r="AN264"/>
+      <c r="AO264"/>
+      <c r="AP264"/>
+      <c r="AQ264"/>
     </row>
     <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
@@ -18163,6 +19781,11 @@
       <c r="AJ265"/>
       <c r="AK265"/>
       <c r="AL265"/>
+      <c r="AM265"/>
+      <c r="AN265"/>
+      <c r="AO265"/>
+      <c r="AP265"/>
+      <c r="AQ265"/>
     </row>
     <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
@@ -18206,15 +19829,16 @@
       <c r="AE266"/>
       <c r="AF266"/>
       <c r="AG266"/>
-      <c r="AH266" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AI266" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="AH266"/>
+      <c r="AI266"/>
       <c r="AJ266"/>
       <c r="AK266"/>
       <c r="AL266"/>
+      <c r="AM266"/>
+      <c r="AN266"/>
+      <c r="AO266"/>
+      <c r="AP266"/>
+      <c r="AQ266"/>
     </row>
     <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
@@ -18261,6 +19885,11 @@
       <c r="AJ267"/>
       <c r="AK267"/>
       <c r="AL267"/>
+      <c r="AM267"/>
+      <c r="AN267"/>
+      <c r="AO267"/>
+      <c r="AP267"/>
+      <c r="AQ267"/>
     </row>
     <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
@@ -18307,6 +19936,11 @@
       <c r="AJ268"/>
       <c r="AK268"/>
       <c r="AL268"/>
+      <c r="AM268"/>
+      <c r="AN268"/>
+      <c r="AO268"/>
+      <c r="AP268"/>
+      <c r="AQ268"/>
     </row>
     <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
@@ -18353,6 +19987,11 @@
       <c r="AJ269"/>
       <c r="AK269"/>
       <c r="AL269"/>
+      <c r="AM269"/>
+      <c r="AN269"/>
+      <c r="AO269"/>
+      <c r="AP269"/>
+      <c r="AQ269"/>
     </row>
     <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
@@ -18399,6 +20038,11 @@
       <c r="AJ270"/>
       <c r="AK270"/>
       <c r="AL270"/>
+      <c r="AM270"/>
+      <c r="AN270"/>
+      <c r="AO270"/>
+      <c r="AP270"/>
+      <c r="AQ270"/>
     </row>
     <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
@@ -18449,6 +20093,11 @@
       <c r="AJ271"/>
       <c r="AK271"/>
       <c r="AL271"/>
+      <c r="AM271"/>
+      <c r="AN271"/>
+      <c r="AO271"/>
+      <c r="AP271"/>
+      <c r="AQ271"/>
     </row>
     <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
@@ -18495,6 +20144,11 @@
       <c r="AJ272"/>
       <c r="AK272"/>
       <c r="AL272"/>
+      <c r="AM272"/>
+      <c r="AN272"/>
+      <c r="AO272"/>
+      <c r="AP272"/>
+      <c r="AQ272"/>
     </row>
     <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
@@ -18541,6 +20195,11 @@
       <c r="AJ273"/>
       <c r="AK273"/>
       <c r="AL273"/>
+      <c r="AM273"/>
+      <c r="AN273"/>
+      <c r="AO273"/>
+      <c r="AP273"/>
+      <c r="AQ273"/>
     </row>
     <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
@@ -18587,6 +20246,11 @@
       <c r="AJ274"/>
       <c r="AK274"/>
       <c r="AL274"/>
+      <c r="AM274"/>
+      <c r="AN274"/>
+      <c r="AO274"/>
+      <c r="AP274"/>
+      <c r="AQ274"/>
     </row>
     <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
@@ -18633,6 +20297,11 @@
       <c r="AJ275"/>
       <c r="AK275"/>
       <c r="AL275"/>
+      <c r="AM275"/>
+      <c r="AN275"/>
+      <c r="AO275"/>
+      <c r="AP275"/>
+      <c r="AQ275"/>
     </row>
     <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
@@ -18679,6 +20348,11 @@
       <c r="AJ276"/>
       <c r="AK276"/>
       <c r="AL276"/>
+      <c r="AM276"/>
+      <c r="AN276"/>
+      <c r="AO276"/>
+      <c r="AP276"/>
+      <c r="AQ276"/>
     </row>
     <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -18725,6 +20399,11 @@
       <c r="AJ277"/>
       <c r="AK277"/>
       <c r="AL277"/>
+      <c r="AM277"/>
+      <c r="AN277"/>
+      <c r="AO277"/>
+      <c r="AP277"/>
+      <c r="AQ277"/>
     </row>
     <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
@@ -18771,6 +20450,11 @@
       <c r="AJ278"/>
       <c r="AK278"/>
       <c r="AL278"/>
+      <c r="AM278"/>
+      <c r="AN278"/>
+      <c r="AO278"/>
+      <c r="AP278"/>
+      <c r="AQ278"/>
     </row>
     <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
@@ -18817,6 +20501,11 @@
       <c r="AJ279"/>
       <c r="AK279"/>
       <c r="AL279"/>
+      <c r="AM279"/>
+      <c r="AN279"/>
+      <c r="AO279"/>
+      <c r="AP279"/>
+      <c r="AQ279"/>
     </row>
     <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
@@ -18863,6 +20552,11 @@
       <c r="AJ280"/>
       <c r="AK280"/>
       <c r="AL280"/>
+      <c r="AM280"/>
+      <c r="AN280"/>
+      <c r="AO280"/>
+      <c r="AP280"/>
+      <c r="AQ280"/>
     </row>
     <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -18915,6 +20609,11 @@
       <c r="AJ281"/>
       <c r="AK281"/>
       <c r="AL281"/>
+      <c r="AM281"/>
+      <c r="AN281"/>
+      <c r="AO281"/>
+      <c r="AP281"/>
+      <c r="AQ281"/>
     </row>
     <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
@@ -18961,6 +20660,11 @@
       <c r="AJ282"/>
       <c r="AK282"/>
       <c r="AL282"/>
+      <c r="AM282"/>
+      <c r="AN282"/>
+      <c r="AO282"/>
+      <c r="AP282"/>
+      <c r="AQ282"/>
     </row>
     <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -19007,6 +20711,11 @@
       <c r="AJ283"/>
       <c r="AK283"/>
       <c r="AL283"/>
+      <c r="AM283"/>
+      <c r="AN283"/>
+      <c r="AO283"/>
+      <c r="AP283"/>
+      <c r="AQ283"/>
     </row>
     <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
@@ -19057,6 +20766,11 @@
       <c r="AJ284"/>
       <c r="AK284"/>
       <c r="AL284"/>
+      <c r="AM284"/>
+      <c r="AN284"/>
+      <c r="AO284"/>
+      <c r="AP284"/>
+      <c r="AQ284"/>
     </row>
     <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
@@ -19103,6 +20817,11 @@
       <c r="AJ285"/>
       <c r="AK285"/>
       <c r="AL285"/>
+      <c r="AM285"/>
+      <c r="AN285"/>
+      <c r="AO285"/>
+      <c r="AP285"/>
+      <c r="AQ285"/>
     </row>
     <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
@@ -19155,6 +20874,11 @@
       <c r="AJ286"/>
       <c r="AK286"/>
       <c r="AL286"/>
+      <c r="AM286"/>
+      <c r="AN286"/>
+      <c r="AO286"/>
+      <c r="AP286"/>
+      <c r="AQ286"/>
     </row>
     <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
@@ -19201,6 +20925,11 @@
       <c r="AJ287"/>
       <c r="AK287"/>
       <c r="AL287"/>
+      <c r="AM287"/>
+      <c r="AN287"/>
+      <c r="AO287"/>
+      <c r="AP287"/>
+      <c r="AQ287"/>
     </row>
     <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -19247,6 +20976,11 @@
       <c r="AJ288"/>
       <c r="AK288"/>
       <c r="AL288"/>
+      <c r="AM288"/>
+      <c r="AN288"/>
+      <c r="AO288"/>
+      <c r="AP288"/>
+      <c r="AQ288"/>
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
@@ -19293,6 +21027,11 @@
       <c r="AJ289"/>
       <c r="AK289"/>
       <c r="AL289"/>
+      <c r="AM289"/>
+      <c r="AN289"/>
+      <c r="AO289"/>
+      <c r="AP289"/>
+      <c r="AQ289"/>
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
@@ -19339,6 +21078,11 @@
       <c r="AJ290"/>
       <c r="AK290"/>
       <c r="AL290"/>
+      <c r="AM290"/>
+      <c r="AN290"/>
+      <c r="AO290"/>
+      <c r="AP290"/>
+      <c r="AQ290"/>
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
@@ -19385,6 +21129,11 @@
       <c r="AJ291"/>
       <c r="AK291"/>
       <c r="AL291"/>
+      <c r="AM291"/>
+      <c r="AN291"/>
+      <c r="AO291"/>
+      <c r="AP291"/>
+      <c r="AQ291"/>
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
@@ -19431,6 +21180,11 @@
       <c r="AJ292"/>
       <c r="AK292"/>
       <c r="AL292"/>
+      <c r="AM292"/>
+      <c r="AN292"/>
+      <c r="AO292"/>
+      <c r="AP292"/>
+      <c r="AQ292"/>
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
@@ -19477,6 +21231,11 @@
       <c r="AJ293"/>
       <c r="AK293"/>
       <c r="AL293"/>
+      <c r="AM293"/>
+      <c r="AN293"/>
+      <c r="AO293"/>
+      <c r="AP293"/>
+      <c r="AQ293"/>
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -19523,6 +21282,11 @@
       <c r="AJ294"/>
       <c r="AK294"/>
       <c r="AL294"/>
+      <c r="AM294"/>
+      <c r="AN294"/>
+      <c r="AO294"/>
+      <c r="AP294"/>
+      <c r="AQ294"/>
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
@@ -19569,6 +21333,11 @@
       <c r="AJ295"/>
       <c r="AK295"/>
       <c r="AL295"/>
+      <c r="AM295"/>
+      <c r="AN295"/>
+      <c r="AO295"/>
+      <c r="AP295"/>
+      <c r="AQ295"/>
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
@@ -19615,6 +21384,11 @@
       <c r="AJ296"/>
       <c r="AK296"/>
       <c r="AL296"/>
+      <c r="AM296"/>
+      <c r="AN296"/>
+      <c r="AO296"/>
+      <c r="AP296"/>
+      <c r="AQ296"/>
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
@@ -19661,6 +21435,11 @@
       <c r="AJ297"/>
       <c r="AK297"/>
       <c r="AL297"/>
+      <c r="AM297"/>
+      <c r="AN297"/>
+      <c r="AO297"/>
+      <c r="AP297"/>
+      <c r="AQ297"/>
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
@@ -19707,6 +21486,11 @@
       <c r="AJ298"/>
       <c r="AK298"/>
       <c r="AL298"/>
+      <c r="AM298"/>
+      <c r="AN298"/>
+      <c r="AO298"/>
+      <c r="AP298"/>
+      <c r="AQ298"/>
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
@@ -19753,6 +21537,11 @@
       <c r="AJ299"/>
       <c r="AK299"/>
       <c r="AL299"/>
+      <c r="AM299"/>
+      <c r="AN299"/>
+      <c r="AO299"/>
+      <c r="AP299"/>
+      <c r="AQ299"/>
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
@@ -19807,6 +21596,11 @@
       <c r="AJ300"/>
       <c r="AK300"/>
       <c r="AL300"/>
+      <c r="AM300"/>
+      <c r="AN300"/>
+      <c r="AO300"/>
+      <c r="AP300"/>
+      <c r="AQ300"/>
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
@@ -19861,6 +21655,11 @@
       <c r="AJ301"/>
       <c r="AK301"/>
       <c r="AL301"/>
+      <c r="AM301"/>
+      <c r="AN301"/>
+      <c r="AO301"/>
+      <c r="AP301"/>
+      <c r="AQ301"/>
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
@@ -19921,6 +21720,11 @@
       <c r="AJ302"/>
       <c r="AK302"/>
       <c r="AL302"/>
+      <c r="AM302"/>
+      <c r="AN302"/>
+      <c r="AO302"/>
+      <c r="AP302"/>
+      <c r="AQ302"/>
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
@@ -19971,6 +21775,11 @@
       <c r="AJ303"/>
       <c r="AK303"/>
       <c r="AL303"/>
+      <c r="AM303"/>
+      <c r="AN303"/>
+      <c r="AO303"/>
+      <c r="AP303"/>
+      <c r="AQ303"/>
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
@@ -19985,9 +21794,7 @@
       <c r="D304" t="n">
         <v>1.0</v>
       </c>
-      <c r="E304" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E304"/>
       <c r="F304"/>
       <c r="G304"/>
       <c r="H304"/>
@@ -20004,9 +21811,7 @@
       <c r="S304"/>
       <c r="T304"/>
       <c r="U304"/>
-      <c r="V304" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="V304"/>
       <c r="W304"/>
       <c r="X304"/>
       <c r="Y304"/>
@@ -20023,6 +21828,11 @@
       <c r="AJ304"/>
       <c r="AK304"/>
       <c r="AL304"/>
+      <c r="AM304"/>
+      <c r="AN304"/>
+      <c r="AO304"/>
+      <c r="AP304"/>
+      <c r="AQ304"/>
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
@@ -20077,6 +21887,11 @@
       <c r="AJ305"/>
       <c r="AK305"/>
       <c r="AL305"/>
+      <c r="AM305"/>
+      <c r="AN305"/>
+      <c r="AO305"/>
+      <c r="AP305"/>
+      <c r="AQ305"/>
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
@@ -20125,6 +21940,11 @@
       <c r="AJ306"/>
       <c r="AK306"/>
       <c r="AL306"/>
+      <c r="AM306"/>
+      <c r="AN306"/>
+      <c r="AO306"/>
+      <c r="AP306"/>
+      <c r="AQ306"/>
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
@@ -20175,6 +21995,11 @@
       <c r="AJ307"/>
       <c r="AK307"/>
       <c r="AL307"/>
+      <c r="AM307"/>
+      <c r="AN307"/>
+      <c r="AO307"/>
+      <c r="AP307"/>
+      <c r="AQ307"/>
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
@@ -20229,6 +22054,11 @@
       <c r="AJ308"/>
       <c r="AK308"/>
       <c r="AL308"/>
+      <c r="AM308"/>
+      <c r="AN308"/>
+      <c r="AO308"/>
+      <c r="AP308"/>
+      <c r="AQ308"/>
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
@@ -20285,6 +22115,11 @@
       <c r="AJ309"/>
       <c r="AK309"/>
       <c r="AL309"/>
+      <c r="AM309"/>
+      <c r="AN309"/>
+      <c r="AO309"/>
+      <c r="AP309"/>
+      <c r="AQ309"/>
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
@@ -20349,6 +22184,11 @@
       <c r="AJ310"/>
       <c r="AK310"/>
       <c r="AL310"/>
+      <c r="AM310"/>
+      <c r="AN310"/>
+      <c r="AO310"/>
+      <c r="AP310"/>
+      <c r="AQ310"/>
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
@@ -20403,6 +22243,11 @@
       <c r="AJ311"/>
       <c r="AK311"/>
       <c r="AL311"/>
+      <c r="AM311"/>
+      <c r="AN311"/>
+      <c r="AO311"/>
+      <c r="AP311"/>
+      <c r="AQ311"/>
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
@@ -20453,6 +22298,11 @@
       <c r="AJ312"/>
       <c r="AK312"/>
       <c r="AL312"/>
+      <c r="AM312"/>
+      <c r="AN312"/>
+      <c r="AO312"/>
+      <c r="AP312"/>
+      <c r="AQ312"/>
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
@@ -20507,6 +22357,11 @@
       <c r="AJ313"/>
       <c r="AK313"/>
       <c r="AL313"/>
+      <c r="AM313"/>
+      <c r="AN313"/>
+      <c r="AO313"/>
+      <c r="AP313"/>
+      <c r="AQ313"/>
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
@@ -20563,6 +22418,11 @@
       <c r="AJ314"/>
       <c r="AK314"/>
       <c r="AL314"/>
+      <c r="AM314"/>
+      <c r="AN314"/>
+      <c r="AO314"/>
+      <c r="AP314"/>
+      <c r="AQ314"/>
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
@@ -20611,6 +22471,11 @@
       <c r="AJ315"/>
       <c r="AK315"/>
       <c r="AL315"/>
+      <c r="AM315"/>
+      <c r="AN315"/>
+      <c r="AO315"/>
+      <c r="AP315"/>
+      <c r="AQ315"/>
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
@@ -20665,6 +22530,11 @@
       <c r="AJ316"/>
       <c r="AK316"/>
       <c r="AL316"/>
+      <c r="AM316"/>
+      <c r="AN316"/>
+      <c r="AO316"/>
+      <c r="AP316"/>
+      <c r="AQ316"/>
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
@@ -20713,6 +22583,11 @@
       <c r="AJ317"/>
       <c r="AK317"/>
       <c r="AL317"/>
+      <c r="AM317"/>
+      <c r="AN317"/>
+      <c r="AO317"/>
+      <c r="AP317"/>
+      <c r="AQ317"/>
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
@@ -20769,6 +22644,11 @@
       <c r="AJ318"/>
       <c r="AK318"/>
       <c r="AL318"/>
+      <c r="AM318"/>
+      <c r="AN318"/>
+      <c r="AO318"/>
+      <c r="AP318"/>
+      <c r="AQ318"/>
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
@@ -20827,6 +22707,11 @@
       <c r="AJ319"/>
       <c r="AK319"/>
       <c r="AL319"/>
+      <c r="AM319"/>
+      <c r="AN319"/>
+      <c r="AO319"/>
+      <c r="AP319"/>
+      <c r="AQ319"/>
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
@@ -20877,6 +22762,11 @@
       <c r="AJ320"/>
       <c r="AK320"/>
       <c r="AL320"/>
+      <c r="AM320"/>
+      <c r="AN320"/>
+      <c r="AO320"/>
+      <c r="AP320"/>
+      <c r="AQ320"/>
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
@@ -20937,6 +22827,11 @@
       <c r="AJ321"/>
       <c r="AK321"/>
       <c r="AL321"/>
+      <c r="AM321"/>
+      <c r="AN321"/>
+      <c r="AO321"/>
+      <c r="AP321"/>
+      <c r="AQ321"/>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
@@ -20983,6 +22878,11 @@
       <c r="AJ322"/>
       <c r="AK322"/>
       <c r="AL322"/>
+      <c r="AM322"/>
+      <c r="AN322"/>
+      <c r="AO322"/>
+      <c r="AP322"/>
+      <c r="AQ322"/>
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
@@ -21029,6 +22929,11 @@
       <c r="AJ323"/>
       <c r="AK323"/>
       <c r="AL323"/>
+      <c r="AM323"/>
+      <c r="AN323"/>
+      <c r="AO323"/>
+      <c r="AP323"/>
+      <c r="AQ323"/>
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
@@ -21091,6 +22996,11 @@
       <c r="AJ324"/>
       <c r="AK324"/>
       <c r="AL324"/>
+      <c r="AM324"/>
+      <c r="AN324"/>
+      <c r="AO324"/>
+      <c r="AP324"/>
+      <c r="AQ324"/>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
@@ -21147,6 +23057,11 @@
       <c r="AJ325"/>
       <c r="AK325"/>
       <c r="AL325"/>
+      <c r="AM325"/>
+      <c r="AN325"/>
+      <c r="AO325"/>
+      <c r="AP325"/>
+      <c r="AQ325"/>
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -21209,6 +23124,11 @@
       <c r="AJ326"/>
       <c r="AK326"/>
       <c r="AL326"/>
+      <c r="AM326"/>
+      <c r="AN326"/>
+      <c r="AO326"/>
+      <c r="AP326"/>
+      <c r="AQ326"/>
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
@@ -21255,6 +23175,11 @@
       <c r="AJ327"/>
       <c r="AK327"/>
       <c r="AL327"/>
+      <c r="AM327"/>
+      <c r="AN327"/>
+      <c r="AO327"/>
+      <c r="AP327"/>
+      <c r="AQ327"/>
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
@@ -21301,6 +23226,11 @@
       <c r="AJ328"/>
       <c r="AK328"/>
       <c r="AL328"/>
+      <c r="AM328"/>
+      <c r="AN328"/>
+      <c r="AO328"/>
+      <c r="AP328"/>
+      <c r="AQ328"/>
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
@@ -21365,6 +23295,11 @@
       <c r="AJ329"/>
       <c r="AK329"/>
       <c r="AL329"/>
+      <c r="AM329"/>
+      <c r="AN329"/>
+      <c r="AO329"/>
+      <c r="AP329"/>
+      <c r="AQ329"/>
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
@@ -21415,6 +23350,11 @@
       <c r="AJ330"/>
       <c r="AK330"/>
       <c r="AL330"/>
+      <c r="AM330"/>
+      <c r="AN330"/>
+      <c r="AO330"/>
+      <c r="AP330"/>
+      <c r="AQ330"/>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
@@ -21461,6 +23401,11 @@
       <c r="AJ331"/>
       <c r="AK331"/>
       <c r="AL331"/>
+      <c r="AM331"/>
+      <c r="AN331"/>
+      <c r="AO331"/>
+      <c r="AP331"/>
+      <c r="AQ331"/>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -21511,6 +23456,11 @@
       <c r="AJ332"/>
       <c r="AK332"/>
       <c r="AL332"/>
+      <c r="AM332"/>
+      <c r="AN332"/>
+      <c r="AO332"/>
+      <c r="AP332"/>
+      <c r="AQ332"/>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
@@ -21561,6 +23511,11 @@
       <c r="AJ333"/>
       <c r="AK333"/>
       <c r="AL333"/>
+      <c r="AM333"/>
+      <c r="AN333"/>
+      <c r="AO333"/>
+      <c r="AP333"/>
+      <c r="AQ333"/>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -21611,6 +23566,11 @@
       <c r="AJ334"/>
       <c r="AK334"/>
       <c r="AL334"/>
+      <c r="AM334"/>
+      <c r="AN334"/>
+      <c r="AO334"/>
+      <c r="AP334"/>
+      <c r="AQ334"/>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
@@ -21663,6 +23623,11 @@
       <c r="AJ335"/>
       <c r="AK335"/>
       <c r="AL335"/>
+      <c r="AM335"/>
+      <c r="AN335"/>
+      <c r="AO335"/>
+      <c r="AP335"/>
+      <c r="AQ335"/>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
@@ -21709,6 +23674,11 @@
       <c r="AJ336"/>
       <c r="AK336"/>
       <c r="AL336"/>
+      <c r="AM336"/>
+      <c r="AN336"/>
+      <c r="AO336"/>
+      <c r="AP336"/>
+      <c r="AQ336"/>
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
@@ -21755,6 +23725,11 @@
       <c r="AJ337"/>
       <c r="AK337"/>
       <c r="AL337"/>
+      <c r="AM337"/>
+      <c r="AN337"/>
+      <c r="AO337"/>
+      <c r="AP337"/>
+      <c r="AQ337"/>
     </row>
     <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
@@ -21805,6 +23780,11 @@
       <c r="AJ338"/>
       <c r="AK338"/>
       <c r="AL338"/>
+      <c r="AM338"/>
+      <c r="AN338"/>
+      <c r="AO338"/>
+      <c r="AP338"/>
+      <c r="AQ338"/>
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
@@ -21863,6 +23843,11 @@
       <c r="AJ339"/>
       <c r="AK339"/>
       <c r="AL339"/>
+      <c r="AM339"/>
+      <c r="AN339"/>
+      <c r="AO339"/>
+      <c r="AP339"/>
+      <c r="AQ339"/>
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
@@ -21909,6 +23894,11 @@
       <c r="AJ340"/>
       <c r="AK340"/>
       <c r="AL340"/>
+      <c r="AM340"/>
+      <c r="AN340"/>
+      <c r="AO340"/>
+      <c r="AP340"/>
+      <c r="AQ340"/>
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
@@ -21959,6 +23949,11 @@
       <c r="AJ341"/>
       <c r="AK341"/>
       <c r="AL341"/>
+      <c r="AM341"/>
+      <c r="AN341"/>
+      <c r="AO341"/>
+      <c r="AP341"/>
+      <c r="AQ341"/>
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
@@ -22005,6 +24000,11 @@
       <c r="AJ342"/>
       <c r="AK342"/>
       <c r="AL342"/>
+      <c r="AM342"/>
+      <c r="AN342"/>
+      <c r="AO342"/>
+      <c r="AP342"/>
+      <c r="AQ342"/>
     </row>
     <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
@@ -22051,6 +24051,11 @@
       <c r="AJ343"/>
       <c r="AK343"/>
       <c r="AL343"/>
+      <c r="AM343"/>
+      <c r="AN343"/>
+      <c r="AO343"/>
+      <c r="AP343"/>
+      <c r="AQ343"/>
     </row>
     <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
@@ -22097,6 +24102,11 @@
       <c r="AJ344"/>
       <c r="AK344"/>
       <c r="AL344"/>
+      <c r="AM344"/>
+      <c r="AN344"/>
+      <c r="AO344"/>
+      <c r="AP344"/>
+      <c r="AQ344"/>
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
@@ -22153,6 +24163,11 @@
       <c r="AJ345"/>
       <c r="AK345"/>
       <c r="AL345"/>
+      <c r="AM345"/>
+      <c r="AN345"/>
+      <c r="AO345"/>
+      <c r="AP345"/>
+      <c r="AQ345"/>
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
@@ -22199,6 +24214,11 @@
       <c r="AJ346"/>
       <c r="AK346"/>
       <c r="AL346"/>
+      <c r="AM346"/>
+      <c r="AN346"/>
+      <c r="AO346"/>
+      <c r="AP346"/>
+      <c r="AQ346"/>
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -22245,6 +24265,11 @@
       <c r="AJ347"/>
       <c r="AK347"/>
       <c r="AL347"/>
+      <c r="AM347"/>
+      <c r="AN347"/>
+      <c r="AO347"/>
+      <c r="AP347"/>
+      <c r="AQ347"/>
     </row>
     <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -22291,6 +24316,11 @@
       <c r="AJ348"/>
       <c r="AK348"/>
       <c r="AL348"/>
+      <c r="AM348"/>
+      <c r="AN348"/>
+      <c r="AO348"/>
+      <c r="AP348"/>
+      <c r="AQ348"/>
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -22343,6 +24373,11 @@
       <c r="AJ349"/>
       <c r="AK349"/>
       <c r="AL349"/>
+      <c r="AM349"/>
+      <c r="AN349"/>
+      <c r="AO349"/>
+      <c r="AP349"/>
+      <c r="AQ349"/>
     </row>
     <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
@@ -22389,6 +24424,11 @@
       <c r="AJ350"/>
       <c r="AK350"/>
       <c r="AL350"/>
+      <c r="AM350"/>
+      <c r="AN350"/>
+      <c r="AO350"/>
+      <c r="AP350"/>
+      <c r="AQ350"/>
     </row>
     <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
@@ -22443,6 +24483,11 @@
       <c r="AJ351"/>
       <c r="AK351"/>
       <c r="AL351"/>
+      <c r="AM351"/>
+      <c r="AN351"/>
+      <c r="AO351"/>
+      <c r="AP351"/>
+      <c r="AQ351"/>
     </row>
     <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
@@ -22493,6 +24538,11 @@
       <c r="AJ352"/>
       <c r="AK352"/>
       <c r="AL352"/>
+      <c r="AM352"/>
+      <c r="AN352"/>
+      <c r="AO352"/>
+      <c r="AP352"/>
+      <c r="AQ352"/>
     </row>
     <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
@@ -22553,6 +24603,11 @@
       <c r="AJ353"/>
       <c r="AK353"/>
       <c r="AL353"/>
+      <c r="AM353"/>
+      <c r="AN353"/>
+      <c r="AO353"/>
+      <c r="AP353"/>
+      <c r="AQ353"/>
     </row>
     <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
@@ -22583,7 +24638,7 @@
       <c r="P354"/>
       <c r="Q354"/>
       <c r="R354" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S354" t="n">
         <v>2.0</v>
@@ -22592,7 +24647,7 @@
         <v>2.0</v>
       </c>
       <c r="U354" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V354"/>
       <c r="W354"/>
@@ -22613,6 +24668,11 @@
       <c r="AJ354"/>
       <c r="AK354"/>
       <c r="AL354"/>
+      <c r="AM354"/>
+      <c r="AN354"/>
+      <c r="AO354"/>
+      <c r="AP354"/>
+      <c r="AQ354"/>
     </row>
     <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
@@ -22659,6 +24719,11 @@
       <c r="AJ355"/>
       <c r="AK355"/>
       <c r="AL355"/>
+      <c r="AM355"/>
+      <c r="AN355"/>
+      <c r="AO355"/>
+      <c r="AP355"/>
+      <c r="AQ355"/>
     </row>
     <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
@@ -22705,6 +24770,11 @@
       <c r="AJ356"/>
       <c r="AK356"/>
       <c r="AL356"/>
+      <c r="AM356"/>
+      <c r="AN356"/>
+      <c r="AO356"/>
+      <c r="AP356"/>
+      <c r="AQ356"/>
     </row>
     <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
@@ -22763,6 +24833,11 @@
       <c r="AJ357"/>
       <c r="AK357"/>
       <c r="AL357"/>
+      <c r="AM357"/>
+      <c r="AN357"/>
+      <c r="AO357"/>
+      <c r="AP357"/>
+      <c r="AQ357"/>
     </row>
     <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
@@ -22823,6 +24898,11 @@
       <c r="AJ358"/>
       <c r="AK358"/>
       <c r="AL358"/>
+      <c r="AM358"/>
+      <c r="AN358"/>
+      <c r="AO358"/>
+      <c r="AP358"/>
+      <c r="AQ358"/>
     </row>
     <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
@@ -22883,6 +24963,11 @@
       <c r="AJ359"/>
       <c r="AK359"/>
       <c r="AL359"/>
+      <c r="AM359"/>
+      <c r="AN359"/>
+      <c r="AO359"/>
+      <c r="AP359"/>
+      <c r="AQ359"/>
     </row>
     <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
@@ -22943,6 +25028,11 @@
       <c r="AJ360"/>
       <c r="AK360"/>
       <c r="AL360"/>
+      <c r="AM360"/>
+      <c r="AN360"/>
+      <c r="AO360"/>
+      <c r="AP360"/>
+      <c r="AQ360"/>
     </row>
     <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
@@ -22989,6 +25079,11 @@
       <c r="AJ361"/>
       <c r="AK361"/>
       <c r="AL361"/>
+      <c r="AM361"/>
+      <c r="AN361"/>
+      <c r="AO361"/>
+      <c r="AP361"/>
+      <c r="AQ361"/>
     </row>
     <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
@@ -23047,6 +25142,11 @@
       <c r="AJ362"/>
       <c r="AK362"/>
       <c r="AL362"/>
+      <c r="AM362"/>
+      <c r="AN362"/>
+      <c r="AO362"/>
+      <c r="AP362"/>
+      <c r="AQ362"/>
     </row>
     <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
@@ -23097,6 +25197,11 @@
       <c r="AJ363"/>
       <c r="AK363"/>
       <c r="AL363"/>
+      <c r="AM363"/>
+      <c r="AN363"/>
+      <c r="AO363"/>
+      <c r="AP363"/>
+      <c r="AQ363"/>
     </row>
     <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
@@ -23143,6 +25248,11 @@
       <c r="AJ364"/>
       <c r="AK364"/>
       <c r="AL364"/>
+      <c r="AM364"/>
+      <c r="AN364"/>
+      <c r="AO364"/>
+      <c r="AP364"/>
+      <c r="AQ364"/>
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
@@ -23189,6 +25299,11 @@
       <c r="AJ365"/>
       <c r="AK365"/>
       <c r="AL365"/>
+      <c r="AM365"/>
+      <c r="AN365"/>
+      <c r="AO365"/>
+      <c r="AP365"/>
+      <c r="AQ365"/>
     </row>
     <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
@@ -23235,6 +25350,11 @@
       <c r="AJ366"/>
       <c r="AK366"/>
       <c r="AL366"/>
+      <c r="AM366"/>
+      <c r="AN366"/>
+      <c r="AO366"/>
+      <c r="AP366"/>
+      <c r="AQ366"/>
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -23281,6 +25401,11 @@
       <c r="AJ367"/>
       <c r="AK367"/>
       <c r="AL367"/>
+      <c r="AM367"/>
+      <c r="AN367"/>
+      <c r="AO367"/>
+      <c r="AP367"/>
+      <c r="AQ367"/>
     </row>
     <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
@@ -23339,6 +25464,11 @@
       <c r="AJ368"/>
       <c r="AK368"/>
       <c r="AL368"/>
+      <c r="AM368"/>
+      <c r="AN368"/>
+      <c r="AO368"/>
+      <c r="AP368"/>
+      <c r="AQ368"/>
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
@@ -23385,6 +25515,11 @@
       <c r="AJ369"/>
       <c r="AK369"/>
       <c r="AL369"/>
+      <c r="AM369"/>
+      <c r="AN369"/>
+      <c r="AO369"/>
+      <c r="AP369"/>
+      <c r="AQ369"/>
     </row>
     <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
@@ -23439,6 +25574,11 @@
       <c r="AJ370"/>
       <c r="AK370"/>
       <c r="AL370"/>
+      <c r="AM370"/>
+      <c r="AN370"/>
+      <c r="AO370"/>
+      <c r="AP370"/>
+      <c r="AQ370"/>
     </row>
     <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
@@ -23485,6 +25625,11 @@
       <c r="AJ371"/>
       <c r="AK371"/>
       <c r="AL371"/>
+      <c r="AM371"/>
+      <c r="AN371"/>
+      <c r="AO371"/>
+      <c r="AP371"/>
+      <c r="AQ371"/>
     </row>
     <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
@@ -23531,6 +25676,11 @@
       <c r="AJ372"/>
       <c r="AK372"/>
       <c r="AL372"/>
+      <c r="AM372"/>
+      <c r="AN372"/>
+      <c r="AO372"/>
+      <c r="AP372"/>
+      <c r="AQ372"/>
     </row>
     <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
@@ -23577,6 +25727,11 @@
       <c r="AJ373"/>
       <c r="AK373"/>
       <c r="AL373"/>
+      <c r="AM373"/>
+      <c r="AN373"/>
+      <c r="AO373"/>
+      <c r="AP373"/>
+      <c r="AQ373"/>
     </row>
     <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
@@ -23627,6 +25782,11 @@
       <c r="AJ374"/>
       <c r="AK374"/>
       <c r="AL374"/>
+      <c r="AM374"/>
+      <c r="AN374"/>
+      <c r="AO374"/>
+      <c r="AP374"/>
+      <c r="AQ374"/>
     </row>
     <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
@@ -23687,6 +25847,11 @@
       <c r="AJ375"/>
       <c r="AK375"/>
       <c r="AL375"/>
+      <c r="AM375"/>
+      <c r="AN375"/>
+      <c r="AO375"/>
+      <c r="AP375"/>
+      <c r="AQ375"/>
     </row>
     <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
@@ -23745,6 +25910,11 @@
       <c r="AJ376"/>
       <c r="AK376"/>
       <c r="AL376"/>
+      <c r="AM376"/>
+      <c r="AN376"/>
+      <c r="AO376"/>
+      <c r="AP376"/>
+      <c r="AQ376"/>
     </row>
     <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
@@ -23805,6 +25975,11 @@
       <c r="AJ377"/>
       <c r="AK377"/>
       <c r="AL377"/>
+      <c r="AM377"/>
+      <c r="AN377"/>
+      <c r="AO377"/>
+      <c r="AP377"/>
+      <c r="AQ377"/>
     </row>
     <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
@@ -23851,6 +26026,11 @@
       <c r="AJ378"/>
       <c r="AK378"/>
       <c r="AL378"/>
+      <c r="AM378"/>
+      <c r="AN378"/>
+      <c r="AO378"/>
+      <c r="AP378"/>
+      <c r="AQ378"/>
     </row>
     <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
@@ -23897,6 +26077,11 @@
       <c r="AJ379"/>
       <c r="AK379"/>
       <c r="AL379"/>
+      <c r="AM379"/>
+      <c r="AN379"/>
+      <c r="AO379"/>
+      <c r="AP379"/>
+      <c r="AQ379"/>
     </row>
     <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
@@ -23943,6 +26128,11 @@
       <c r="AJ380"/>
       <c r="AK380"/>
       <c r="AL380"/>
+      <c r="AM380"/>
+      <c r="AN380"/>
+      <c r="AO380"/>
+      <c r="AP380"/>
+      <c r="AQ380"/>
     </row>
     <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
@@ -23989,6 +26179,11 @@
       <c r="AJ381"/>
       <c r="AK381"/>
       <c r="AL381"/>
+      <c r="AM381"/>
+      <c r="AN381"/>
+      <c r="AO381"/>
+      <c r="AP381"/>
+      <c r="AQ381"/>
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
@@ -24047,6 +26242,11 @@
       <c r="AJ382"/>
       <c r="AK382"/>
       <c r="AL382"/>
+      <c r="AM382"/>
+      <c r="AN382"/>
+      <c r="AO382"/>
+      <c r="AP382"/>
+      <c r="AQ382"/>
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
@@ -24093,6 +26293,11 @@
       <c r="AJ383"/>
       <c r="AK383"/>
       <c r="AL383"/>
+      <c r="AM383"/>
+      <c r="AN383"/>
+      <c r="AO383"/>
+      <c r="AP383"/>
+      <c r="AQ383"/>
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
@@ -24139,6 +26344,11 @@
       <c r="AJ384"/>
       <c r="AK384"/>
       <c r="AL384"/>
+      <c r="AM384"/>
+      <c r="AN384"/>
+      <c r="AO384"/>
+      <c r="AP384"/>
+      <c r="AQ384"/>
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
@@ -24195,6 +26405,11 @@
       <c r="AJ385"/>
       <c r="AK385"/>
       <c r="AL385"/>
+      <c r="AM385"/>
+      <c r="AN385"/>
+      <c r="AO385"/>
+      <c r="AP385"/>
+      <c r="AQ385"/>
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
@@ -24241,6 +26456,11 @@
       <c r="AJ386"/>
       <c r="AK386"/>
       <c r="AL386"/>
+      <c r="AM386"/>
+      <c r="AN386"/>
+      <c r="AO386"/>
+      <c r="AP386"/>
+      <c r="AQ386"/>
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
@@ -24287,6 +26507,11 @@
       <c r="AJ387"/>
       <c r="AK387"/>
       <c r="AL387"/>
+      <c r="AM387"/>
+      <c r="AN387"/>
+      <c r="AO387"/>
+      <c r="AP387"/>
+      <c r="AQ387"/>
     </row>
     <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
@@ -24333,6 +26558,11 @@
       <c r="AJ388"/>
       <c r="AK388"/>
       <c r="AL388"/>
+      <c r="AM388"/>
+      <c r="AN388"/>
+      <c r="AO388"/>
+      <c r="AP388"/>
+      <c r="AQ388"/>
     </row>
     <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
@@ -24379,6 +26609,11 @@
       <c r="AJ389"/>
       <c r="AK389"/>
       <c r="AL389"/>
+      <c r="AM389"/>
+      <c r="AN389"/>
+      <c r="AO389"/>
+      <c r="AP389"/>
+      <c r="AQ389"/>
     </row>
     <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
@@ -24425,6 +26660,11 @@
       <c r="AJ390"/>
       <c r="AK390"/>
       <c r="AL390"/>
+      <c r="AM390"/>
+      <c r="AN390"/>
+      <c r="AO390"/>
+      <c r="AP390"/>
+      <c r="AQ390"/>
     </row>
     <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
@@ -24471,6 +26711,11 @@
       <c r="AJ391"/>
       <c r="AK391"/>
       <c r="AL391"/>
+      <c r="AM391"/>
+      <c r="AN391"/>
+      <c r="AO391"/>
+      <c r="AP391"/>
+      <c r="AQ391"/>
     </row>
     <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
@@ -24529,6 +26774,11 @@
       <c r="AJ392"/>
       <c r="AK392"/>
       <c r="AL392"/>
+      <c r="AM392"/>
+      <c r="AN392"/>
+      <c r="AO392"/>
+      <c r="AP392"/>
+      <c r="AQ392"/>
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
@@ -24560,7 +26810,7 @@
       <c r="Q393"/>
       <c r="R393"/>
       <c r="S393" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T393"/>
       <c r="U393"/>
@@ -24581,6 +26831,11 @@
       <c r="AJ393"/>
       <c r="AK393"/>
       <c r="AL393"/>
+      <c r="AM393"/>
+      <c r="AN393"/>
+      <c r="AO393"/>
+      <c r="AP393"/>
+      <c r="AQ393"/>
     </row>
     <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
@@ -24608,17 +26863,13 @@
       <c r="O394" t="n">
         <v>1.0</v>
       </c>
-      <c r="P394" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="P394"/>
       <c r="Q394"/>
       <c r="R394"/>
       <c r="S394" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T394" t="n">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="T394"/>
       <c r="U394"/>
       <c r="V394"/>
       <c r="W394"/>
@@ -24637,6 +26888,11 @@
       <c r="AJ394"/>
       <c r="AK394"/>
       <c r="AL394"/>
+      <c r="AM394"/>
+      <c r="AN394"/>
+      <c r="AO394"/>
+      <c r="AP394"/>
+      <c r="AQ394"/>
     </row>
     <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
@@ -24668,7 +26924,7 @@
       <c r="Q395"/>
       <c r="R395"/>
       <c r="S395" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T395"/>
       <c r="U395"/>
@@ -24689,6 +26945,11 @@
       <c r="AJ395"/>
       <c r="AK395"/>
       <c r="AL395"/>
+      <c r="AM395"/>
+      <c r="AN395"/>
+      <c r="AO395"/>
+      <c r="AP395"/>
+      <c r="AQ395"/>
     </row>
     <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
@@ -24739,6 +27000,11 @@
       <c r="AJ396"/>
       <c r="AK396"/>
       <c r="AL396"/>
+      <c r="AM396"/>
+      <c r="AN396"/>
+      <c r="AO396"/>
+      <c r="AP396"/>
+      <c r="AQ396"/>
     </row>
     <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
@@ -24770,7 +27036,7 @@
       <c r="Q397"/>
       <c r="R397"/>
       <c r="S397" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T397"/>
       <c r="U397"/>
@@ -24791,6 +27057,11 @@
       <c r="AJ397"/>
       <c r="AK397"/>
       <c r="AL397"/>
+      <c r="AM397"/>
+      <c r="AN397"/>
+      <c r="AO397"/>
+      <c r="AP397"/>
+      <c r="AQ397"/>
     </row>
     <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
@@ -24818,17 +27089,13 @@
       <c r="O398" t="n">
         <v>1.0</v>
       </c>
-      <c r="P398" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="P398"/>
       <c r="Q398"/>
       <c r="R398"/>
       <c r="S398" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="T398" t="n">
-        <v>0.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="T398"/>
       <c r="U398"/>
       <c r="V398"/>
       <c r="W398"/>
@@ -24847,6 +27114,11 @@
       <c r="AJ398"/>
       <c r="AK398"/>
       <c r="AL398"/>
+      <c r="AM398"/>
+      <c r="AN398"/>
+      <c r="AO398"/>
+      <c r="AP398"/>
+      <c r="AQ398"/>
     </row>
     <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
@@ -24878,7 +27150,7 @@
       <c r="Q399"/>
       <c r="R399"/>
       <c r="S399" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T399"/>
       <c r="U399"/>
@@ -24899,6 +27171,11 @@
       <c r="AJ399"/>
       <c r="AK399"/>
       <c r="AL399"/>
+      <c r="AM399"/>
+      <c r="AN399"/>
+      <c r="AO399"/>
+      <c r="AP399"/>
+      <c r="AQ399"/>
     </row>
     <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
@@ -24959,6 +27236,11 @@
       <c r="AJ400"/>
       <c r="AK400"/>
       <c r="AL400"/>
+      <c r="AM400"/>
+      <c r="AN400"/>
+      <c r="AO400"/>
+      <c r="AP400"/>
+      <c r="AQ400"/>
     </row>
     <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
@@ -25007,6 +27289,11 @@
       <c r="AJ401"/>
       <c r="AK401"/>
       <c r="AL401"/>
+      <c r="AM401"/>
+      <c r="AN401"/>
+      <c r="AO401"/>
+      <c r="AP401"/>
+      <c r="AQ401"/>
     </row>
     <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
@@ -25055,6 +27342,11 @@
       <c r="AJ402"/>
       <c r="AK402"/>
       <c r="AL402"/>
+      <c r="AM402"/>
+      <c r="AN402"/>
+      <c r="AO402"/>
+      <c r="AP402"/>
+      <c r="AQ402"/>
     </row>
     <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
@@ -25080,10 +27372,10 @@
       <c r="M403"/>
       <c r="N403"/>
       <c r="O403" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P403" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q403"/>
       <c r="R403"/>
@@ -25107,6 +27399,11 @@
       <c r="AJ403"/>
       <c r="AK403"/>
       <c r="AL403"/>
+      <c r="AM403"/>
+      <c r="AN403"/>
+      <c r="AO403"/>
+      <c r="AP403"/>
+      <c r="AQ403"/>
     </row>
     <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
@@ -25131,12 +27428,8 @@
       <c r="L404"/>
       <c r="M404"/>
       <c r="N404"/>
-      <c r="O404" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P404" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O404"/>
+      <c r="P404"/>
       <c r="Q404"/>
       <c r="R404"/>
       <c r="S404"/>
@@ -25159,6 +27452,11 @@
       <c r="AJ404"/>
       <c r="AK404"/>
       <c r="AL404"/>
+      <c r="AM404"/>
+      <c r="AN404"/>
+      <c r="AO404"/>
+      <c r="AP404"/>
+      <c r="AQ404"/>
     </row>
     <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
@@ -25207,6 +27505,11 @@
       <c r="AJ405"/>
       <c r="AK405"/>
       <c r="AL405"/>
+      <c r="AM405"/>
+      <c r="AN405"/>
+      <c r="AO405"/>
+      <c r="AP405"/>
+      <c r="AQ405"/>
     </row>
     <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
@@ -25267,6 +27570,11 @@
       <c r="AJ406"/>
       <c r="AK406"/>
       <c r="AL406"/>
+      <c r="AM406"/>
+      <c r="AN406"/>
+      <c r="AO406"/>
+      <c r="AP406"/>
+      <c r="AQ406"/>
     </row>
     <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
@@ -25325,6 +27633,11 @@
       <c r="AJ407"/>
       <c r="AK407"/>
       <c r="AL407"/>
+      <c r="AM407"/>
+      <c r="AN407"/>
+      <c r="AO407"/>
+      <c r="AP407"/>
+      <c r="AQ407"/>
     </row>
     <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
@@ -25373,6 +27686,11 @@
       <c r="AJ408"/>
       <c r="AK408"/>
       <c r="AL408"/>
+      <c r="AM408"/>
+      <c r="AN408"/>
+      <c r="AO408"/>
+      <c r="AP408"/>
+      <c r="AQ408"/>
     </row>
     <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
@@ -25421,6 +27739,11 @@
       <c r="AJ409"/>
       <c r="AK409"/>
       <c r="AL409"/>
+      <c r="AM409"/>
+      <c r="AN409"/>
+      <c r="AO409"/>
+      <c r="AP409"/>
+      <c r="AQ409"/>
     </row>
     <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
@@ -25469,6 +27792,11 @@
       <c r="AJ410"/>
       <c r="AK410"/>
       <c r="AL410"/>
+      <c r="AM410"/>
+      <c r="AN410"/>
+      <c r="AO410"/>
+      <c r="AP410"/>
+      <c r="AQ410"/>
     </row>
     <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
@@ -25527,6 +27855,11 @@
       <c r="AJ411"/>
       <c r="AK411"/>
       <c r="AL411"/>
+      <c r="AM411"/>
+      <c r="AN411"/>
+      <c r="AO411"/>
+      <c r="AP411"/>
+      <c r="AQ411"/>
     </row>
     <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
@@ -25575,6 +27908,11 @@
       <c r="AJ412"/>
       <c r="AK412"/>
       <c r="AL412"/>
+      <c r="AM412"/>
+      <c r="AN412"/>
+      <c r="AO412"/>
+      <c r="AP412"/>
+      <c r="AQ412"/>
     </row>
     <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
@@ -25623,6 +27961,11 @@
       <c r="AJ413"/>
       <c r="AK413"/>
       <c r="AL413"/>
+      <c r="AM413"/>
+      <c r="AN413"/>
+      <c r="AO413"/>
+      <c r="AP413"/>
+      <c r="AQ413"/>
     </row>
     <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
@@ -25671,6 +28014,11 @@
       <c r="AJ414"/>
       <c r="AK414"/>
       <c r="AL414"/>
+      <c r="AM414"/>
+      <c r="AN414"/>
+      <c r="AO414"/>
+      <c r="AP414"/>
+      <c r="AQ414"/>
     </row>
     <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
@@ -25719,6 +28067,11 @@
       <c r="AJ415"/>
       <c r="AK415"/>
       <c r="AL415"/>
+      <c r="AM415"/>
+      <c r="AN415"/>
+      <c r="AO415"/>
+      <c r="AP415"/>
+      <c r="AQ415"/>
     </row>
     <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
@@ -25767,6 +28120,11 @@
       <c r="AJ416"/>
       <c r="AK416"/>
       <c r="AL416"/>
+      <c r="AM416"/>
+      <c r="AN416"/>
+      <c r="AO416"/>
+      <c r="AP416"/>
+      <c r="AQ416"/>
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
@@ -25815,6 +28173,11 @@
       <c r="AJ417"/>
       <c r="AK417"/>
       <c r="AL417"/>
+      <c r="AM417"/>
+      <c r="AN417"/>
+      <c r="AO417"/>
+      <c r="AP417"/>
+      <c r="AQ417"/>
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
@@ -25875,6 +28238,11 @@
       <c r="AJ418"/>
       <c r="AK418"/>
       <c r="AL418"/>
+      <c r="AM418"/>
+      <c r="AN418"/>
+      <c r="AO418"/>
+      <c r="AP418"/>
+      <c r="AQ418"/>
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
@@ -25923,6 +28291,11 @@
       <c r="AJ419"/>
       <c r="AK419"/>
       <c r="AL419"/>
+      <c r="AM419"/>
+      <c r="AN419"/>
+      <c r="AO419"/>
+      <c r="AP419"/>
+      <c r="AQ419"/>
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
@@ -25983,6 +28356,11 @@
       <c r="AJ420"/>
       <c r="AK420"/>
       <c r="AL420"/>
+      <c r="AM420"/>
+      <c r="AN420"/>
+      <c r="AO420"/>
+      <c r="AP420"/>
+      <c r="AQ420"/>
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
@@ -26035,6 +28413,11 @@
       <c r="AJ421"/>
       <c r="AK421"/>
       <c r="AL421"/>
+      <c r="AM421"/>
+      <c r="AN421"/>
+      <c r="AO421"/>
+      <c r="AP421"/>
+      <c r="AQ421"/>
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
@@ -26091,6 +28474,11 @@
       <c r="AJ422"/>
       <c r="AK422"/>
       <c r="AL422"/>
+      <c r="AM422"/>
+      <c r="AN422"/>
+      <c r="AO422"/>
+      <c r="AP422"/>
+      <c r="AQ422"/>
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
@@ -26141,6 +28529,11 @@
       <c r="AJ423"/>
       <c r="AK423"/>
       <c r="AL423"/>
+      <c r="AM423"/>
+      <c r="AN423"/>
+      <c r="AO423"/>
+      <c r="AP423"/>
+      <c r="AQ423"/>
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
@@ -26189,6 +28582,11 @@
       <c r="AJ424"/>
       <c r="AK424"/>
       <c r="AL424"/>
+      <c r="AM424"/>
+      <c r="AN424"/>
+      <c r="AO424"/>
+      <c r="AP424"/>
+      <c r="AQ424"/>
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
@@ -26203,9 +28601,7 @@
       <c r="D425" t="n">
         <v>1.0</v>
       </c>
-      <c r="E425" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E425"/>
       <c r="F425"/>
       <c r="G425"/>
       <c r="H425"/>
@@ -26222,9 +28618,7 @@
       <c r="S425"/>
       <c r="T425"/>
       <c r="U425"/>
-      <c r="V425" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="V425"/>
       <c r="W425"/>
       <c r="X425"/>
       <c r="Y425"/>
@@ -26241,6 +28635,11 @@
       <c r="AJ425"/>
       <c r="AK425"/>
       <c r="AL425"/>
+      <c r="AM425"/>
+      <c r="AN425"/>
+      <c r="AO425"/>
+      <c r="AP425"/>
+      <c r="AQ425"/>
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
@@ -26297,6 +28696,11 @@
       <c r="AJ426"/>
       <c r="AK426"/>
       <c r="AL426"/>
+      <c r="AM426"/>
+      <c r="AN426"/>
+      <c r="AO426"/>
+      <c r="AP426"/>
+      <c r="AQ426"/>
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
@@ -26347,6 +28751,11 @@
       <c r="AJ427"/>
       <c r="AK427"/>
       <c r="AL427"/>
+      <c r="AM427"/>
+      <c r="AN427"/>
+      <c r="AO427"/>
+      <c r="AP427"/>
+      <c r="AQ427"/>
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
@@ -26407,6 +28816,11 @@
       <c r="AJ428"/>
       <c r="AK428"/>
       <c r="AL428"/>
+      <c r="AM428"/>
+      <c r="AN428"/>
+      <c r="AO428"/>
+      <c r="AP428"/>
+      <c r="AQ428"/>
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
@@ -26459,6 +28873,11 @@
       <c r="AJ429"/>
       <c r="AK429"/>
       <c r="AL429"/>
+      <c r="AM429"/>
+      <c r="AN429"/>
+      <c r="AO429"/>
+      <c r="AP429"/>
+      <c r="AQ429"/>
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
@@ -26511,6 +28930,11 @@
       <c r="AJ430"/>
       <c r="AK430"/>
       <c r="AL430"/>
+      <c r="AM430"/>
+      <c r="AN430"/>
+      <c r="AO430"/>
+      <c r="AP430"/>
+      <c r="AQ430"/>
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
@@ -26526,7 +28950,7 @@
         <v>6.0</v>
       </c>
       <c r="E431" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F431"/>
       <c r="G431" t="n">
@@ -26575,6 +28999,11 @@
       <c r="AJ431"/>
       <c r="AK431"/>
       <c r="AL431"/>
+      <c r="AM431"/>
+      <c r="AN431"/>
+      <c r="AO431"/>
+      <c r="AP431"/>
+      <c r="AQ431"/>
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
@@ -26625,6 +29054,11 @@
       <c r="AJ432"/>
       <c r="AK432"/>
       <c r="AL432"/>
+      <c r="AM432"/>
+      <c r="AN432"/>
+      <c r="AO432"/>
+      <c r="AP432"/>
+      <c r="AQ432"/>
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
@@ -26673,6 +29107,11 @@
       <c r="AJ433"/>
       <c r="AK433"/>
       <c r="AL433"/>
+      <c r="AM433"/>
+      <c r="AN433"/>
+      <c r="AO433"/>
+      <c r="AP433"/>
+      <c r="AQ433"/>
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
@@ -26723,6 +29162,11 @@
       <c r="AJ434"/>
       <c r="AK434"/>
       <c r="AL434"/>
+      <c r="AM434"/>
+      <c r="AN434"/>
+      <c r="AO434"/>
+      <c r="AP434"/>
+      <c r="AQ434"/>
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
@@ -26775,6 +29219,11 @@
       <c r="AJ435"/>
       <c r="AK435"/>
       <c r="AL435"/>
+      <c r="AM435"/>
+      <c r="AN435"/>
+      <c r="AO435"/>
+      <c r="AP435"/>
+      <c r="AQ435"/>
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
@@ -26835,6 +29284,11 @@
       <c r="AJ436"/>
       <c r="AK436"/>
       <c r="AL436"/>
+      <c r="AM436"/>
+      <c r="AN436"/>
+      <c r="AO436"/>
+      <c r="AP436"/>
+      <c r="AQ436"/>
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
@@ -26889,6 +29343,11 @@
       <c r="AJ437"/>
       <c r="AK437"/>
       <c r="AL437"/>
+      <c r="AM437"/>
+      <c r="AN437"/>
+      <c r="AO437"/>
+      <c r="AP437"/>
+      <c r="AQ437"/>
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
@@ -26899,7 +29358,7 @@
       </c>
       <c r="C438"/>
       <c r="D438" t="n">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="E438"/>
       <c r="F438"/>
@@ -26939,6 +29398,11 @@
       <c r="AJ438"/>
       <c r="AK438"/>
       <c r="AL438"/>
+      <c r="AM438"/>
+      <c r="AN438"/>
+      <c r="AO438"/>
+      <c r="AP438"/>
+      <c r="AQ438"/>
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
@@ -26949,7 +29413,7 @@
       </c>
       <c r="C439"/>
       <c r="D439" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E439"/>
       <c r="F439"/>
@@ -26985,6 +29449,11 @@
       <c r="AJ439"/>
       <c r="AK439"/>
       <c r="AL439"/>
+      <c r="AM439"/>
+      <c r="AN439"/>
+      <c r="AO439"/>
+      <c r="AP439"/>
+      <c r="AQ439"/>
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
@@ -27035,6 +29504,11 @@
       <c r="AJ440"/>
       <c r="AK440"/>
       <c r="AL440"/>
+      <c r="AM440"/>
+      <c r="AN440"/>
+      <c r="AO440"/>
+      <c r="AP440"/>
+      <c r="AQ440"/>
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
@@ -27045,7 +29519,7 @@
       </c>
       <c r="C441"/>
       <c r="D441" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E441"/>
       <c r="F441"/>
@@ -27081,6 +29555,11 @@
       <c r="AJ441"/>
       <c r="AK441"/>
       <c r="AL441"/>
+      <c r="AM441"/>
+      <c r="AN441"/>
+      <c r="AO441"/>
+      <c r="AP441"/>
+      <c r="AQ441"/>
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
@@ -27091,7 +29570,7 @@
       </c>
       <c r="C442"/>
       <c r="D442" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E442"/>
       <c r="F442"/>
@@ -27127,6 +29606,11 @@
       <c r="AJ442"/>
       <c r="AK442"/>
       <c r="AL442"/>
+      <c r="AM442"/>
+      <c r="AN442"/>
+      <c r="AO442"/>
+      <c r="AP442"/>
+      <c r="AQ442"/>
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
@@ -27137,7 +29621,7 @@
       </c>
       <c r="C443"/>
       <c r="D443" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E443"/>
       <c r="F443"/>
@@ -27173,6 +29657,11 @@
       <c r="AJ443"/>
       <c r="AK443"/>
       <c r="AL443"/>
+      <c r="AM443"/>
+      <c r="AN443"/>
+      <c r="AO443"/>
+      <c r="AP443"/>
+      <c r="AQ443"/>
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
@@ -27233,6 +29722,11 @@
       <c r="AJ444"/>
       <c r="AK444"/>
       <c r="AL444"/>
+      <c r="AM444"/>
+      <c r="AN444"/>
+      <c r="AO444"/>
+      <c r="AP444"/>
+      <c r="AQ444"/>
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
@@ -27293,6 +29787,11 @@
       <c r="AJ445"/>
       <c r="AK445"/>
       <c r="AL445"/>
+      <c r="AM445"/>
+      <c r="AN445"/>
+      <c r="AO445"/>
+      <c r="AP445"/>
+      <c r="AQ445"/>
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
@@ -27355,6 +29854,11 @@
       <c r="AJ446"/>
       <c r="AK446"/>
       <c r="AL446"/>
+      <c r="AM446"/>
+      <c r="AN446"/>
+      <c r="AO446"/>
+      <c r="AP446"/>
+      <c r="AQ446"/>
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
@@ -27411,6 +29915,11 @@
       <c r="AJ447"/>
       <c r="AK447"/>
       <c r="AL447"/>
+      <c r="AM447"/>
+      <c r="AN447"/>
+      <c r="AO447"/>
+      <c r="AP447"/>
+      <c r="AQ447"/>
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
@@ -27473,6 +29982,11 @@
       <c r="AJ448"/>
       <c r="AK448"/>
       <c r="AL448"/>
+      <c r="AM448"/>
+      <c r="AN448"/>
+      <c r="AO448"/>
+      <c r="AP448"/>
+      <c r="AQ448"/>
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
@@ -27523,6 +30037,11 @@
       <c r="AJ449"/>
       <c r="AK449"/>
       <c r="AL449"/>
+      <c r="AM449"/>
+      <c r="AN449"/>
+      <c r="AO449"/>
+      <c r="AP449"/>
+      <c r="AQ449"/>
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
@@ -27537,9 +30056,7 @@
       <c r="D450" t="n">
         <v>1.0</v>
       </c>
-      <c r="E450" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E450"/>
       <c r="F450"/>
       <c r="G450"/>
       <c r="H450"/>
@@ -27556,9 +30073,7 @@
       <c r="S450"/>
       <c r="T450"/>
       <c r="U450"/>
-      <c r="V450" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="V450"/>
       <c r="W450"/>
       <c r="X450"/>
       <c r="Y450"/>
@@ -27575,6 +30090,11 @@
       <c r="AJ450"/>
       <c r="AK450"/>
       <c r="AL450"/>
+      <c r="AM450"/>
+      <c r="AN450"/>
+      <c r="AO450"/>
+      <c r="AP450"/>
+      <c r="AQ450"/>
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
@@ -27589,9 +30109,7 @@
       <c r="D451" t="n">
         <v>1.0</v>
       </c>
-      <c r="E451" t="n">
-        <v>2.0</v>
-      </c>
+      <c r="E451"/>
       <c r="F451"/>
       <c r="G451"/>
       <c r="H451"/>
@@ -27608,9 +30126,7 @@
       <c r="S451"/>
       <c r="T451"/>
       <c r="U451"/>
-      <c r="V451" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="V451"/>
       <c r="W451"/>
       <c r="X451"/>
       <c r="Y451"/>
@@ -27627,6 +30143,11 @@
       <c r="AJ451"/>
       <c r="AK451"/>
       <c r="AL451"/>
+      <c r="AM451"/>
+      <c r="AN451"/>
+      <c r="AO451"/>
+      <c r="AP451"/>
+      <c r="AQ451"/>
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
@@ -27677,6 +30198,11 @@
       <c r="AJ452"/>
       <c r="AK452"/>
       <c r="AL452"/>
+      <c r="AM452"/>
+      <c r="AN452"/>
+      <c r="AO452"/>
+      <c r="AP452"/>
+      <c r="AQ452"/>
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
@@ -27729,6 +30255,11 @@
       <c r="AJ453"/>
       <c r="AK453"/>
       <c r="AL453"/>
+      <c r="AM453"/>
+      <c r="AN453"/>
+      <c r="AO453"/>
+      <c r="AP453"/>
+      <c r="AQ453"/>
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
@@ -27787,6 +30318,11 @@
       <c r="AJ454"/>
       <c r="AK454"/>
       <c r="AL454"/>
+      <c r="AM454"/>
+      <c r="AN454"/>
+      <c r="AO454"/>
+      <c r="AP454"/>
+      <c r="AQ454"/>
     </row>
   </sheetData>
   <sortState ref="A2:AK452">

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdimeo\Documents\great-war-1916\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkavanek/Dropbox/Danny-John Games/GreatWar New Map/TEXT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21405" yWindow="3480" windowWidth="36255" windowHeight="18840"/>
+    <workbookView xWindow="5520" yWindow="3660" windowWidth="25760" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,21 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="567">
   <si>
     <t>unit</t>
   </si>
@@ -1726,6 +1729,9 @@
   </si>
   <si>
     <t>Develop-Elite-Infantry</t>
+  </si>
+  <si>
+    <t>Elite-Defensive-InfantryElite-Defensive-Infantry</t>
   </si>
 </sst>
 </file>
@@ -2054,14 +2060,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN25" sqref="AN25"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2216,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -2521,7 +2527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>564</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>565</v>
       </c>
@@ -2555,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
         <v>37</v>
@@ -2573,7 +2579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
         <v>37</v>
@@ -2625,7 +2631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>538</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>37</v>
@@ -2677,7 +2683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
@@ -2703,7 +2709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>561</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2938,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
@@ -2953,7 +2959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3049,7 +3055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>536</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -3095,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="H31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>37</v>
@@ -3119,7 +3125,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>558</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3411,17 +3417,17 @@
   <dimension ref="A1:AQ454"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K448" sqref="K448"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>565</v>
       </c>
       <c r="AN1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AO1" t="s">
         <v>561</v>
@@ -3552,7 +3558,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3566,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3751,22 +3757,22 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3780,7 +3786,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -3789,13 +3798,13 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3812,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3861,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -3904,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -3921,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -3935,22 +3944,22 @@
         <v>2</v>
       </c>
       <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="V20">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
       <c r="AA20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4034,7 +4043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4048,22 +4057,22 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4091,6 +4100,9 @@
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -4098,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4138,7 +4150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -4161,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -4184,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -4207,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4215,13 +4227,13 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -4229,13 +4241,13 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -4243,13 +4255,13 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -4269,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -4364,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4390,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>559</v>
       </c>
@@ -4401,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -4418,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4450,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -4473,10 +4485,10 @@
         <v>2</v>
       </c>
       <c r="V43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4528,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -4591,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -4648,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>134</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -4716,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4778,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4810,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -4827,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4844,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4858,22 +4870,22 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4902,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4925,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -4939,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -4948,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="V66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -4968,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -5002,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -5051,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -5076,8 +5088,11 @@
       <c r="V72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AO72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -5115,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5132,7 +5147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -5149,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -5166,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5195,7 +5210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5221,7 +5236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5241,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -5258,7 +5273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5269,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5292,7 +5307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5309,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5352,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5381,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5398,7 +5413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5439,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -5453,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5473,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5487,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5504,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5530,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -5550,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5567,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -5587,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5601,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5636,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5650,7 +5665,7 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -5662,10 +5677,13 @@
         <v>1</v>
       </c>
       <c r="V99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AA99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -5682,7 +5700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5708,7 +5726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -5728,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -5742,7 +5760,7 @@
         <v>10</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -5757,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y103">
         <v>1</v>
@@ -5769,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -5795,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5827,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5850,7 +5868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -5867,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -5902,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -5922,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -5942,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -5971,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -5985,19 +6003,19 @@
         <v>2</v>
       </c>
       <c r="E112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="V112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -6026,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -6040,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="E114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -6061,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -6078,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -6095,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>199</v>
       </c>
@@ -6121,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -6135,22 +6153,22 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -6176,7 +6194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -6193,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -6216,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>204</v>
       </c>
@@ -6236,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -6253,7 +6271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -6276,7 +6294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -6327,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -6344,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -6364,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>560</v>
       </c>
@@ -6378,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>212</v>
       </c>
@@ -6413,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>214</v>
       </c>
@@ -6459,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -6470,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -6487,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -6503,14 +6521,26 @@
       <c r="E136">
         <v>6</v>
       </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="W136">
+        <v>3</v>
+      </c>
       <c r="Y136">
         <v>1</v>
       </c>
       <c r="Z136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>218</v>
       </c>
@@ -6533,7 +6563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -6565,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -6585,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -6602,7 +6632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>222</v>
       </c>
@@ -6619,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -6651,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>224</v>
       </c>
@@ -6680,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -6700,7 +6730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>226</v>
       </c>
@@ -6723,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -6737,13 +6767,16 @@
         <v>1</v>
       </c>
       <c r="E146">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>228</v>
       </c>
@@ -6757,7 +6790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -6789,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>230</v>
       </c>
@@ -6812,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -6823,16 +6856,16 @@
         <v>94</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -6849,7 +6882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -6862,11 +6895,14 @@
       <c r="D152">
         <v>0</v>
       </c>
+      <c r="AH152">
+        <v>1</v>
+      </c>
       <c r="AI152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>234</v>
       </c>
@@ -6877,7 +6913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -6888,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>236</v>
       </c>
@@ -6899,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -6910,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -6921,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -6932,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>240</v>
       </c>
@@ -6943,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -6954,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -6974,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -6994,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>244</v>
       </c>
@@ -7005,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -7016,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -7027,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -7038,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>248</v>
       </c>
@@ -7049,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -7060,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -7071,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -7091,7 +7127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -7102,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>253</v>
       </c>
@@ -7122,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>254</v>
       </c>
@@ -7142,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>255</v>
       </c>
@@ -7156,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -7167,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -7178,24 +7214,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>258</v>
       </c>
       <c r="B177" t="s">
         <v>36</v>
       </c>
-      <c r="C177" t="s">
-        <v>74</v>
-      </c>
       <c r="D177">
         <v>0</v>
       </c>
-      <c r="AI177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -7206,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -7217,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7228,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -7239,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>263</v>
       </c>
@@ -7250,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>264</v>
       </c>
@@ -7261,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>265</v>
       </c>
@@ -7272,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>266</v>
       </c>
@@ -7283,24 +7313,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>267</v>
       </c>
       <c r="B186" t="s">
         <v>36</v>
       </c>
-      <c r="C186" t="s">
-        <v>74</v>
-      </c>
       <c r="D186">
         <v>0</v>
       </c>
-      <c r="AI186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>268</v>
       </c>
@@ -7311,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>269</v>
       </c>
@@ -7322,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>270</v>
       </c>
@@ -7333,27 +7357,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>271</v>
       </c>
       <c r="B190" t="s">
         <v>36</v>
       </c>
-      <c r="C190" t="s">
-        <v>90</v>
-      </c>
       <c r="D190">
         <v>0</v>
       </c>
-      <c r="AH190">
-        <v>1</v>
-      </c>
-      <c r="AI190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -7367,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>273</v>
       </c>
@@ -7378,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>274</v>
       </c>
@@ -7389,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>275</v>
       </c>
@@ -7400,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -7411,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>277</v>
       </c>
@@ -7425,30 +7440,24 @@
         <v>0</v>
       </c>
       <c r="AH196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>278</v>
       </c>
       <c r="B197" t="s">
         <v>36</v>
       </c>
-      <c r="C197" t="s">
-        <v>74</v>
-      </c>
       <c r="D197">
         <v>0</v>
       </c>
-      <c r="AI197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -7459,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>280</v>
       </c>
@@ -7470,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -7481,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -7492,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>283</v>
       </c>
@@ -7503,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>284</v>
       </c>
@@ -7514,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>285</v>
       </c>
@@ -7525,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>286</v>
       </c>
@@ -7536,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -7547,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>288</v>
       </c>
@@ -7558,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>289</v>
       </c>
@@ -7569,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>290</v>
       </c>
@@ -7582,8 +7591,14 @@
       <c r="D209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH209">
+        <v>1</v>
+      </c>
+      <c r="AI209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>291</v>
       </c>
@@ -7600,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>292</v>
       </c>
@@ -7611,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>293</v>
       </c>
@@ -7622,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -7642,7 +7657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>295</v>
       </c>
@@ -7656,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>296</v>
       </c>
@@ -7667,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>297</v>
       </c>
@@ -7678,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -7692,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>299</v>
       </c>
@@ -7703,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -7714,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>301</v>
       </c>
@@ -7731,7 +7746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>302</v>
       </c>
@@ -7742,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>303</v>
       </c>
@@ -7759,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>304</v>
       </c>
@@ -7770,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>305</v>
       </c>
@@ -7781,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>306</v>
       </c>
@@ -7792,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>307</v>
       </c>
@@ -7803,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>308</v>
       </c>
@@ -7814,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>309</v>
       </c>
@@ -7825,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -7836,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -7847,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>312</v>
       </c>
@@ -7860,8 +7875,14 @@
       <c r="D231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>313</v>
       </c>
@@ -7872,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>314</v>
       </c>
@@ -7883,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>315</v>
       </c>
@@ -7900,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>316</v>
       </c>
@@ -7920,7 +7941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>317</v>
       </c>
@@ -7931,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -7942,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -7962,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>320</v>
       </c>
@@ -7973,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>321</v>
       </c>
@@ -7984,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>322</v>
       </c>
@@ -7995,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>323</v>
       </c>
@@ -8006,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>324</v>
       </c>
@@ -8026,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>325</v>
       </c>
@@ -8037,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>326</v>
       </c>
@@ -8048,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>327</v>
       </c>
@@ -8059,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>328</v>
       </c>
@@ -8079,7 +8100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>329</v>
       </c>
@@ -8090,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>330</v>
       </c>
@@ -8101,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -8112,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>332</v>
       </c>
@@ -8123,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>333</v>
       </c>
@@ -8137,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>334</v>
       </c>
@@ -8148,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>335</v>
       </c>
@@ -8159,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>336</v>
       </c>
@@ -8179,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>337</v>
       </c>
@@ -8190,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -8201,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>339</v>
       </c>
@@ -8215,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>340</v>
       </c>
@@ -8226,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>341</v>
       </c>
@@ -8237,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -8248,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>343</v>
       </c>
@@ -8259,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>344</v>
       </c>
@@ -8276,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>345</v>
       </c>
@@ -8287,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>346</v>
       </c>
@@ -8298,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>347</v>
       </c>
@@ -8312,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>348</v>
       </c>
@@ -8323,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>349</v>
       </c>
@@ -8334,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>350</v>
       </c>
@@ -8345,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -8356,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>352</v>
       </c>
@@ -8373,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>353</v>
       </c>
@@ -8384,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>354</v>
       </c>
@@ -8395,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>355</v>
       </c>
@@ -8406,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>356</v>
       </c>
@@ -8417,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -8428,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>358</v>
       </c>
@@ -8439,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>359</v>
       </c>
@@ -8450,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>360</v>
       </c>
@@ -8461,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>361</v>
       </c>
@@ -8472,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>362</v>
       </c>
@@ -8492,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>363</v>
       </c>
@@ -8503,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>364</v>
       </c>
@@ -8514,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -8531,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>366</v>
       </c>
@@ -8542,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>367</v>
       </c>
@@ -8562,7 +8583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>368</v>
       </c>
@@ -8573,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>369</v>
       </c>
@@ -8584,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>370</v>
       </c>
@@ -8595,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>371</v>
       </c>
@@ -8606,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -8617,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>373</v>
       </c>
@@ -8628,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>374</v>
       </c>
@@ -8639,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>375</v>
       </c>
@@ -8650,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>376</v>
       </c>
@@ -8661,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>377</v>
       </c>
@@ -8672,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>378</v>
       </c>
@@ -8683,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>379</v>
       </c>
@@ -8694,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>380</v>
       </c>
@@ -8705,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>381</v>
       </c>
@@ -8728,7 +8749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>382</v>
       </c>
@@ -8751,7 +8772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>383</v>
       </c>
@@ -8765,10 +8786,10 @@
         <v>5</v>
       </c>
       <c r="E302">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>1</v>
@@ -8783,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>384</v>
       </c>
@@ -8800,7 +8821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>385</v>
       </c>
@@ -8814,7 +8835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>386</v>
       </c>
@@ -8837,7 +8858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>387</v>
       </c>
@@ -8851,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>388</v>
       </c>
@@ -8868,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -8891,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>390</v>
       </c>
@@ -8917,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>391</v>
       </c>
@@ -8931,13 +8952,13 @@
         <v>6</v>
       </c>
       <c r="E310">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L310">
         <v>1</v>
@@ -8955,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>392</v>
       </c>
@@ -8978,7 +8999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>393</v>
       </c>
@@ -8995,7 +9016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>394</v>
       </c>
@@ -9018,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>395</v>
       </c>
@@ -9044,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>396</v>
       </c>
@@ -9058,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>397</v>
       </c>
@@ -9081,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>398</v>
       </c>
@@ -9095,7 +9116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>399</v>
       </c>
@@ -9109,7 +9130,10 @@
         <v>1</v>
       </c>
       <c r="E318">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G318">
+        <v>2</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -9118,10 +9142,10 @@
         <v>1</v>
       </c>
       <c r="V318">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>400</v>
       </c>
@@ -9150,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>401</v>
       </c>
@@ -9167,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>402</v>
       </c>
@@ -9199,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>403</v>
       </c>
@@ -9210,7 +9234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>404</v>
       </c>
@@ -9221,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>405</v>
       </c>
@@ -9235,7 +9259,7 @@
         <v>6</v>
       </c>
       <c r="E324">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G324">
         <v>2</v>
@@ -9246,6 +9270,9 @@
       <c r="L324">
         <v>1</v>
       </c>
+      <c r="V324">
+        <v>2</v>
+      </c>
       <c r="Y324">
         <v>1</v>
       </c>
@@ -9256,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>406</v>
       </c>
@@ -9282,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>407</v>
       </c>
@@ -9296,16 +9323,19 @@
         <v>6</v>
       </c>
       <c r="E326">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G326">
         <v>2</v>
       </c>
       <c r="I326">
+        <v>2</v>
+      </c>
+      <c r="L326">
         <v>1</v>
       </c>
       <c r="V326">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y326">
         <v>1</v>
@@ -9317,7 +9347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>408</v>
       </c>
@@ -9328,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -9339,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>410</v>
       </c>
@@ -9377,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>411</v>
       </c>
@@ -9394,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>412</v>
       </c>
@@ -9405,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>413</v>
       </c>
@@ -9422,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>414</v>
       </c>
@@ -9439,7 +9469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>415</v>
       </c>
@@ -9456,7 +9486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>416</v>
       </c>
@@ -9470,13 +9500,13 @@
         <v>0</v>
       </c>
       <c r="S335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X335">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>417</v>
       </c>
@@ -9487,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>418</v>
       </c>
@@ -9498,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>419</v>
       </c>
@@ -9515,7 +9545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>420</v>
       </c>
@@ -9528,11 +9558,17 @@
       <c r="D339">
         <v>0</v>
       </c>
+      <c r="O339">
+        <v>1</v>
+      </c>
+      <c r="P339">
+        <v>1</v>
+      </c>
       <c r="R339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T339">
         <v>1</v>
@@ -9541,10 +9577,10 @@
         <v>1</v>
       </c>
       <c r="X339">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>421</v>
       </c>
@@ -9555,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>422</v>
       </c>
@@ -9572,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>423</v>
       </c>
@@ -9583,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>424</v>
       </c>
@@ -9594,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>425</v>
       </c>
@@ -9605,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>426</v>
       </c>
@@ -9631,7 +9667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>427</v>
       </c>
@@ -9642,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>428</v>
       </c>
@@ -9653,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>429</v>
       </c>
@@ -9664,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>430</v>
       </c>
@@ -9684,7 +9720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>431</v>
       </c>
@@ -9695,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>432</v>
       </c>
@@ -9717,8 +9753,14 @@
       <c r="S351">
         <v>2</v>
       </c>
-    </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T351">
+        <v>1</v>
+      </c>
+      <c r="U351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>433</v>
       </c>
@@ -9735,7 +9777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>434</v>
       </c>
@@ -9767,7 +9809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>435</v>
       </c>
@@ -9799,7 +9841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>436</v>
       </c>
@@ -9810,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>437</v>
       </c>
@@ -9821,7 +9863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>438</v>
       </c>
@@ -9829,7 +9871,7 @@
         <v>36</v>
       </c>
       <c r="C357" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D357">
         <v>0</v>
@@ -9844,13 +9886,13 @@
         <v>2</v>
       </c>
       <c r="U357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X357">
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>439</v>
       </c>
@@ -9882,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>440</v>
       </c>
@@ -9914,7 +9956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>441</v>
       </c>
@@ -9946,7 +9988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>442</v>
       </c>
@@ -9957,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>443</v>
       </c>
@@ -9986,7 +10028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>444</v>
       </c>
@@ -10003,7 +10045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>445</v>
       </c>
@@ -10014,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>446</v>
       </c>
@@ -10025,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>447</v>
       </c>
@@ -10036,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>448</v>
       </c>
@@ -10047,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>449</v>
       </c>
@@ -10076,7 +10118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>450</v>
       </c>
@@ -10087,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -10110,7 +10152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>452</v>
       </c>
@@ -10121,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>453</v>
       </c>
@@ -10132,7 +10174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>454</v>
       </c>
@@ -10143,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>455</v>
       </c>
@@ -10160,7 +10202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>456</v>
       </c>
@@ -10192,7 +10234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>457</v>
       </c>
@@ -10221,7 +10263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>458</v>
       </c>
@@ -10253,7 +10295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>459</v>
       </c>
@@ -10264,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>460</v>
       </c>
@@ -10275,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>461</v>
       </c>
@@ -10286,7 +10328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>462</v>
       </c>
@@ -10297,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>463</v>
       </c>
@@ -10326,7 +10368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>464</v>
       </c>
@@ -10337,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>465</v>
       </c>
@@ -10348,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>466</v>
       </c>
@@ -10361,20 +10403,23 @@
       <c r="D385">
         <v>0</v>
       </c>
+      <c r="R385">
+        <v>3</v>
+      </c>
       <c r="S385">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T385">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U385">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X385">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>467</v>
       </c>
@@ -10385,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>468</v>
       </c>
@@ -10396,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>469</v>
       </c>
@@ -10407,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>470</v>
       </c>
@@ -10418,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>471</v>
       </c>
@@ -10429,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>472</v>
       </c>
@@ -10440,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>473</v>
       </c>
@@ -10469,7 +10514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>474</v>
       </c>
@@ -10489,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>475</v>
       </c>
@@ -10509,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>476</v>
       </c>
@@ -10529,7 +10574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>477</v>
       </c>
@@ -10542,11 +10587,23 @@
       <c r="D396">
         <v>0</v>
       </c>
+      <c r="O396">
+        <v>1</v>
+      </c>
+      <c r="S396">
+        <v>2</v>
+      </c>
+      <c r="T396">
+        <v>2</v>
+      </c>
+      <c r="U396">
+        <v>2</v>
+      </c>
       <c r="X396">
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>478</v>
       </c>
@@ -10566,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>479</v>
       </c>
@@ -10586,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>480</v>
       </c>
@@ -10606,7 +10663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>481</v>
       </c>
@@ -10638,7 +10695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>482</v>
       </c>
@@ -10652,7 +10709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>483</v>
       </c>
@@ -10666,7 +10723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>484</v>
       </c>
@@ -10686,7 +10743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>485</v>
       </c>
@@ -10700,7 +10757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>486</v>
       </c>
@@ -10714,7 +10771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>487</v>
       </c>
@@ -10746,7 +10803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>488</v>
       </c>
@@ -10759,14 +10816,8 @@
       <c r="D407">
         <v>0</v>
       </c>
-      <c r="P407">
-        <v>1</v>
-      </c>
       <c r="S407">
-        <v>3</v>
-      </c>
-      <c r="T407">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U407">
         <v>2</v>
@@ -10775,7 +10826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>489</v>
       </c>
@@ -10789,7 +10840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>490</v>
       </c>
@@ -10803,7 +10854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>491</v>
       </c>
@@ -10817,7 +10868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>492</v>
       </c>
@@ -10846,7 +10897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>493</v>
       </c>
@@ -10860,7 +10911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>494</v>
       </c>
@@ -10874,7 +10925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>495</v>
       </c>
@@ -10888,7 +10939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>496</v>
       </c>
@@ -10902,7 +10953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>497</v>
       </c>
@@ -10916,7 +10967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>498</v>
       </c>
@@ -10930,7 +10981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>499</v>
       </c>
@@ -10943,26 +10994,14 @@
       <c r="D418">
         <v>0</v>
       </c>
-      <c r="O418">
-        <v>1</v>
-      </c>
       <c r="R418">
-        <v>2</v>
-      </c>
-      <c r="S418">
-        <v>3</v>
-      </c>
-      <c r="T418">
-        <v>3</v>
-      </c>
-      <c r="U418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X418">
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>500</v>
       </c>
@@ -10976,7 +11015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>501</v>
       </c>
@@ -11008,7 +11047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>502</v>
       </c>
@@ -11028,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>503</v>
       </c>
@@ -11054,7 +11093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>504</v>
       </c>
@@ -11071,7 +11110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>505</v>
       </c>
@@ -11085,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>506</v>
       </c>
@@ -11099,7 +11138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>507</v>
       </c>
@@ -11125,7 +11164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>508</v>
       </c>
@@ -11142,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>509</v>
       </c>
@@ -11174,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>510</v>
       </c>
@@ -11194,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>511</v>
       </c>
@@ -11214,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>512</v>
       </c>
@@ -11252,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>513</v>
       </c>
@@ -11269,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>514</v>
       </c>
@@ -11283,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>515</v>
       </c>
@@ -11300,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>516</v>
       </c>
@@ -11320,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>517</v>
       </c>
@@ -11352,7 +11391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>518</v>
       </c>
@@ -11375,7 +11414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>519</v>
       </c>
@@ -11392,7 +11431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>520</v>
       </c>
@@ -11403,7 +11442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>521</v>
       </c>
@@ -11420,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>522</v>
       </c>
@@ -11431,7 +11470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>523</v>
       </c>
@@ -11442,7 +11481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>524</v>
       </c>
@@ -11453,7 +11492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>525</v>
       </c>
@@ -11467,7 +11506,7 @@
         <v>6</v>
       </c>
       <c r="E444">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G444">
         <v>2</v>
@@ -11485,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>526</v>
       </c>
@@ -11499,25 +11538,25 @@
         <v>1</v>
       </c>
       <c r="E445">
+        <v>10</v>
+      </c>
+      <c r="G445">
+        <v>2</v>
+      </c>
+      <c r="I445">
+        <v>3</v>
+      </c>
+      <c r="L445">
+        <v>1</v>
+      </c>
+      <c r="V445">
         <v>6</v>
       </c>
-      <c r="G445">
-        <v>1</v>
-      </c>
-      <c r="I445">
-        <v>2</v>
-      </c>
-      <c r="L445">
-        <v>1</v>
-      </c>
-      <c r="V445">
-        <v>4</v>
-      </c>
       <c r="AA445">
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>527</v>
       </c>
@@ -11552,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>528</v>
       </c>
@@ -11566,19 +11605,19 @@
         <v>2</v>
       </c>
       <c r="E447">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I447">
         <v>2</v>
       </c>
       <c r="V447">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>529</v>
       </c>
@@ -11613,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>530</v>
       </c>
@@ -11630,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>531</v>
       </c>
@@ -11644,7 +11683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>532</v>
       </c>
@@ -11658,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>533</v>
       </c>
@@ -11675,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>534</v>
       </c>
@@ -11695,7 +11734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>535</v>
       </c>
@@ -11709,7 +11748,10 @@
         <v>1</v>
       </c>
       <c r="E454">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G454">
+        <v>2</v>
       </c>
       <c r="I454">
         <v>2</v>
@@ -11718,7 +11760,7 @@
         <v>1</v>
       </c>
       <c r="V454">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA454">
         <v>1</v>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3660" windowWidth="25760" windowHeight="18840"/>
+    <workbookView xWindow="5520" yWindow="3660" windowWidth="25760" windowHeight="18840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -2060,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
@@ -3416,9 +3416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ454"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K448" sqref="K448"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4100,9 +4100,6 @@
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -6769,11 +6766,11 @@
       <c r="E146">
         <v>4</v>
       </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
       <c r="G146">
         <v>2</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:35" x14ac:dyDescent="0.2">

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkavanek/Dropbox/Danny-John Games/GreatWar New Map/TEXT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Danny-John Games\GreatWar New Map\TEXT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3660" windowWidth="25760" windowHeight="18840" activeTab="1"/>
+    <workbookView xWindow="10050" yWindow="3660" windowWidth="25755" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -17,21 +17,18 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="569">
   <si>
     <t>unit</t>
   </si>
@@ -1732,6 +1729,12 @@
   </si>
   <si>
     <t>Elite-Defensive-InfantryElite-Defensive-Infantry</t>
+  </si>
+  <si>
+    <t>Gas-Munitions</t>
+  </si>
+  <si>
+    <t>1:Gas-Munitions</t>
   </si>
 </sst>
 </file>
@@ -2058,16 +2061,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW40"/>
+  <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="45" max="45" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>564</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>565</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>538</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>561</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2892,7 +2898,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2955,11 +2961,14 @@
       <c r="L26">
         <v>4</v>
       </c>
+      <c r="Q26" t="s">
+        <v>568</v>
+      </c>
       <c r="AM26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3023,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>536</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3201,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3259,7 +3268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>558</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3372,7 +3381,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3405,6 +3414,32 @@
       </c>
       <c r="X40">
         <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>567</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3416,18 +3451,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H149" sqref="H149"/>
+      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3558,7 +3593,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3572,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3589,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3606,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3623,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -3640,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3666,7 +3701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3686,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3706,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3723,7 +3758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3743,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3772,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3804,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3821,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3853,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3870,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -3887,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -3913,7 +3948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -3930,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -3959,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -3991,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -4020,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4043,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4072,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4107,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -4130,7 +4165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4147,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -4170,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -4193,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -4216,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4230,7 +4265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -4244,7 +4279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -4258,7 +4293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -4278,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -4304,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -4327,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -4344,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -4373,7 +4408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4399,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>559</v>
       </c>
@@ -4410,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -4427,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4459,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -4485,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -4517,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4537,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -4554,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4571,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -4600,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -4620,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -4640,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -4657,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -4677,7 +4712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>134</v>
       </c>
@@ -4694,7 +4729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4711,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -4725,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -4739,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -4756,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -4776,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4787,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4819,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -4836,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4853,7 +4888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4882,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4911,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4934,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -4960,7 +4995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -4977,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -4994,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -5011,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -5028,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -5060,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -5089,7 +5124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -5127,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5144,7 +5179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -5161,7 +5196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -5178,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5207,7 +5242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5233,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5253,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -5270,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5281,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5304,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5321,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5338,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5364,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5393,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5410,7 +5445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5451,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -5465,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5485,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5499,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5516,7 +5551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5542,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -5562,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5579,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -5599,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5613,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5648,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5680,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -5697,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5723,7 +5758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -5743,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -5784,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -5810,7 +5845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5842,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5865,7 +5900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -5882,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -5917,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -5937,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -5957,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -5986,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -6012,7 +6047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -6041,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -6076,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -6093,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -6110,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>199</v>
       </c>
@@ -6136,7 +6171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -6165,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -6191,7 +6226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -6208,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -6231,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>204</v>
       </c>
@@ -6251,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -6268,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -6291,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -6311,7 +6346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -6322,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -6342,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -6359,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -6379,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>560</v>
       </c>
@@ -6393,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>212</v>
       </c>
@@ -6428,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -6460,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>214</v>
       </c>
@@ -6474,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -6485,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -6502,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -6537,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>218</v>
       </c>
@@ -6560,7 +6595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -6592,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -6612,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -6629,7 +6664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>222</v>
       </c>
@@ -6646,7 +6681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -6678,7 +6713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>224</v>
       </c>
@@ -6707,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -6727,7 +6762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>226</v>
       </c>
@@ -6750,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -6773,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>228</v>
       </c>
@@ -6787,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -6819,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>230</v>
       </c>
@@ -6842,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -6862,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -6879,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -6899,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>234</v>
       </c>
@@ -6910,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -6921,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>236</v>
       </c>
@@ -6932,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -6943,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -6954,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -6965,7 +7000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>240</v>
       </c>
@@ -6976,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -6987,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -7007,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -7027,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>244</v>
       </c>
@@ -7038,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -7049,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -7060,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -7071,7 +7106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>248</v>
       </c>
@@ -7082,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -7093,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -7104,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -7124,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -7135,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>253</v>
       </c>
@@ -7155,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>254</v>
       </c>
@@ -7175,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>255</v>
       </c>
@@ -7189,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -7200,7 +7235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -7211,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -7222,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -7233,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -7244,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7255,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -7266,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>263</v>
       </c>
@@ -7277,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>264</v>
       </c>
@@ -7288,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>265</v>
       </c>
@@ -7299,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>266</v>
       </c>
@@ -7310,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>267</v>
       </c>
@@ -7321,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>268</v>
       </c>
@@ -7332,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>269</v>
       </c>
@@ -7343,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>270</v>
       </c>
@@ -7354,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>271</v>
       </c>
@@ -7365,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -7379,7 +7414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>273</v>
       </c>
@@ -7390,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>274</v>
       </c>
@@ -7401,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>275</v>
       </c>
@@ -7412,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -7423,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>277</v>
       </c>
@@ -7443,7 +7478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>278</v>
       </c>
@@ -7454,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -7465,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>280</v>
       </c>
@@ -7476,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -7487,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -7498,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>283</v>
       </c>
@@ -7509,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>284</v>
       </c>
@@ -7520,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>285</v>
       </c>
@@ -7531,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>286</v>
       </c>
@@ -7542,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -7553,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>288</v>
       </c>
@@ -7564,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>289</v>
       </c>
@@ -7575,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>290</v>
       </c>
@@ -7595,7 +7630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>291</v>
       </c>
@@ -7612,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>292</v>
       </c>
@@ -7623,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>293</v>
       </c>
@@ -7634,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -7654,7 +7689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>295</v>
       </c>
@@ -7668,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>296</v>
       </c>
@@ -7679,7 +7714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>297</v>
       </c>
@@ -7690,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -7704,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>299</v>
       </c>
@@ -7715,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -7726,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>301</v>
       </c>
@@ -7743,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>302</v>
       </c>
@@ -7754,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>303</v>
       </c>
@@ -7771,7 +7806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>304</v>
       </c>
@@ -7782,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>305</v>
       </c>
@@ -7793,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>306</v>
       </c>
@@ -7804,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>307</v>
       </c>
@@ -7815,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>308</v>
       </c>
@@ -7826,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>309</v>
       </c>
@@ -7837,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -7848,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -7859,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>312</v>
       </c>
@@ -7879,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>313</v>
       </c>
@@ -7890,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>314</v>
       </c>
@@ -7901,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>315</v>
       </c>
@@ -7918,7 +7953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>316</v>
       </c>
@@ -7938,7 +7973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>317</v>
       </c>
@@ -7949,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -7960,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -7980,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>320</v>
       </c>
@@ -7991,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>321</v>
       </c>
@@ -8002,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>322</v>
       </c>
@@ -8013,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>323</v>
       </c>
@@ -8024,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>324</v>
       </c>
@@ -8044,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>325</v>
       </c>
@@ -8055,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>326</v>
       </c>
@@ -8066,7 +8101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>327</v>
       </c>
@@ -8077,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>328</v>
       </c>
@@ -8097,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>329</v>
       </c>
@@ -8108,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>330</v>
       </c>
@@ -8119,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -8130,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>332</v>
       </c>
@@ -8141,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>333</v>
       </c>
@@ -8155,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>334</v>
       </c>
@@ -8166,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>335</v>
       </c>
@@ -8177,7 +8212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>336</v>
       </c>
@@ -8197,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>337</v>
       </c>
@@ -8208,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -8219,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>339</v>
       </c>
@@ -8233,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>340</v>
       </c>
@@ -8244,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>341</v>
       </c>
@@ -8255,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -8266,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>343</v>
       </c>
@@ -8277,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>344</v>
       </c>
@@ -8294,7 +8329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>345</v>
       </c>
@@ -8305,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>346</v>
       </c>
@@ -8316,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>347</v>
       </c>
@@ -8330,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>348</v>
       </c>
@@ -8341,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>349</v>
       </c>
@@ -8352,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>350</v>
       </c>
@@ -8363,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -8374,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>352</v>
       </c>
@@ -8391,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>353</v>
       </c>
@@ -8402,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>354</v>
       </c>
@@ -8413,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>355</v>
       </c>
@@ -8424,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>356</v>
       </c>
@@ -8435,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -8446,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>358</v>
       </c>
@@ -8457,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>359</v>
       </c>
@@ -8468,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>360</v>
       </c>
@@ -8479,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>361</v>
       </c>
@@ -8490,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>362</v>
       </c>
@@ -8510,7 +8545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>363</v>
       </c>
@@ -8521,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>364</v>
       </c>
@@ -8532,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -8549,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>366</v>
       </c>
@@ -8560,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>367</v>
       </c>
@@ -8580,7 +8615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>368</v>
       </c>
@@ -8591,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>369</v>
       </c>
@@ -8602,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>370</v>
       </c>
@@ -8613,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>371</v>
       </c>
@@ -8624,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -8635,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>373</v>
       </c>
@@ -8646,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>374</v>
       </c>
@@ -8657,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>375</v>
       </c>
@@ -8668,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>376</v>
       </c>
@@ -8679,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>377</v>
       </c>
@@ -8690,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>378</v>
       </c>
@@ -8701,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>379</v>
       </c>
@@ -8712,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>380</v>
       </c>
@@ -8723,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>381</v>
       </c>
@@ -8746,7 +8781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>382</v>
       </c>
@@ -8769,7 +8804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>383</v>
       </c>
@@ -8801,7 +8836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>384</v>
       </c>
@@ -8818,7 +8853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>385</v>
       </c>
@@ -8832,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>386</v>
       </c>
@@ -8855,7 +8890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>387</v>
       </c>
@@ -8869,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>388</v>
       </c>
@@ -8886,7 +8921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -8909,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>390</v>
       </c>
@@ -8935,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>391</v>
       </c>
@@ -8973,7 +9008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>392</v>
       </c>
@@ -8996,7 +9031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>393</v>
       </c>
@@ -9013,7 +9048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>394</v>
       </c>
@@ -9036,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>395</v>
       </c>
@@ -9062,7 +9097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>396</v>
       </c>
@@ -9076,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>397</v>
       </c>
@@ -9099,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>398</v>
       </c>
@@ -9113,7 +9148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>399</v>
       </c>
@@ -9142,7 +9177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>400</v>
       </c>
@@ -9171,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>401</v>
       </c>
@@ -9188,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>402</v>
       </c>
@@ -9220,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>403</v>
       </c>
@@ -9231,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>404</v>
       </c>
@@ -9242,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>405</v>
       </c>
@@ -9280,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>406</v>
       </c>
@@ -9306,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>407</v>
       </c>
@@ -9344,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>408</v>
       </c>
@@ -9355,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -9366,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>410</v>
       </c>
@@ -9404,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>411</v>
       </c>
@@ -9421,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>412</v>
       </c>
@@ -9432,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>413</v>
       </c>
@@ -9449,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>414</v>
       </c>
@@ -9466,7 +9501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>415</v>
       </c>
@@ -9483,7 +9518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>416</v>
       </c>
@@ -9503,7 +9538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>417</v>
       </c>
@@ -9514,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>418</v>
       </c>
@@ -9525,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>419</v>
       </c>
@@ -9542,7 +9577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>420</v>
       </c>
@@ -9577,7 +9612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>421</v>
       </c>
@@ -9588,7 +9623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>422</v>
       </c>
@@ -9605,7 +9640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>423</v>
       </c>
@@ -9616,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>424</v>
       </c>
@@ -9627,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>425</v>
       </c>
@@ -9638,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>426</v>
       </c>
@@ -9664,7 +9699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>427</v>
       </c>
@@ -9675,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>428</v>
       </c>
@@ -9686,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>429</v>
       </c>
@@ -9697,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>430</v>
       </c>
@@ -9717,7 +9752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>431</v>
       </c>
@@ -9728,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>432</v>
       </c>
@@ -9757,7 +9792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>433</v>
       </c>
@@ -9774,7 +9809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>434</v>
       </c>
@@ -9806,7 +9841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>435</v>
       </c>
@@ -9838,7 +9873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>436</v>
       </c>
@@ -9849,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>437</v>
       </c>
@@ -9860,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>438</v>
       </c>
@@ -9889,7 +9924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>439</v>
       </c>
@@ -9921,7 +9956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>440</v>
       </c>
@@ -9953,7 +9988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>441</v>
       </c>
@@ -9985,7 +10020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>442</v>
       </c>
@@ -9996,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>443</v>
       </c>
@@ -10025,7 +10060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>444</v>
       </c>
@@ -10042,7 +10077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>445</v>
       </c>
@@ -10053,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>446</v>
       </c>
@@ -10064,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>447</v>
       </c>
@@ -10075,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>448</v>
       </c>
@@ -10086,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>449</v>
       </c>
@@ -10115,7 +10150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>450</v>
       </c>
@@ -10126,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -10149,7 +10184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>452</v>
       </c>
@@ -10160,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>453</v>
       </c>
@@ -10171,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>454</v>
       </c>
@@ -10182,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>455</v>
       </c>
@@ -10199,7 +10234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>456</v>
       </c>
@@ -10231,7 +10266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>457</v>
       </c>
@@ -10260,7 +10295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>458</v>
       </c>
@@ -10292,7 +10327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>459</v>
       </c>
@@ -10303,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>460</v>
       </c>
@@ -10314,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>461</v>
       </c>
@@ -10325,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>462</v>
       </c>
@@ -10336,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>463</v>
       </c>
@@ -10365,7 +10400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>464</v>
       </c>
@@ -10376,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>465</v>
       </c>
@@ -10387,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>466</v>
       </c>
@@ -10416,7 +10451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>467</v>
       </c>
@@ -10427,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>468</v>
       </c>
@@ -10438,7 +10473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>469</v>
       </c>
@@ -10449,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>470</v>
       </c>
@@ -10460,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>471</v>
       </c>
@@ -10471,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>472</v>
       </c>
@@ -10482,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>473</v>
       </c>
@@ -10511,7 +10546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>474</v>
       </c>
@@ -10531,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>475</v>
       </c>
@@ -10551,7 +10586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>476</v>
       </c>
@@ -10571,7 +10606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>477</v>
       </c>
@@ -10600,7 +10635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>478</v>
       </c>
@@ -10620,7 +10655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>479</v>
       </c>
@@ -10640,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>480</v>
       </c>
@@ -10660,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>481</v>
       </c>
@@ -10692,7 +10727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>482</v>
       </c>
@@ -10706,7 +10741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>483</v>
       </c>
@@ -10720,7 +10755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>484</v>
       </c>
@@ -10740,7 +10775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>485</v>
       </c>
@@ -10754,7 +10789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>486</v>
       </c>
@@ -10768,7 +10803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>487</v>
       </c>
@@ -10800,7 +10835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>488</v>
       </c>
@@ -10823,7 +10858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>489</v>
       </c>
@@ -10837,7 +10872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>490</v>
       </c>
@@ -10851,7 +10886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>491</v>
       </c>
@@ -10865,7 +10900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>492</v>
       </c>
@@ -10894,7 +10929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>493</v>
       </c>
@@ -10908,7 +10943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>494</v>
       </c>
@@ -10922,7 +10957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>495</v>
       </c>
@@ -10936,7 +10971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>496</v>
       </c>
@@ -10950,7 +10985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>497</v>
       </c>
@@ -10964,7 +10999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>498</v>
       </c>
@@ -10978,7 +11013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>499</v>
       </c>
@@ -10998,7 +11033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>500</v>
       </c>
@@ -11012,7 +11047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>501</v>
       </c>
@@ -11044,7 +11079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>502</v>
       </c>
@@ -11064,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>503</v>
       </c>
@@ -11090,7 +11125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>504</v>
       </c>
@@ -11107,7 +11142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>505</v>
       </c>
@@ -11121,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>506</v>
       </c>
@@ -11135,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>507</v>
       </c>
@@ -11161,7 +11196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>508</v>
       </c>
@@ -11178,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>509</v>
       </c>
@@ -11210,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>510</v>
       </c>
@@ -11230,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>511</v>
       </c>
@@ -11250,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>512</v>
       </c>
@@ -11288,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>513</v>
       </c>
@@ -11305,7 +11340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>514</v>
       </c>
@@ -11319,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>515</v>
       </c>
@@ -11336,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>516</v>
       </c>
@@ -11356,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>517</v>
       </c>
@@ -11388,7 +11423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>518</v>
       </c>
@@ -11411,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>519</v>
       </c>
@@ -11428,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>520</v>
       </c>
@@ -11439,7 +11474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>521</v>
       </c>
@@ -11456,7 +11491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>522</v>
       </c>
@@ -11467,7 +11502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>523</v>
       </c>
@@ -11478,7 +11513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>524</v>
       </c>
@@ -11489,7 +11524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>525</v>
       </c>
@@ -11521,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>526</v>
       </c>
@@ -11553,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>527</v>
       </c>
@@ -11588,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>528</v>
       </c>
@@ -11614,7 +11649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>529</v>
       </c>
@@ -11649,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>530</v>
       </c>
@@ -11666,7 +11701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>531</v>
       </c>
@@ -11680,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>532</v>
       </c>
@@ -11694,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>533</v>
       </c>
@@ -11711,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>534</v>
       </c>
@@ -11731,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>535</v>
       </c>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Danny-John Games\GreatWar New Map\TEXT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkavanek/Dropbox/Danny-John Games/GreatWar New Map/TEXT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="3660" windowWidth="25755" windowHeight="18840"/>
+    <workbookView xWindow="10060" yWindow="3660" windowWidth="25760" windowHeight="18840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,14 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2063,17 +2066,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="45" max="45" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2280,7 +2283,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2318,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>564</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>565</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2663,7 +2666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>538</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2715,7 +2718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -2744,7 +2747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>561</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2939,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>536</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3160,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3210,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>558</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3381,7 +3384,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3416,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>567</v>
       </c>
@@ -3451,18 +3454,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ454"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L407" sqref="L407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3658,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3778,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3856,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3888,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -3922,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4107,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -4251,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>559</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -4635,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -4675,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>134</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4822,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -6021,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>199</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>204</v>
       </c>
@@ -6286,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -6303,7 +6306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -6346,7 +6349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>560</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>212</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>214</v>
       </c>
@@ -6509,7 +6512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>218</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -6627,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -6647,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -6664,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>222</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>224</v>
       </c>
@@ -6742,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>226</v>
       </c>
@@ -6785,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>228</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -6854,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>230</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>234</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -6956,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>236</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -6978,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -7000,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>240</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -7042,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>244</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -7084,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>248</v>
       </c>
@@ -7117,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>253</v>
       </c>
@@ -7190,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>254</v>
       </c>
@@ -7210,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>255</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -7235,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>263</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>264</v>
       </c>
@@ -7323,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>265</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>266</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>267</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>268</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>269</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>270</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>271</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>273</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>274</v>
       </c>
@@ -7436,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>275</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>277</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>278</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -7500,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>280</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -7522,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>283</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>284</v>
       </c>
@@ -7555,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>285</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>286</v>
       </c>
@@ -7577,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -7588,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>288</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>289</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>290</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>291</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>292</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>293</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>295</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>296</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>297</v>
       </c>
@@ -7725,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>299</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>301</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>302</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>303</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>304</v>
       </c>
@@ -7817,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>305</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>306</v>
       </c>
@@ -7839,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>307</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>308</v>
       </c>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>309</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -7883,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -7894,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>312</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>313</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>314</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>315</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>316</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>317</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>320</v>
       </c>
@@ -8026,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>321</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>322</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>323</v>
       </c>
@@ -8059,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>324</v>
       </c>
@@ -8079,7 +8082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>325</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>326</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>327</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>328</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>329</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>330</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>332</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>333</v>
       </c>
@@ -8190,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>334</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>335</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>336</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>337</v>
       </c>
@@ -8243,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -8254,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>339</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>340</v>
       </c>
@@ -8279,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>341</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>343</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>344</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>345</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>346</v>
       </c>
@@ -8351,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>347</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>348</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>349</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>350</v>
       </c>
@@ -8398,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -8409,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>352</v>
       </c>
@@ -8426,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>353</v>
       </c>
@@ -8437,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>354</v>
       </c>
@@ -8448,7 +8451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>355</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>356</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -8481,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>358</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>359</v>
       </c>
@@ -8503,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>360</v>
       </c>
@@ -8514,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>361</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>362</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>363</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>364</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>366</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>367</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>368</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>369</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>370</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>371</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -8670,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>373</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>374</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>375</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>376</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>377</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>378</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>379</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>380</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>381</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>382</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>383</v>
       </c>
@@ -8836,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>384</v>
       </c>
@@ -8853,7 +8856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>385</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>386</v>
       </c>
@@ -8890,7 +8893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>387</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>388</v>
       </c>
@@ -8921,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -8944,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>390</v>
       </c>
@@ -8970,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>391</v>
       </c>
@@ -9008,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>392</v>
       </c>
@@ -9031,7 +9034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>393</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>394</v>
       </c>
@@ -9071,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>395</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>396</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>397</v>
       </c>
@@ -9134,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>398</v>
       </c>
@@ -9148,7 +9151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>399</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>400</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>401</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>402</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>403</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>404</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>405</v>
       </c>
@@ -9315,7 +9318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>406</v>
       </c>
@@ -9341,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>407</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>408</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>410</v>
       </c>
@@ -9439,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>411</v>
       </c>
@@ -9456,7 +9459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>412</v>
       </c>
@@ -9467,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>413</v>
       </c>
@@ -9484,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>414</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>415</v>
       </c>
@@ -9518,7 +9521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>416</v>
       </c>
@@ -9538,7 +9541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>417</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>418</v>
       </c>
@@ -9560,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>419</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>420</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>421</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>422</v>
       </c>
@@ -9640,7 +9643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>423</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>424</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>425</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>426</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>427</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>428</v>
       </c>
@@ -9721,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>429</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>430</v>
       </c>
@@ -9752,7 +9755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>431</v>
       </c>
@@ -9763,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>432</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>433</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>434</v>
       </c>
@@ -9841,7 +9844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>435</v>
       </c>
@@ -9873,7 +9876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>436</v>
       </c>
@@ -9884,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>437</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>438</v>
       </c>
@@ -9924,7 +9927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>439</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>440</v>
       </c>
@@ -9988,7 +9991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>441</v>
       </c>
@@ -10020,7 +10023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>442</v>
       </c>
@@ -10031,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>443</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>444</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>445</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>446</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>447</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>448</v>
       </c>
@@ -10121,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>449</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>450</v>
       </c>
@@ -10161,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>452</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>453</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>454</v>
       </c>
@@ -10217,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>455</v>
       </c>
@@ -10234,7 +10237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>456</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>457</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>458</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>459</v>
       </c>
@@ -10338,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>460</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>461</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>462</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>463</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>464</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>465</v>
       </c>
@@ -10422,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>466</v>
       </c>
@@ -10451,7 +10454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>467</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>468</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>469</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>470</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>471</v>
       </c>
@@ -10506,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>472</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>473</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>474</v>
       </c>
@@ -10566,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>475</v>
       </c>
@@ -10586,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>476</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>477</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>478</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>479</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>480</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>481</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>482</v>
       </c>
@@ -10741,7 +10744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>483</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>484</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>485</v>
       </c>
@@ -10789,7 +10792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>486</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>487</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>488</v>
       </c>
@@ -10851,14 +10854,11 @@
       <c r="S407">
         <v>1</v>
       </c>
-      <c r="U407">
-        <v>2</v>
-      </c>
       <c r="X407">
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>489</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>490</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>491</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>492</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>493</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>494</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>495</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>496</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>497</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>498</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>499</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>500</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>501</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>502</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>503</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>504</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>505</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>506</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>507</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>508</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>509</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>510</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>511</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>512</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>513</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>514</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>515</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>516</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>517</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>518</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>519</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>520</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>521</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>522</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>523</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>524</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>525</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>526</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>527</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>528</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>529</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>530</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>531</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>532</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>533</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>534</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>535</v>
       </c>

--- a/over-the-top.xlsx
+++ b/over-the-top.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielkavanek/Dropbox/Danny-John Games/GreatWar New Map/TEXT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdimeo\Documents\great-war-1916\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="3660" windowWidth="25760" windowHeight="18840" activeTab="1"/>
+    <workbookView xWindow="12330" yWindow="3660" windowWidth="25755" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -17,21 +17,18 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="569">
   <si>
     <t>unit</t>
   </si>
@@ -2066,17 +2063,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="45" max="45" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2254,7 +2251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2391,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2423,7 +2420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -2452,7 +2449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2536,7 +2533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>564</v>
       </c>
@@ -2562,7 +2559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>565</v>
       </c>
@@ -2588,7 +2585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -2614,7 +2611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2640,7 +2637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>538</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2718,7 +2715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>562</v>
       </c>
@@ -2747,7 +2744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>561</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2805,10 +2802,10 @@
         <v>36</v>
       </c>
       <c r="AI21">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AJ21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="s">
         <v>36</v>
@@ -2817,7 +2814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2843,7 +2840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2901,7 +2898,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2942,7 +2939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2971,7 +2968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -3003,7 +3000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3067,7 +3064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>536</v>
       </c>
@@ -3105,7 +3102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>537</v>
       </c>
@@ -3137,7 +3134,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3163,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3189,10 +3186,10 @@
         <v>36</v>
       </c>
       <c r="AI33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK33" t="s">
         <v>36</v>
@@ -3213,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3271,7 +3268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3300,7 +3297,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -3335,7 +3332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>558</v>
       </c>
@@ -3352,7 +3349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -3392,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I40" t="s">
         <v>37</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T40" t="s">
         <v>36</v>
@@ -3419,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>567</v>
       </c>
@@ -3433,15 +3430,12 @@
         <v>37</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="AU41" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV41" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3454,18 +3448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ454"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L407" sqref="L407"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3596,7 +3590,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -3610,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3627,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3644,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -3661,7 +3655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -3678,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -3704,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -3724,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -3744,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -3761,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -3781,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3810,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3842,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3859,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -3891,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3908,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -3925,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -3951,7 +3945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -3968,7 +3962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -3997,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -4029,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -4058,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4081,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -4110,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4145,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -4168,7 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -4185,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -4208,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -4231,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -4254,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -4296,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -4316,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>117</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -4365,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -4382,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -4411,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4437,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>559</v>
       </c>
@@ -4448,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -4465,7 +4459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -4497,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -4523,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -4555,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -4575,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -4592,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -4609,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -4638,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -4658,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -4678,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -4695,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -4715,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>134</v>
       </c>
@@ -4732,7 +4726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -4749,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -4763,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>137</v>
       </c>
@@ -4777,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -4794,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -4814,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -4825,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -4857,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -4874,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -4891,7 +4885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -4920,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -4949,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -4972,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -4998,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -5015,7 +5009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -5032,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -5049,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -5066,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -5098,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -5127,7 +5121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -5165,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5182,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -5199,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -5216,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -5245,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -5291,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>162</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>163</v>
       </c>
@@ -5319,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5359,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5376,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5402,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -5431,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5448,7 +5442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>170</v>
       </c>
@@ -5489,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -5503,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5523,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>173</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -5554,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -5580,7 +5574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -5600,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -5617,7 +5611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>178</v>
       </c>
@@ -5637,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>179</v>
       </c>
@@ -5651,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>180</v>
       </c>
@@ -5686,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>181</v>
       </c>
@@ -5718,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -5735,7 +5729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -5761,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>184</v>
       </c>
@@ -5781,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -5822,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>186</v>
       </c>
@@ -5848,7 +5842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>187</v>
       </c>
@@ -5880,7 +5874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>188</v>
       </c>
@@ -5903,7 +5897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -5920,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -5955,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>191</v>
       </c>
@@ -5975,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -5995,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>193</v>
       </c>
@@ -6024,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -6050,7 +6044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>195</v>
       </c>
@@ -6079,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -6114,7 +6108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -6148,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>199</v>
       </c>
@@ -6174,7 +6168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -6203,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>201</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -6246,7 +6240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -6269,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>204</v>
       </c>
@@ -6289,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -6306,7 +6300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -6329,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>207</v>
       </c>
@@ -6349,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>208</v>
       </c>
@@ -6360,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>209</v>
       </c>
@@ -6380,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -6397,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -6417,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>560</v>
       </c>
@@ -6431,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>212</v>
       </c>
@@ -6466,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>213</v>
       </c>
@@ -6498,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>214</v>
       </c>
@@ -6512,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>215</v>
       </c>
@@ -6523,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>216</v>
       </c>
@@ -6540,7 +6534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -6575,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>218</v>
       </c>
@@ -6598,7 +6592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>219</v>
       </c>
@@ -6630,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>220</v>
       </c>
@@ -6650,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>221</v>
       </c>
@@ -6667,7 +6661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>222</v>
       </c>
@@ -6684,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>223</v>
       </c>
@@ -6716,7 +6710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>224</v>
       </c>
@@ -6745,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>225</v>
       </c>
@@ -6765,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>226</v>
       </c>
@@ -6788,7 +6782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>227</v>
       </c>
@@ -6811,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>228</v>
       </c>
@@ -6825,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>229</v>
       </c>
@@ -6857,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>230</v>
       </c>
@@ -6880,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>231</v>
       </c>
@@ -6900,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>232</v>
       </c>
@@ -6917,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>233</v>
       </c>
@@ -6937,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>234</v>
       </c>
@@ -6948,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>235</v>
       </c>
@@ -6959,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>236</v>
       </c>
@@ -6970,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -6981,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -6992,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>239</v>
       </c>
@@ -7003,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>240</v>
       </c>
@@ -7014,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -7025,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>242</v>
       </c>
@@ -7045,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>243</v>
       </c>
@@ -7065,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>244</v>
       </c>
@@ -7076,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -7087,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -7098,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>247</v>
       </c>
@@ -7109,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>248</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -7131,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -7142,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -7162,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -7173,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>253</v>
       </c>
@@ -7193,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>254</v>
       </c>
@@ -7213,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>255</v>
       </c>
@@ -7227,7 +7221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>256</v>
       </c>
@@ -7238,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>257</v>
       </c>
@@ -7249,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>258</v>
       </c>
@@ -7260,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>259</v>
       </c>
@@ -7271,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>260</v>
       </c>
@@ -7282,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7293,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>262</v>
       </c>
@@ -7304,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>263</v>
       </c>
@@ -7315,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>264</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>265</v>
       </c>
@@ -7337,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>266</v>
       </c>
@@ -7348,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>267</v>
       </c>
@@ -7359,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>268</v>
       </c>
@@ -7370,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>269</v>
       </c>
@@ -7381,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>270</v>
       </c>
@@ -7392,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>271</v>
       </c>
@@ -7403,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>272</v>
       </c>
@@ -7417,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>273</v>
       </c>
@@ -7428,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>274</v>
       </c>
@@ -7439,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>275</v>
       </c>
@@ -7450,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>276</v>
       </c>
@@ -7461,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>277</v>
       </c>
@@ -7481,7 +7475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>278</v>
       </c>
@@ -7492,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>279</v>
       </c>
@@ -7503,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>280</v>
       </c>
@@ -7514,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>281</v>
       </c>
@@ -7525,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>282</v>
       </c>
@@ -7536,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>283</v>
       </c>
@@ -7547,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>284</v>
       </c>
@@ -7558,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>285</v>
       </c>
@@ -7569,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>286</v>
       </c>
@@ -7580,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -7591,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>288</v>
       </c>
@@ -7602,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>289</v>
       </c>
@@ -7613,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>290</v>
       </c>
@@ -7633,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>291</v>
       </c>
@@ -7650,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>292</v>
       </c>
@@ -7661,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>293</v>
       </c>
@@ -7672,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -7692,7 +7686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>295</v>
       </c>
@@ -7706,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>296</v>
       </c>
@@ -7717,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>297</v>
       </c>
@@ -7728,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -7742,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>299</v>
       </c>
@@ -7753,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>300</v>
       </c>
@@ -7764,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>301</v>
       </c>
@@ -7781,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>302</v>
       </c>
@@ -7792,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>303</v>
       </c>
@@ -7809,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>304</v>
       </c>
@@ -7820,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>305</v>
       </c>
@@ -7831,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>306</v>
       </c>
@@ -7842,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>307</v>
       </c>
@@ -7853,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>308</v>
       </c>
@@ -7864,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>309</v>
       </c>
@@ -7875,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>310</v>
       </c>
@@ -7886,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -7897,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>312</v>
       </c>
@@ -7917,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>313</v>
       </c>
@@ -7928,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>314</v>
       </c>
@@ -7939,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>315</v>
       </c>
@@ -7956,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>316</v>
       </c>
@@ -7976,7 +7970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>317</v>
       </c>
@@ -7987,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>318</v>
       </c>
@@ -7998,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -8018,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>320</v>
       </c>
@@ -8029,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>321</v>
       </c>
@@ -8040,7 +8034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>322</v>
       </c>
@@ -8051,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>323</v>
       </c>
@@ -8062,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>324</v>
       </c>
@@ -8082,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>325</v>
       </c>
@@ -8093,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>326</v>
       </c>
@@ -8104,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>327</v>
       </c>
@@ -8115,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>328</v>
       </c>
@@ -8135,7 +8129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>329</v>
       </c>
@@ -8146,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>330</v>
       </c>
@@ -8157,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>331</v>
       </c>
@@ -8168,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>332</v>
       </c>
@@ -8179,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>333</v>
       </c>
@@ -8193,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>334</v>
       </c>
@@ -8204,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>335</v>
       </c>
@@ -8215,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>336</v>
       </c>
@@ -8235,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>337</v>
       </c>
@@ -8246,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -8257,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>339</v>
       </c>
@@ -8271,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>340</v>
       </c>
@@ -8282,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>341</v>
       </c>
@@ -8293,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>342</v>
       </c>
@@ -8304,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>343</v>
       </c>
@@ -8315,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>344</v>
       </c>
@@ -8332,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>345</v>
       </c>
@@ -8343,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>346</v>
       </c>
@@ -8354,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>347</v>
       </c>
@@ -8368,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>348</v>
       </c>
@@ -8379,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>349</v>
       </c>
@@ -8390,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>350</v>
       </c>
@@ -8401,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>351</v>
       </c>
@@ -8412,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>352</v>
       </c>
@@ -8429,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>353</v>
       </c>
@@ -8440,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>354</v>
       </c>
@@ -8451,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>355</v>
       </c>
@@ -8462,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>356</v>
       </c>
@@ -8473,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>357</v>
       </c>
@@ -8484,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>358</v>
       </c>
@@ -8495,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>359</v>
       </c>
@@ -8506,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>360</v>
       </c>
@@ -8517,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>361</v>
       </c>
@@ -8528,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>362</v>
       </c>
@@ -8548,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>363</v>
       </c>
@@ -8559,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>364</v>
       </c>
@@ -8570,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>365</v>
       </c>
@@ -8587,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>366</v>
       </c>
@@ -8598,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>367</v>
       </c>
@@ -8618,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>368</v>
       </c>
@@ -8629,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>369</v>
       </c>
@@ -8640,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>370</v>
       </c>
@@ -8651,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>371</v>
       </c>
@@ -8662,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -8673,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>373</v>
       </c>
@@ -8684,7 +8678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>374</v>
       </c>
@@ -8695,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>375</v>
       </c>
@@ -8706,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>376</v>
       </c>
@@ -8717,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>377</v>
       </c>
@@ -8728,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>378</v>
       </c>
@@ -8739,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>379</v>
       </c>
@@ -8750,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>380</v>
       </c>
@@ -8761,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>381</v>
       </c>
@@ -8784,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>382</v>
       </c>
@@ -8807,7 +8801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>383</v>
       </c>
@@ -8839,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>384</v>
       </c>
@@ -8856,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>385</v>
       </c>
@@ -8870,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>386</v>
       </c>
@@ -8893,7 +8887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>387</v>
       </c>
@@ -8907,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>388</v>
       </c>
@@ -8924,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>389</v>
       </c>
@@ -8947,7 +8941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>390</v>
       </c>
@@ -8973,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>391</v>
       </c>
@@ -9011,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>392</v>
       </c>
@@ -9034,7 +9028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>393</v>
       </c>
@@ -9051,7 +9045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>394</v>
       </c>
@@ -9074,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>395</v>
       </c>
@@ -9100,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>396</v>
       </c>
@@ -9114,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>397</v>
       </c>
@@ -9137,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>398</v>
       </c>
@@ -9151,7 +9145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>399</v>
       </c>
@@ -9180,7 +9174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>400</v>
       </c>
@@ -9209,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>401</v>
       </c>
@@ -9226,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>402</v>
       </c>
@@ -9258,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>403</v>
       </c>
@@ -9269,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>404</v>
       </c>
@@ -9280,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>405</v>
       </c>
@@ -9318,7 +9312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>406</v>
       </c>
@@ -9344,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>407</v>
       </c>
@@ -9382,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>408</v>
       </c>
@@ -9393,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>409</v>
       </c>
@@ -9404,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>410</v>
       </c>
@@ -9442,7 +9436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>411</v>
       </c>
@@ -9459,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>412</v>
       </c>
@@ -9470,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>413</v>
       </c>
@@ -9487,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>414</v>
       </c>
@@ -9504,7 +9498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>415</v>
       </c>
@@ -9521,7 +9515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>416</v>
       </c>
@@ -9541,7 +9535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>417</v>
       </c>
@@ -9552,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>418</v>
       </c>
@@ -9563,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>419</v>
       </c>
@@ -9580,7 +9574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>420</v>
       </c>
@@ -9615,7 +9609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>421</v>
       </c>
@@ -9626,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>422</v>
       </c>
@@ -9643,7 +9637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>423</v>
       </c>
@@ -9654,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>424</v>
       </c>
@@ -9665,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>425</v>
       </c>
@@ -9676,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>426</v>
       </c>
@@ -9702,7 +9696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>427</v>
       </c>
@@ -9713,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>428</v>
       </c>
@@ -9724,7 +9718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>429</v>
       </c>
@@ -9735,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>430</v>
       </c>
@@ -9755,7 +9749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>431</v>
       </c>
@@ -9766,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>432</v>
       </c>
@@ -9795,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>433</v>
       </c>
@@ -9812,7 +9806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>434</v>
       </c>
@@ -9844,7 +9838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>435</v>
       </c>
@@ -9876,7 +9870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>436</v>
       </c>
@@ -9887,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>437</v>
       </c>
@@ -9898,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>438</v>
       </c>
@@ -9927,7 +9921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>439</v>
       </c>
@@ -9959,7 +9953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>440</v>
       </c>
@@ -9991,7 +9985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>441</v>
       </c>
@@ -10023,7 +10017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>442</v>
       </c>
@@ -10034,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>443</v>
       </c>
@@ -10063,7 +10057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>444</v>
       </c>
@@ -10080,7 +10074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>445</v>
       </c>
@@ -10091,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>446</v>
       </c>
@@ -10102,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>447</v>
       </c>
@@ -10113,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>448</v>
       </c>
@@ -10124,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>449</v>
       </c>
@@ -10153,7 +10147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>450</v>
       </c>
@@ -10164,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>451</v>
       </c>
@@ -10187,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>452</v>
       </c>
@@ -10198,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>453</v>
       </c>
@@ -10209,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>454</v>
       </c>
@@ -10220,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>455</v>
       </c>
@@ -10237,7 +10231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>456</v>
       </c>
@@ -10269,7 +10263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>457</v>
       </c>
@@ -10298,7 +10292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>458</v>
       </c>
@@ -10330,7 +10324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>459</v>
       </c>
@@ -10341,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>460</v>
       </c>
@@ -10352,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>461</v>
       </c>
@@ -10363,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>462</v>
       </c>
@@ -10374,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>463</v>
       </c>
@@ -10403,7 +10397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>464</v>
       </c>
@@ -10414,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>465</v>
       </c>
@@ -10425,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>466</v>
       </c>
@@ -10454,7 +10448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>467</v>
       </c>
@@ -10465,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>468</v>
       </c>
@@ -10476,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>469</v>
       </c>
@@ -10487,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>470</v>
       </c>
@@ -10498,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>471</v>
       </c>
@@ -10509,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>472</v>
       </c>
@@ -10520,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>473</v>
       </c>
@@ -10549,7 +10543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>474</v>
       </c>
@@ -10569,7 +10563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>475</v>
       </c>
@@ -10589,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>476</v>
       </c>
@@ -10609,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>477</v>
       </c>
@@ -10638,7 +10632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>478</v>
       </c>
@@ -10658,7 +10652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>479</v>
       </c>
@@ -10678,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>480</v>
       </c>
@@ -10698,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>481</v>
       </c>
@@ -10730,7 +10724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>482</v>
       </c>
@@ -10744,7 +10738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>483</v>
       </c>
@@ -10758,7 +10752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>484</v>
       </c>
@@ -10778,7 +10772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>485</v>
       </c>
@@ -10792,7 +10786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>486</v>
       </c>
@@ -10806,7 +10800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>487</v>
       </c>
@@ -10838,7 +10832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>488</v>
       </c>
@@ -10858,7 +10852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>489</v>
       </c>
@@ -10872,7 +10866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>490</v>
       </c>
@@ -10886,7 +10880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>491</v>
       </c>
@@ -10900,7 +10894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>492</v>
       </c>
@@ -10929,7 +10923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>493</v>
       </c>
@@ -10943,7 +10937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>494</v>
       </c>
@@ -10957,7 +10951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>495</v>
       </c>
@@ -10971,7 +10965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>496</v>
       </c>
@@ -10985,7 +10979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>497</v>
       </c>
@@ -10999,7 +10993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>498</v>
       </c>
@@ -11013,7 +11007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>499</v>
       </c>
@@ -11033,7 +11027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>500</v>
       </c>
@@ -11047,7 +11041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>501</v>
       </c>
@@ -11079,7 +11073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>502</v>
       </c>
@@ -11099,7 +11093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>503</v>
       </c>
@@ -11125,7 +11119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>504</v>
       </c>
@@ -11142,7 +11136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>505</v>
       </c>
@@ -11156,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>506</v>
       </c>
@@ -11170,7 +11164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>507</v>
       </c>
@@ -11196,7 +11190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>508</v>
       </c>
@@ -11213,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>509</v>
       </c>
@@ -11245,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>510</v>
       </c>
@@ -11265,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>511</v>
       </c>
@@ -11285,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>512</v>
       </c>
@@ -11323,7 +11317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>513</v>
       </c>
@@ -11340,7 +11334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>514</v>
       </c>
@@ -11354,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>515</v>
       </c>
@@ -11371,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>516</v>
       </c>
@@ -11391,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>517</v>
       </c>
@@ -11423,7 +11417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>518</v>
       </c>
@@ -11446,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>519</v>
       </c>
@@ -11463,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>520</v>
       </c>
@@ -11474,7 +11468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>521</v>
       </c>
@@ -11491,7 +11485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>522</v>
       </c>
@@ -11502,7 +11496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>523</v>
       </c>
@@ -11513,7 +11507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>524</v>
       </c>
@@ -11524,7 +11518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>525</v>
       </c>
@@ -11556,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>526</v>
       </c>
@@ -11588,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>527</v>
       </c>
@@ -11623,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>528</v>
       </c>
@@ -11649,7 +11643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>529</v>
       </c>
@@ -11684,7 +11678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>530</v>
       </c>
@@ -11701,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>531</v>
       </c>
@@ -11715,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>532</v>
       </c>
@@ -11729,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>533</v>
       </c>
@@ -11746,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>534</v>
       </c>
@@ -11766,7 +11760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>535</v>
       </c>
